--- a/tc_df_FullEquil_check_filter.xlsx
+++ b/tc_df_FullEquil_check_filter.xlsx
@@ -472,7 +472,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-80</v>
+        <v>-65</v>
       </c>
       <c r="B2" t="n">
         <v>473.15</v>
@@ -487,7 +487,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>1.000000000064076</v>
+        <v>1.000000000019076</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -495,7 +495,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-79.6987951807229</v>
+        <v>-64.75903614457832</v>
       </c>
       <c r="B3" t="n">
         <v>473.15</v>
@@ -510,7 +510,7 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>1.000000000063172</v>
+        <v>1.000000000018353</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -518,7 +518,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>-79.39759036144578</v>
+        <v>-64.51807228915662</v>
       </c>
       <c r="B4" t="n">
         <v>473.15</v>
@@ -533,7 +533,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>1.000000000062269</v>
+        <v>1.00000000001763</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -541,7 +541,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>-79.09638554216868</v>
+        <v>-64.27710843373494</v>
       </c>
       <c r="B5" t="n">
         <v>473.15</v>
@@ -556,7 +556,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>1.000000000061365</v>
+        <v>1.000000000016907</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -564,7 +564,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>-78.79518072289157</v>
+        <v>-64.03614457831326</v>
       </c>
       <c r="B6" t="n">
         <v>473.15</v>
@@ -579,7 +579,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>1.000000000060461</v>
+        <v>1.000000000016184</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -587,7 +587,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>-78.49397590361446</v>
+        <v>-63.79518072289157</v>
       </c>
       <c r="B7" t="n">
         <v>473.15</v>
@@ -602,7 +602,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>1.000000000059558</v>
+        <v>1.000000000015461</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -610,7 +610,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>-78.19277108433735</v>
+        <v>-63.55421686746988</v>
       </c>
       <c r="B8" t="n">
         <v>473.15</v>
@@ -625,7 +625,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>1.000000000058654</v>
+        <v>1.000000000014738</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -633,7 +633,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-77.89156626506023</v>
+        <v>-63.31325301204819</v>
       </c>
       <c r="B9" t="n">
         <v>473.15</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>1.00000000005775</v>
+        <v>1.000000000014015</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -656,7 +656,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>-77.59036144578313</v>
+        <v>-63.0722891566265</v>
       </c>
       <c r="B10" t="n">
         <v>473.15</v>
@@ -671,7 +671,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>1.000000000056847</v>
+        <v>1.000000000013293</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -679,7 +679,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>-77.28915662650603</v>
+        <v>-62.83132530120482</v>
       </c>
       <c r="B11" t="n">
         <v>473.15</v>
@@ -694,7 +694,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>1.000000000055943</v>
+        <v>1.00000000001257</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -702,7 +702,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>-76.98795180722891</v>
+        <v>-62.59036144578313</v>
       </c>
       <c r="B12" t="n">
         <v>473.15</v>
@@ -717,7 +717,7 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>1.00000000005504</v>
+        <v>1.000000000011847</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -725,7 +725,7 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>-76.68674698795181</v>
+        <v>-62.34939759036145</v>
       </c>
       <c r="B13" t="n">
         <v>473.15</v>
@@ -740,7 +740,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>1.000000000054136</v>
+        <v>1.000000000011124</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -748,7 +748,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>-76.3855421686747</v>
+        <v>-62.10843373493976</v>
       </c>
       <c r="B14" t="n">
         <v>473.15</v>
@@ -763,7 +763,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>1.000000000053232</v>
+        <v>1.000000000010401</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -771,7 +771,7 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>-76.08433734939759</v>
+        <v>-61.86746987951807</v>
       </c>
       <c r="B15" t="n">
         <v>473.15</v>
@@ -786,7 +786,7 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>1.000000000052329</v>
+        <v>1.000000000009678</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
@@ -794,7 +794,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>-75.78313253012048</v>
+        <v>-61.62650602409639</v>
       </c>
       <c r="B16" t="n">
         <v>473.15</v>
@@ -809,7 +809,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>1.000000000051425</v>
+        <v>1.000000000008955</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -817,7 +817,7 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>-75.48192771084338</v>
+        <v>-61.3855421686747</v>
       </c>
       <c r="B17" t="n">
         <v>473.15</v>
@@ -832,7 +832,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>1.000000000050522</v>
+        <v>1.000000000008232</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -840,7 +840,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>-75.18072289156626</v>
+        <v>-61.14457831325301</v>
       </c>
       <c r="B18" t="n">
         <v>473.15</v>
@@ -855,7 +855,7 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>1.000000000049618</v>
+        <v>1.00000000000751</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
@@ -863,7 +863,7 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>-74.87951807228916</v>
+        <v>-60.90361445783132</v>
       </c>
       <c r="B19" t="n">
         <v>473.15</v>
@@ -878,7 +878,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>1.000000000048714</v>
+        <v>1.000000000006787</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -886,7 +886,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>-74.57831325301204</v>
+        <v>-60.66265060240964</v>
       </c>
       <c r="B20" t="n">
         <v>473.15</v>
@@ -901,7 +901,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>1.000000000047811</v>
+        <v>1.000000000006064</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -909,7 +909,7 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>-74.27710843373494</v>
+        <v>-60.42168674698795</v>
       </c>
       <c r="B21" t="n">
         <v>473.15</v>
@@ -924,7 +924,7 @@
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>1.000000000046907</v>
+        <v>1.000000000005341</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
@@ -932,7 +932,7 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>-73.97590361445783</v>
+        <v>-60.18072289156626</v>
       </c>
       <c r="B22" t="n">
         <v>473.15</v>
@@ -947,7 +947,7 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>1.000000000046003</v>
+        <v>1.000000000004618</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -955,7 +955,7 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>-73.67469879518072</v>
+        <v>-59.93975903614458</v>
       </c>
       <c r="B23" t="n">
         <v>473.15</v>
@@ -970,7 +970,7 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>1.0000000000451</v>
+        <v>1.000000000003895</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -978,7 +978,7 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>-73.37349397590361</v>
+        <v>-59.69879518072289</v>
       </c>
       <c r="B24" t="n">
         <v>473.15</v>
@@ -987,13 +987,13 @@
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>1.000000000044196</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
@@ -1001,7 +1001,7 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>-73.07228915662651</v>
+        <v>-59.45783132530121</v>
       </c>
       <c r="B25" t="n">
         <v>473.15</v>
@@ -1010,13 +1010,13 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>1.000000000043293</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -1024,7 +1024,7 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>-72.77108433734939</v>
+        <v>-59.21686746987952</v>
       </c>
       <c r="B26" t="n">
         <v>473.15</v>
@@ -1033,13 +1033,13 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>1.000000000042389</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -1047,7 +1047,7 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>-72.46987951807229</v>
+        <v>-58.97590361445783</v>
       </c>
       <c r="B27" t="n">
         <v>473.15</v>
@@ -1056,13 +1056,13 @@
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>1.000000000041485</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
@@ -1070,7 +1070,7 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>-72.16867469879519</v>
+        <v>-58.73493975903614</v>
       </c>
       <c r="B28" t="n">
         <v>473.15</v>
@@ -1079,13 +1079,13 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>1.000000000040582</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -1093,7 +1093,7 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>-71.86746987951807</v>
+        <v>-58.49397590361446</v>
       </c>
       <c r="B29" t="n">
         <v>473.15</v>
@@ -1102,13 +1102,13 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>1.000000000039678</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -1116,7 +1116,7 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>-71.56626506024097</v>
+        <v>-58.25301204819277</v>
       </c>
       <c r="B30" t="n">
         <v>473.15</v>
@@ -1125,13 +1125,13 @@
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>1.000000000038775</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
@@ -1139,7 +1139,7 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>-71.26506024096386</v>
+        <v>-58.01204819277108</v>
       </c>
       <c r="B31" t="n">
         <v>473.15</v>
@@ -1148,13 +1148,13 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>1.000000000037871</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -1162,7 +1162,7 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>-70.96385542168674</v>
+        <v>-57.7710843373494</v>
       </c>
       <c r="B32" t="n">
         <v>473.15</v>
@@ -1171,13 +1171,13 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>1.000000000036967</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -1185,7 +1185,7 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>-70.66265060240964</v>
+        <v>-57.53012048192771</v>
       </c>
       <c r="B33" t="n">
         <v>473.15</v>
@@ -1194,13 +1194,13 @@
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>1.000000000036064</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
@@ -1208,7 +1208,7 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>-70.36144578313252</v>
+        <v>-57.28915662650603</v>
       </c>
       <c r="B34" t="n">
         <v>473.15</v>
@@ -1217,13 +1217,13 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>1.00000000003516</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -1231,7 +1231,7 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>-70.06024096385542</v>
+        <v>-57.04819277108434</v>
       </c>
       <c r="B35" t="n">
         <v>473.15</v>
@@ -1240,13 +1240,13 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>1.000000000034257</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -1254,7 +1254,7 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>-69.75903614457832</v>
+        <v>-56.80722891566265</v>
       </c>
       <c r="B36" t="n">
         <v>473.15</v>
@@ -1263,13 +1263,13 @@
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E36" t="n">
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>1.000000000033353</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
@@ -1277,7 +1277,7 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>-69.4578313253012</v>
+        <v>-56.56626506024097</v>
       </c>
       <c r="B37" t="n">
         <v>473.15</v>
@@ -1286,13 +1286,13 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>1.000000000032449</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -1300,7 +1300,7 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>-69.1566265060241</v>
+        <v>-56.32530120481928</v>
       </c>
       <c r="B38" t="n">
         <v>473.15</v>
@@ -1309,13 +1309,13 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>1.000000000031546</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -1323,7 +1323,7 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>-68.85542168674698</v>
+        <v>-56.08433734939759</v>
       </c>
       <c r="B39" t="n">
         <v>473.15</v>
@@ -1332,13 +1332,13 @@
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E39" t="n">
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>1.000000000030642</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
@@ -1346,7 +1346,7 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>-68.55421686746988</v>
+        <v>-55.8433734939759</v>
       </c>
       <c r="B40" t="n">
         <v>473.15</v>
@@ -1355,13 +1355,13 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>1.000000000029738</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -1369,7 +1369,7 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>-68.25301204819277</v>
+        <v>-55.60240963855422</v>
       </c>
       <c r="B41" t="n">
         <v>473.15</v>
@@ -1378,13 +1378,13 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>1.000000000028835</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -1392,7 +1392,7 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>-67.95180722891567</v>
+        <v>-55.36144578313253</v>
       </c>
       <c r="B42" t="n">
         <v>473.15</v>
@@ -1401,13 +1401,13 @@
         <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E42" t="n">
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>1.000000000027931</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
         <v>0</v>
@@ -1415,7 +1415,7 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>-67.65060240963855</v>
+        <v>-55.12048192771084</v>
       </c>
       <c r="B43" t="n">
         <v>473.15</v>
@@ -1424,13 +1424,13 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>1.000000000027027</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -1438,7 +1438,7 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>-67.34939759036145</v>
+        <v>-54.87951807228916</v>
       </c>
       <c r="B44" t="n">
         <v>473.15</v>
@@ -1447,13 +1447,13 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>1.000000000026124</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -1461,7 +1461,7 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>-67.04819277108433</v>
+        <v>-54.63855421686747</v>
       </c>
       <c r="B45" t="n">
         <v>473.15</v>
@@ -1470,13 +1470,13 @@
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E45" t="n">
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>1.00000000002522</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
         <v>0</v>
@@ -1484,7 +1484,7 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>-66.74698795180723</v>
+        <v>-54.39759036144578</v>
       </c>
       <c r="B46" t="n">
         <v>473.15</v>
@@ -1493,13 +1493,13 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>1.000000000024317</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -1507,7 +1507,7 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>-66.44578313253012</v>
+        <v>-54.1566265060241</v>
       </c>
       <c r="B47" t="n">
         <v>473.15</v>
@@ -1516,13 +1516,13 @@
         <v>0</v>
       </c>
       <c r="D47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E47" t="n">
         <v>0</v>
       </c>
       <c r="F47" t="n">
-        <v>1.000000000023413</v>
+        <v>0</v>
       </c>
       <c r="G47" t="n">
         <v>0</v>
@@ -1530,7 +1530,7 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>-66.14457831325301</v>
+        <v>-53.91566265060241</v>
       </c>
       <c r="B48" t="n">
         <v>473.15</v>
@@ -1539,13 +1539,13 @@
         <v>0</v>
       </c>
       <c r="D48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E48" t="n">
         <v>0</v>
       </c>
       <c r="F48" t="n">
-        <v>1.00000000002251</v>
+        <v>0</v>
       </c>
       <c r="G48" t="n">
         <v>0</v>
@@ -1553,7 +1553,7 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>-65.8433734939759</v>
+        <v>-53.67469879518072</v>
       </c>
       <c r="B49" t="n">
         <v>473.15</v>
@@ -1562,13 +1562,13 @@
         <v>0</v>
       </c>
       <c r="D49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E49" t="n">
         <v>0</v>
       </c>
       <c r="F49" t="n">
-        <v>1.000000000021606</v>
+        <v>0</v>
       </c>
       <c r="G49" t="n">
         <v>0</v>
@@ -1576,7 +1576,7 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>-65.54216867469879</v>
+        <v>-53.43373493975903</v>
       </c>
       <c r="B50" t="n">
         <v>473.15</v>
@@ -1585,13 +1585,13 @@
         <v>0</v>
       </c>
       <c r="D50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E50" t="n">
         <v>0</v>
       </c>
       <c r="F50" t="n">
-        <v>1.000000000020702</v>
+        <v>0</v>
       </c>
       <c r="G50" t="n">
         <v>0</v>
@@ -1599,7 +1599,7 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>-65.24096385542168</v>
+        <v>-53.19277108433735</v>
       </c>
       <c r="B51" t="n">
         <v>473.15</v>
@@ -1608,13 +1608,13 @@
         <v>0</v>
       </c>
       <c r="D51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E51" t="n">
         <v>0</v>
       </c>
       <c r="F51" t="n">
-        <v>1.000000000019799</v>
+        <v>0</v>
       </c>
       <c r="G51" t="n">
         <v>0</v>
@@ -1622,7 +1622,7 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>-64.93975903614458</v>
+        <v>-52.95180722891566</v>
       </c>
       <c r="B52" t="n">
         <v>473.15</v>
@@ -1631,13 +1631,13 @@
         <v>0</v>
       </c>
       <c r="D52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E52" t="n">
         <v>0</v>
       </c>
       <c r="F52" t="n">
-        <v>1.000000000018895</v>
+        <v>0</v>
       </c>
       <c r="G52" t="n">
         <v>0</v>
@@ -1645,7 +1645,7 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>-64.63855421686748</v>
+        <v>-52.71084337349397</v>
       </c>
       <c r="B53" t="n">
         <v>473.15</v>
@@ -1654,13 +1654,13 @@
         <v>0</v>
       </c>
       <c r="D53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E53" t="n">
         <v>0</v>
       </c>
       <c r="F53" t="n">
-        <v>1.000000000017991</v>
+        <v>0</v>
       </c>
       <c r="G53" t="n">
         <v>0</v>
@@ -1668,7 +1668,7 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>-64.33734939759036</v>
+        <v>-52.46987951807229</v>
       </c>
       <c r="B54" t="n">
         <v>473.15</v>
@@ -1677,13 +1677,13 @@
         <v>0</v>
       </c>
       <c r="D54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E54" t="n">
         <v>0</v>
       </c>
       <c r="F54" t="n">
-        <v>1.000000000017088</v>
+        <v>0</v>
       </c>
       <c r="G54" t="n">
         <v>0</v>
@@ -1691,7 +1691,7 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>-64.03614457831326</v>
+        <v>-52.2289156626506</v>
       </c>
       <c r="B55" t="n">
         <v>473.15</v>
@@ -1700,13 +1700,13 @@
         <v>0</v>
       </c>
       <c r="D55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E55" t="n">
         <v>0</v>
       </c>
       <c r="F55" t="n">
-        <v>1.000000000016184</v>
+        <v>0</v>
       </c>
       <c r="G55" t="n">
         <v>0</v>
@@ -1714,7 +1714,7 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>-63.73493975903614</v>
+        <v>-51.98795180722892</v>
       </c>
       <c r="B56" t="n">
         <v>473.15</v>
@@ -1723,13 +1723,13 @@
         <v>0</v>
       </c>
       <c r="D56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E56" t="n">
         <v>0</v>
       </c>
       <c r="F56" t="n">
-        <v>1.000000000015281</v>
+        <v>0</v>
       </c>
       <c r="G56" t="n">
         <v>0</v>
@@ -1737,7 +1737,7 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>-63.43373493975903</v>
+        <v>-51.74698795180723</v>
       </c>
       <c r="B57" t="n">
         <v>473.15</v>
@@ -1746,13 +1746,13 @@
         <v>0</v>
       </c>
       <c r="D57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E57" t="n">
         <v>0</v>
       </c>
       <c r="F57" t="n">
-        <v>1.000000000014377</v>
+        <v>0</v>
       </c>
       <c r="G57" t="n">
         <v>0</v>
@@ -1760,7 +1760,7 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>-63.13253012048193</v>
+        <v>-51.50602409638554</v>
       </c>
       <c r="B58" t="n">
         <v>473.15</v>
@@ -1769,13 +1769,13 @@
         <v>0</v>
       </c>
       <c r="D58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E58" t="n">
         <v>0</v>
       </c>
       <c r="F58" t="n">
-        <v>1.000000000013473</v>
+        <v>0</v>
       </c>
       <c r="G58" t="n">
         <v>0</v>
@@ -1783,7 +1783,7 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>-62.83132530120481</v>
+        <v>-51.26506024096386</v>
       </c>
       <c r="B59" t="n">
         <v>473.15</v>
@@ -1792,13 +1792,13 @@
         <v>0</v>
       </c>
       <c r="D59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E59" t="n">
         <v>0</v>
       </c>
       <c r="F59" t="n">
-        <v>1.00000000001257</v>
+        <v>0</v>
       </c>
       <c r="G59" t="n">
         <v>0</v>
@@ -1806,7 +1806,7 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>-62.53012048192771</v>
+        <v>-51.02409638554217</v>
       </c>
       <c r="B60" t="n">
         <v>473.15</v>
@@ -1815,13 +1815,13 @@
         <v>0</v>
       </c>
       <c r="D60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E60" t="n">
         <v>0</v>
       </c>
       <c r="F60" t="n">
-        <v>1.000000000011666</v>
+        <v>0</v>
       </c>
       <c r="G60" t="n">
         <v>0</v>
@@ -1829,7 +1829,7 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>-62.2289156626506</v>
+        <v>-50.78313253012048</v>
       </c>
       <c r="B61" t="n">
         <v>473.15</v>
@@ -1838,13 +1838,13 @@
         <v>0</v>
       </c>
       <c r="D61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E61" t="n">
         <v>0</v>
       </c>
       <c r="F61" t="n">
-        <v>1.000000000010763</v>
+        <v>0</v>
       </c>
       <c r="G61" t="n">
         <v>0</v>
@@ -1852,7 +1852,7 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>-61.92771084337349</v>
+        <v>-50.54216867469879</v>
       </c>
       <c r="B62" t="n">
         <v>473.15</v>
@@ -1861,13 +1861,13 @@
         <v>0</v>
       </c>
       <c r="D62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E62" t="n">
         <v>0</v>
       </c>
       <c r="F62" t="n">
-        <v>1.000000000009859</v>
+        <v>0</v>
       </c>
       <c r="G62" t="n">
         <v>0</v>
@@ -1875,7 +1875,7 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>-61.62650602409639</v>
+        <v>-50.30120481927711</v>
       </c>
       <c r="B63" t="n">
         <v>473.15</v>
@@ -1884,13 +1884,13 @@
         <v>0</v>
       </c>
       <c r="D63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E63" t="n">
         <v>0</v>
       </c>
       <c r="F63" t="n">
-        <v>1.000000000008955</v>
+        <v>0</v>
       </c>
       <c r="G63" t="n">
         <v>0</v>
@@ -1898,7 +1898,7 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>-61.32530120481928</v>
+        <v>-50.06024096385542</v>
       </c>
       <c r="B64" t="n">
         <v>473.15</v>
@@ -1907,13 +1907,13 @@
         <v>0</v>
       </c>
       <c r="D64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E64" t="n">
         <v>0</v>
       </c>
       <c r="F64" t="n">
-        <v>1.000000000008052</v>
+        <v>0</v>
       </c>
       <c r="G64" t="n">
         <v>0</v>
@@ -1921,7 +1921,7 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>-61.02409638554217</v>
+        <v>-49.81927710843374</v>
       </c>
       <c r="B65" t="n">
         <v>473.15</v>
@@ -1930,13 +1930,13 @@
         <v>0</v>
       </c>
       <c r="D65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E65" t="n">
         <v>0</v>
       </c>
       <c r="F65" t="n">
-        <v>1.000000000007148</v>
+        <v>0</v>
       </c>
       <c r="G65" t="n">
         <v>0</v>
@@ -1944,7 +1944,7 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>-60.72289156626506</v>
+        <v>-49.57831325301205</v>
       </c>
       <c r="B66" t="n">
         <v>473.15</v>
@@ -1953,13 +1953,13 @@
         <v>0</v>
       </c>
       <c r="D66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E66" t="n">
         <v>0</v>
       </c>
       <c r="F66" t="n">
-        <v>1.000000000006245</v>
+        <v>0</v>
       </c>
       <c r="G66" t="n">
         <v>0</v>
@@ -1967,7 +1967,7 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>-60.42168674698795</v>
+        <v>-49.33734939759036</v>
       </c>
       <c r="B67" t="n">
         <v>473.15</v>
@@ -1976,13 +1976,13 @@
         <v>0</v>
       </c>
       <c r="D67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E67" t="n">
         <v>0</v>
       </c>
       <c r="F67" t="n">
-        <v>1.000000000005341</v>
+        <v>0</v>
       </c>
       <c r="G67" t="n">
         <v>0</v>
@@ -1990,7 +1990,7 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>-60.12048192771084</v>
+        <v>-49.09638554216868</v>
       </c>
       <c r="B68" t="n">
         <v>473.15</v>
@@ -1999,13 +1999,13 @@
         <v>0</v>
       </c>
       <c r="D68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E68" t="n">
         <v>0</v>
       </c>
       <c r="F68" t="n">
-        <v>1.000000000004437</v>
+        <v>0</v>
       </c>
       <c r="G68" t="n">
         <v>0</v>
@@ -2013,7 +2013,7 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>-59.81927710843374</v>
+        <v>-48.85542168674699</v>
       </c>
       <c r="B69" t="n">
         <v>473.15</v>
@@ -2022,13 +2022,13 @@
         <v>0</v>
       </c>
       <c r="D69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E69" t="n">
         <v>0</v>
       </c>
       <c r="F69" t="n">
-        <v>1.000000000003534</v>
+        <v>0</v>
       </c>
       <c r="G69" t="n">
         <v>0</v>
@@ -2036,7 +2036,7 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>-59.51807228915662</v>
+        <v>-48.6144578313253</v>
       </c>
       <c r="B70" t="n">
         <v>473.15</v>
@@ -2059,7 +2059,7 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>-59.21686746987952</v>
+        <v>-48.37349397590361</v>
       </c>
       <c r="B71" t="n">
         <v>473.15</v>
@@ -2082,7 +2082,7 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>-58.91566265060241</v>
+        <v>-48.13253012048193</v>
       </c>
       <c r="B72" t="n">
         <v>473.15</v>
@@ -2105,7 +2105,7 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>-58.6144578313253</v>
+        <v>-47.89156626506024</v>
       </c>
       <c r="B73" t="n">
         <v>473.15</v>
@@ -2128,7 +2128,7 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>-58.31325301204819</v>
+        <v>-47.65060240963855</v>
       </c>
       <c r="B74" t="n">
         <v>473.15</v>
@@ -2151,7 +2151,7 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>-58.01204819277108</v>
+        <v>-47.40963855421687</v>
       </c>
       <c r="B75" t="n">
         <v>473.15</v>
@@ -2174,7 +2174,7 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>-57.71084337349397</v>
+        <v>-47.16867469879518</v>
       </c>
       <c r="B76" t="n">
         <v>473.15</v>
@@ -2197,7 +2197,7 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>-57.40963855421687</v>
+        <v>-46.92771084337349</v>
       </c>
       <c r="B77" t="n">
         <v>473.15</v>
@@ -2220,7 +2220,7 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>-57.10843373493976</v>
+        <v>-46.68674698795181</v>
       </c>
       <c r="B78" t="n">
         <v>473.15</v>
@@ -2243,7 +2243,7 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>-56.80722891566265</v>
+        <v>-46.44578313253012</v>
       </c>
       <c r="B79" t="n">
         <v>473.15</v>
@@ -2266,7 +2266,7 @@
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>-56.50602409638554</v>
+        <v>-46.20481927710843</v>
       </c>
       <c r="B80" t="n">
         <v>473.15</v>
@@ -2289,7 +2289,7 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>-56.20481927710843</v>
+        <v>-45.96385542168674</v>
       </c>
       <c r="B81" t="n">
         <v>473.15</v>
@@ -2312,7 +2312,7 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>-55.90361445783132</v>
+        <v>-45.72289156626506</v>
       </c>
       <c r="B82" t="n">
         <v>473.15</v>
@@ -2335,7 +2335,7 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>-55.60240963855421</v>
+        <v>-45.48192771084337</v>
       </c>
       <c r="B83" t="n">
         <v>473.15</v>
@@ -2358,7 +2358,7 @@
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>-55.3012048192771</v>
+        <v>-45.24096385542168</v>
       </c>
       <c r="B84" t="n">
         <v>473.15</v>
@@ -2381,7 +2381,7 @@
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>-55</v>
+        <v>-45</v>
       </c>
       <c r="B85" t="n">
         <v>473.15</v>
@@ -2404,7 +2404,7 @@
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>-54.69879518072289</v>
+        <v>-44.75903614457832</v>
       </c>
       <c r="B86" t="n">
         <v>473.15</v>
@@ -2427,7 +2427,7 @@
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>-54.39759036144578</v>
+        <v>-44.51807228915663</v>
       </c>
       <c r="B87" t="n">
         <v>473.15</v>
@@ -2450,7 +2450,7 @@
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>-54.09638554216868</v>
+        <v>-44.27710843373494</v>
       </c>
       <c r="B88" t="n">
         <v>473.15</v>
@@ -2473,7 +2473,7 @@
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>-53.79518072289157</v>
+        <v>-44.03614457831326</v>
       </c>
       <c r="B89" t="n">
         <v>473.15</v>
@@ -2496,7 +2496,7 @@
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>-53.49397590361446</v>
+        <v>-43.79518072289157</v>
       </c>
       <c r="B90" t="n">
         <v>473.15</v>
@@ -2519,7 +2519,7 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>-53.19277108433735</v>
+        <v>-43.55421686746988</v>
       </c>
       <c r="B91" t="n">
         <v>473.15</v>
@@ -2542,7 +2542,7 @@
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>-52.89156626506023</v>
+        <v>-43.31325301204819</v>
       </c>
       <c r="B92" t="n">
         <v>473.15</v>
@@ -2565,7 +2565,7 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>-52.59036144578313</v>
+        <v>-43.07228915662651</v>
       </c>
       <c r="B93" t="n">
         <v>473.15</v>
@@ -2588,7 +2588,7 @@
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>-52.28915662650602</v>
+        <v>-42.83132530120482</v>
       </c>
       <c r="B94" t="n">
         <v>473.15</v>
@@ -2611,7 +2611,7 @@
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>-51.98795180722891</v>
+        <v>-42.59036144578313</v>
       </c>
       <c r="B95" t="n">
         <v>473.15</v>
@@ -2634,16 +2634,16 @@
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>-51.68674698795181</v>
+        <v>-42.34939759036145</v>
       </c>
       <c r="B96" t="n">
         <v>473.15</v>
       </c>
       <c r="C96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E96" t="n">
         <v>0</v>
@@ -2657,16 +2657,16 @@
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>-51.3855421686747</v>
+        <v>-42.10843373493976</v>
       </c>
       <c r="B97" t="n">
         <v>473.15</v>
       </c>
       <c r="C97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E97" t="n">
         <v>0</v>
@@ -2680,16 +2680,16 @@
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>-51.08433734939759</v>
+        <v>-41.86746987951807</v>
       </c>
       <c r="B98" t="n">
         <v>473.15</v>
       </c>
       <c r="C98" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E98" t="n">
         <v>0</v>
@@ -2703,16 +2703,16 @@
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>-50.78313253012048</v>
+        <v>-41.62650602409639</v>
       </c>
       <c r="B99" t="n">
         <v>473.15</v>
       </c>
       <c r="C99" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E99" t="n">
         <v>0</v>
@@ -2726,16 +2726,16 @@
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>-50.48192771084337</v>
+        <v>-41.3855421686747</v>
       </c>
       <c r="B100" t="n">
         <v>473.15</v>
       </c>
       <c r="C100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E100" t="n">
         <v>0</v>
@@ -2749,16 +2749,16 @@
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>-50.18072289156626</v>
+        <v>-41.14457831325301</v>
       </c>
       <c r="B101" t="n">
         <v>473.15</v>
       </c>
       <c r="C101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E101" t="n">
         <v>0</v>
@@ -2772,16 +2772,16 @@
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>-49.87951807228916</v>
+        <v>-40.90361445783132</v>
       </c>
       <c r="B102" t="n">
         <v>473.15</v>
       </c>
       <c r="C102" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E102" t="n">
         <v>0</v>
@@ -2795,16 +2795,16 @@
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>-49.57831325301204</v>
+        <v>-40.66265060240964</v>
       </c>
       <c r="B103" t="n">
         <v>473.15</v>
       </c>
       <c r="C103" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D103" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E103" t="n">
         <v>0</v>
@@ -2818,16 +2818,16 @@
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>-49.27710843373494</v>
+        <v>-40.42168674698795</v>
       </c>
       <c r="B104" t="n">
         <v>473.15</v>
       </c>
       <c r="C104" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D104" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E104" t="n">
         <v>0</v>
@@ -2841,16 +2841,16 @@
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>-48.97590361445783</v>
+        <v>-40.18072289156626</v>
       </c>
       <c r="B105" t="n">
         <v>473.15</v>
       </c>
       <c r="C105" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D105" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E105" t="n">
         <v>0</v>
@@ -2864,16 +2864,16 @@
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>-48.67469879518072</v>
+        <v>-39.93975903614458</v>
       </c>
       <c r="B106" t="n">
         <v>473.15</v>
       </c>
       <c r="C106" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D106" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E106" t="n">
         <v>0</v>
@@ -2887,16 +2887,16 @@
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>-48.37349397590361</v>
+        <v>-39.6987951807229</v>
       </c>
       <c r="B107" t="n">
         <v>473.15</v>
       </c>
       <c r="C107" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D107" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E107" t="n">
         <v>0</v>
@@ -2910,16 +2910,16 @@
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>-48.0722891566265</v>
+        <v>-39.4578313253012</v>
       </c>
       <c r="B108" t="n">
         <v>473.15</v>
       </c>
       <c r="C108" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D108" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E108" t="n">
         <v>0</v>
@@ -2933,16 +2933,16 @@
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>-47.77108433734939</v>
+        <v>-39.21686746987952</v>
       </c>
       <c r="B109" t="n">
         <v>473.15</v>
       </c>
       <c r="C109" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D109" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E109" t="n">
         <v>0</v>
@@ -2956,16 +2956,16 @@
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>-47.46987951807229</v>
+        <v>-38.97590361445783</v>
       </c>
       <c r="B110" t="n">
         <v>473.15</v>
       </c>
       <c r="C110" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D110" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E110" t="n">
         <v>0</v>
@@ -2979,16 +2979,16 @@
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>-47.16867469879518</v>
+        <v>-38.73493975903614</v>
       </c>
       <c r="B111" t="n">
         <v>473.15</v>
       </c>
       <c r="C111" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D111" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E111" t="n">
         <v>0</v>
@@ -3002,16 +3002,16 @@
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>-46.86746987951807</v>
+        <v>-38.49397590361446</v>
       </c>
       <c r="B112" t="n">
         <v>473.15</v>
       </c>
       <c r="C112" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D112" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E112" t="n">
         <v>0</v>
@@ -3025,16 +3025,16 @@
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>-46.56626506024096</v>
+        <v>-38.25301204819277</v>
       </c>
       <c r="B113" t="n">
         <v>473.15</v>
       </c>
       <c r="C113" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D113" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E113" t="n">
         <v>0</v>
@@ -3048,16 +3048,16 @@
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>-46.26506024096386</v>
+        <v>-38.01204819277108</v>
       </c>
       <c r="B114" t="n">
         <v>473.15</v>
       </c>
       <c r="C114" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D114" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E114" t="n">
         <v>0</v>
@@ -3071,16 +3071,16 @@
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>-45.96385542168674</v>
+        <v>-37.77108433734939</v>
       </c>
       <c r="B115" t="n">
         <v>473.15</v>
       </c>
       <c r="C115" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D115" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E115" t="n">
         <v>0</v>
@@ -3094,16 +3094,16 @@
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>-45.66265060240963</v>
+        <v>-37.53012048192771</v>
       </c>
       <c r="B116" t="n">
         <v>473.15</v>
       </c>
       <c r="C116" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D116" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E116" t="n">
         <v>0</v>
@@ -3117,16 +3117,16 @@
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>-45.36144578313252</v>
+        <v>-37.28915662650603</v>
       </c>
       <c r="B117" t="n">
         <v>473.15</v>
       </c>
       <c r="C117" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D117" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E117" t="n">
         <v>0</v>
@@ -3140,16 +3140,16 @@
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>-45.06024096385542</v>
+        <v>-37.04819277108434</v>
       </c>
       <c r="B118" t="n">
         <v>473.15</v>
       </c>
       <c r="C118" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D118" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E118" t="n">
         <v>0</v>
@@ -3163,16 +3163,16 @@
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>-44.75903614457831</v>
+        <v>-36.80722891566265</v>
       </c>
       <c r="B119" t="n">
         <v>473.15</v>
       </c>
       <c r="C119" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D119" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E119" t="n">
         <v>0</v>
@@ -3186,16 +3186,16 @@
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>-44.4578313253012</v>
+        <v>-36.56626506024097</v>
       </c>
       <c r="B120" t="n">
         <v>473.15</v>
       </c>
       <c r="C120" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D120" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E120" t="n">
         <v>0</v>
@@ -3209,16 +3209,16 @@
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>-44.1566265060241</v>
+        <v>-36.32530120481928</v>
       </c>
       <c r="B121" t="n">
         <v>473.15</v>
       </c>
       <c r="C121" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D121" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E121" t="n">
         <v>0</v>
@@ -3232,16 +3232,16 @@
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>-43.85542168674699</v>
+        <v>-36.08433734939759</v>
       </c>
       <c r="B122" t="n">
         <v>473.15</v>
       </c>
       <c r="C122" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D122" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E122" t="n">
         <v>0</v>
@@ -3255,16 +3255,16 @@
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>-43.55421686746988</v>
+        <v>-35.8433734939759</v>
       </c>
       <c r="B123" t="n">
         <v>473.15</v>
       </c>
       <c r="C123" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D123" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E123" t="n">
         <v>0</v>
@@ -3278,16 +3278,16 @@
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>-43.25301204819277</v>
+        <v>-35.60240963855422</v>
       </c>
       <c r="B124" t="n">
         <v>473.15</v>
       </c>
       <c r="C124" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D124" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E124" t="n">
         <v>0</v>
@@ -3301,16 +3301,16 @@
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>-42.95180722891566</v>
+        <v>-35.36144578313253</v>
       </c>
       <c r="B125" t="n">
         <v>473.15</v>
       </c>
       <c r="C125" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D125" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E125" t="n">
         <v>0</v>
@@ -3324,16 +3324,16 @@
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>-42.65060240963855</v>
+        <v>-35.12048192771084</v>
       </c>
       <c r="B126" t="n">
         <v>473.15</v>
       </c>
       <c r="C126" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D126" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E126" t="n">
         <v>0</v>
@@ -3347,7 +3347,7 @@
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>-42.34939759036144</v>
+        <v>-34.87951807228916</v>
       </c>
       <c r="B127" t="n">
         <v>473.15</v>
@@ -3370,7 +3370,7 @@
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>-42.04819277108433</v>
+        <v>-34.63855421686747</v>
       </c>
       <c r="B128" t="n">
         <v>473.15</v>
@@ -3393,7 +3393,7 @@
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>-41.74698795180723</v>
+        <v>-34.39759036144578</v>
       </c>
       <c r="B129" t="n">
         <v>473.15</v>
@@ -3416,7 +3416,7 @@
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>-41.44578313253012</v>
+        <v>-34.1566265060241</v>
       </c>
       <c r="B130" t="n">
         <v>473.15</v>
@@ -3439,7 +3439,7 @@
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>-41.14457831325301</v>
+        <v>-33.91566265060241</v>
       </c>
       <c r="B131" t="n">
         <v>473.15</v>
@@ -3462,7 +3462,7 @@
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>-40.8433734939759</v>
+        <v>-33.67469879518072</v>
       </c>
       <c r="B132" t="n">
         <v>473.15</v>
@@ -3485,7 +3485,7 @@
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>-40.54216867469879</v>
+        <v>-33.43373493975903</v>
       </c>
       <c r="B133" t="n">
         <v>473.15</v>
@@ -3508,7 +3508,7 @@
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>-40.24096385542168</v>
+        <v>-33.19277108433735</v>
       </c>
       <c r="B134" t="n">
         <v>473.15</v>
@@ -3531,7 +3531,7 @@
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>-39.93975903614457</v>
+        <v>-32.95180722891566</v>
       </c>
       <c r="B135" t="n">
         <v>473.15</v>
@@ -3554,7 +3554,7 @@
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>-39.63855421686747</v>
+        <v>-32.71084337349398</v>
       </c>
       <c r="B136" t="n">
         <v>473.15</v>
@@ -3577,7 +3577,7 @@
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>-39.33734939759036</v>
+        <v>-32.46987951807229</v>
       </c>
       <c r="B137" t="n">
         <v>473.15</v>
@@ -3600,7 +3600,7 @@
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>-39.03614457831325</v>
+        <v>-32.2289156626506</v>
       </c>
       <c r="B138" t="n">
         <v>473.15</v>
@@ -3623,7 +3623,7 @@
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>-38.73493975903614</v>
+        <v>-31.98795180722892</v>
       </c>
       <c r="B139" t="n">
         <v>473.15</v>
@@ -3646,7 +3646,7 @@
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>-38.43373493975903</v>
+        <v>-31.74698795180723</v>
       </c>
       <c r="B140" t="n">
         <v>473.15</v>
@@ -3669,7 +3669,7 @@
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>-38.13253012048192</v>
+        <v>-31.50602409638554</v>
       </c>
       <c r="B141" t="n">
         <v>473.15</v>
@@ -3692,7 +3692,7 @@
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>-37.83132530120481</v>
+        <v>-31.26506024096386</v>
       </c>
       <c r="B142" t="n">
         <v>473.15</v>
@@ -3715,7 +3715,7 @@
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>-37.53012048192771</v>
+        <v>-31.02409638554217</v>
       </c>
       <c r="B143" t="n">
         <v>473.15</v>
@@ -3738,7 +3738,7 @@
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>-37.2289156626506</v>
+        <v>-30.78313253012048</v>
       </c>
       <c r="B144" t="n">
         <v>473.15</v>
@@ -3761,7 +3761,7 @@
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>-36.92771084337349</v>
+        <v>-30.54216867469879</v>
       </c>
       <c r="B145" t="n">
         <v>473.15</v>
@@ -3784,7 +3784,7 @@
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>-36.62650602409638</v>
+        <v>-30.30120481927711</v>
       </c>
       <c r="B146" t="n">
         <v>473.15</v>
@@ -3807,7 +3807,7 @@
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>-36.32530120481928</v>
+        <v>-30.06024096385542</v>
       </c>
       <c r="B147" t="n">
         <v>473.15</v>
@@ -3830,7 +3830,7 @@
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>-36.02409638554217</v>
+        <v>-29.81927710843374</v>
       </c>
       <c r="B148" t="n">
         <v>473.15</v>
@@ -3853,7 +3853,7 @@
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>-35.72289156626506</v>
+        <v>-29.57831325301205</v>
       </c>
       <c r="B149" t="n">
         <v>473.15</v>
@@ -3876,7 +3876,7 @@
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>-35.42168674698794</v>
+        <v>-29.33734939759036</v>
       </c>
       <c r="B150" t="n">
         <v>473.15</v>
@@ -3899,7 +3899,7 @@
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>-35.12048192771084</v>
+        <v>-29.09638554216868</v>
       </c>
       <c r="B151" t="n">
         <v>473.15</v>
@@ -3922,7 +3922,7 @@
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>-34.81927710843373</v>
+        <v>-28.85542168674699</v>
       </c>
       <c r="B152" t="n">
         <v>473.15</v>
@@ -3945,7 +3945,7 @@
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>-34.51807228915662</v>
+        <v>-28.6144578313253</v>
       </c>
       <c r="B153" t="n">
         <v>473.15</v>
@@ -3968,7 +3968,7 @@
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>-34.21686746987952</v>
+        <v>-28.37349397590361</v>
       </c>
       <c r="B154" t="n">
         <v>473.15</v>
@@ -3991,7 +3991,7 @@
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>-33.91566265060241</v>
+        <v>-28.13253012048193</v>
       </c>
       <c r="B155" t="n">
         <v>473.15</v>
@@ -4014,7 +4014,7 @@
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>-33.6144578313253</v>
+        <v>-27.89156626506024</v>
       </c>
       <c r="B156" t="n">
         <v>473.15</v>
@@ -4037,7 +4037,7 @@
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>-33.31325301204819</v>
+        <v>-27.65060240963855</v>
       </c>
       <c r="B157" t="n">
         <v>473.15</v>
@@ -4060,7 +4060,7 @@
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>-33.01204819277108</v>
+        <v>-27.40963855421687</v>
       </c>
       <c r="B158" t="n">
         <v>473.15</v>
@@ -4083,7 +4083,7 @@
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>-32.71084337349397</v>
+        <v>-27.16867469879518</v>
       </c>
       <c r="B159" t="n">
         <v>473.15</v>
@@ -4106,7 +4106,7 @@
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>-32.40963855421686</v>
+        <v>-26.9277108433735</v>
       </c>
       <c r="B160" t="n">
         <v>473.15</v>
@@ -4129,7 +4129,7 @@
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>-32.10843373493975</v>
+        <v>-26.68674698795181</v>
       </c>
       <c r="B161" t="n">
         <v>473.15</v>
@@ -4152,7 +4152,7 @@
     </row>
     <row r="162">
       <c r="A162" t="n">
-        <v>-31.80722891566265</v>
+        <v>-26.44578313253012</v>
       </c>
       <c r="B162" t="n">
         <v>473.15</v>
@@ -4175,7 +4175,7 @@
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>-31.50602409638554</v>
+        <v>-26.20481927710843</v>
       </c>
       <c r="B163" t="n">
         <v>473.15</v>
@@ -4198,7 +4198,7 @@
     </row>
     <row r="164">
       <c r="A164" t="n">
-        <v>-31.20481927710843</v>
+        <v>-25.96385542168674</v>
       </c>
       <c r="B164" t="n">
         <v>473.15</v>
@@ -4221,7 +4221,7 @@
     </row>
     <row r="165">
       <c r="A165" t="n">
-        <v>-30.90361445783132</v>
+        <v>-25.72289156626506</v>
       </c>
       <c r="B165" t="n">
         <v>473.15</v>
@@ -4244,7 +4244,7 @@
     </row>
     <row r="166">
       <c r="A166" t="n">
-        <v>-30.60240963855421</v>
+        <v>-25.48192771084337</v>
       </c>
       <c r="B166" t="n">
         <v>473.15</v>
@@ -4267,7 +4267,7 @@
     </row>
     <row r="167">
       <c r="A167" t="n">
-        <v>-30.3012048192771</v>
+        <v>-25.24096385542169</v>
       </c>
       <c r="B167" t="n">
         <v>473.15</v>
@@ -4290,7 +4290,7 @@
     </row>
     <row r="168">
       <c r="A168" t="n">
-        <v>-29.99999999999999</v>
+        <v>-25</v>
       </c>
       <c r="B168" t="n">
         <v>473.15</v>
@@ -4313,7 +4313,7 @@
     </row>
     <row r="169">
       <c r="A169" t="n">
-        <v>-29.69879518072289</v>
+        <v>-24.75903614457831</v>
       </c>
       <c r="B169" t="n">
         <v>473.15</v>
@@ -4336,7 +4336,7 @@
     </row>
     <row r="170">
       <c r="A170" t="n">
-        <v>-29.39759036144578</v>
+        <v>-24.51807228915663</v>
       </c>
       <c r="B170" t="n">
         <v>473.15</v>
@@ -4359,7 +4359,7 @@
     </row>
     <row r="171">
       <c r="A171" t="n">
-        <v>-29.09638554216867</v>
+        <v>-24.27710843373494</v>
       </c>
       <c r="B171" t="n">
         <v>473.15</v>
@@ -4382,7 +4382,7 @@
     </row>
     <row r="172">
       <c r="A172" t="n">
-        <v>-28.79518072289156</v>
+        <v>-24.03614457831326</v>
       </c>
       <c r="B172" t="n">
         <v>473.15</v>
@@ -4405,7 +4405,7 @@
     </row>
     <row r="173">
       <c r="A173" t="n">
-        <v>-28.49397590361446</v>
+        <v>-23.79518072289157</v>
       </c>
       <c r="B173" t="n">
         <v>473.15</v>
@@ -4428,7 +4428,7 @@
     </row>
     <row r="174">
       <c r="A174" t="n">
-        <v>-28.19277108433734</v>
+        <v>-23.55421686746988</v>
       </c>
       <c r="B174" t="n">
         <v>473.15</v>
@@ -4451,7 +4451,7 @@
     </row>
     <row r="175">
       <c r="A175" t="n">
-        <v>-27.89156626506023</v>
+        <v>-23.31325301204819</v>
       </c>
       <c r="B175" t="n">
         <v>473.15</v>
@@ -4474,7 +4474,7 @@
     </row>
     <row r="176">
       <c r="A176" t="n">
-        <v>-27.59036144578313</v>
+        <v>-23.0722891566265</v>
       </c>
       <c r="B176" t="n">
         <v>473.15</v>
@@ -4497,7 +4497,7 @@
     </row>
     <row r="177">
       <c r="A177" t="n">
-        <v>-27.28915662650602</v>
+        <v>-22.83132530120482</v>
       </c>
       <c r="B177" t="n">
         <v>473.15</v>
@@ -4520,7 +4520,7 @@
     </row>
     <row r="178">
       <c r="A178" t="n">
-        <v>-26.98795180722891</v>
+        <v>-22.59036144578313</v>
       </c>
       <c r="B178" t="n">
         <v>473.15</v>
@@ -4543,7 +4543,7 @@
     </row>
     <row r="179">
       <c r="A179" t="n">
-        <v>-26.6867469879518</v>
+        <v>-22.34939759036145</v>
       </c>
       <c r="B179" t="n">
         <v>473.15</v>
@@ -4566,7 +4566,7 @@
     </row>
     <row r="180">
       <c r="A180" t="n">
-        <v>-26.3855421686747</v>
+        <v>-22.10843373493976</v>
       </c>
       <c r="B180" t="n">
         <v>473.15</v>
@@ -4589,7 +4589,7 @@
     </row>
     <row r="181">
       <c r="A181" t="n">
-        <v>-26.08433734939759</v>
+        <v>-21.86746987951808</v>
       </c>
       <c r="B181" t="n">
         <v>473.15</v>
@@ -4612,7 +4612,7 @@
     </row>
     <row r="182">
       <c r="A182" t="n">
-        <v>-25.78313253012048</v>
+        <v>-21.62650602409639</v>
       </c>
       <c r="B182" t="n">
         <v>473.15</v>
@@ -4635,7 +4635,7 @@
     </row>
     <row r="183">
       <c r="A183" t="n">
-        <v>-25.48192771084337</v>
+        <v>-21.3855421686747</v>
       </c>
       <c r="B183" t="n">
         <v>473.15</v>
@@ -4658,7 +4658,7 @@
     </row>
     <row r="184">
       <c r="A184" t="n">
-        <v>-25.18072289156626</v>
+        <v>-21.14457831325301</v>
       </c>
       <c r="B184" t="n">
         <v>473.15</v>
@@ -4681,7 +4681,7 @@
     </row>
     <row r="185">
       <c r="A185" t="n">
-        <v>-24.87951807228915</v>
+        <v>-20.90361445783132</v>
       </c>
       <c r="B185" t="n">
         <v>473.15</v>
@@ -4704,7 +4704,7 @@
     </row>
     <row r="186">
       <c r="A186" t="n">
-        <v>-24.57831325301204</v>
+        <v>-20.66265060240964</v>
       </c>
       <c r="B186" t="n">
         <v>473.15</v>
@@ -4727,7 +4727,7 @@
     </row>
     <row r="187">
       <c r="A187" t="n">
-        <v>-24.27710843373494</v>
+        <v>-20.42168674698795</v>
       </c>
       <c r="B187" t="n">
         <v>473.15</v>
@@ -4750,7 +4750,7 @@
     </row>
     <row r="188">
       <c r="A188" t="n">
-        <v>-23.97590361445783</v>
+        <v>-20.18072289156626</v>
       </c>
       <c r="B188" t="n">
         <v>473.15</v>
@@ -4773,7 +4773,7 @@
     </row>
     <row r="189">
       <c r="A189" t="n">
-        <v>-23.67469879518072</v>
+        <v>-19.93975903614458</v>
       </c>
       <c r="B189" t="n">
         <v>473.15</v>
@@ -4796,7 +4796,7 @@
     </row>
     <row r="190">
       <c r="A190" t="n">
-        <v>-23.37349397590361</v>
+        <v>-19.69879518072289</v>
       </c>
       <c r="B190" t="n">
         <v>473.15</v>
@@ -4819,7 +4819,7 @@
     </row>
     <row r="191">
       <c r="A191" t="n">
-        <v>-23.0722891566265</v>
+        <v>-19.45783132530121</v>
       </c>
       <c r="B191" t="n">
         <v>473.15</v>
@@ -4842,7 +4842,7 @@
     </row>
     <row r="192">
       <c r="A192" t="n">
-        <v>-22.77108433734939</v>
+        <v>-19.21686746987952</v>
       </c>
       <c r="B192" t="n">
         <v>473.15</v>
@@ -4865,7 +4865,7 @@
     </row>
     <row r="193">
       <c r="A193" t="n">
-        <v>-22.46987951807228</v>
+        <v>-18.97590361445783</v>
       </c>
       <c r="B193" t="n">
         <v>473.15</v>
@@ -4888,7 +4888,7 @@
     </row>
     <row r="194">
       <c r="A194" t="n">
-        <v>-22.16867469879517</v>
+        <v>-18.73493975903614</v>
       </c>
       <c r="B194" t="n">
         <v>473.15</v>
@@ -4911,7 +4911,7 @@
     </row>
     <row r="195">
       <c r="A195" t="n">
-        <v>-21.86746987951807</v>
+        <v>-18.49397590361446</v>
       </c>
       <c r="B195" t="n">
         <v>473.15</v>
@@ -4934,7 +4934,7 @@
     </row>
     <row r="196">
       <c r="A196" t="n">
-        <v>-21.56626506024096</v>
+        <v>-18.25301204819277</v>
       </c>
       <c r="B196" t="n">
         <v>473.15</v>
@@ -4957,7 +4957,7 @@
     </row>
     <row r="197">
       <c r="A197" t="n">
-        <v>-21.26506024096385</v>
+        <v>-18.01204819277108</v>
       </c>
       <c r="B197" t="n">
         <v>473.15</v>
@@ -4980,7 +4980,7 @@
     </row>
     <row r="198">
       <c r="A198" t="n">
-        <v>-20.96385542168674</v>
+        <v>-17.7710843373494</v>
       </c>
       <c r="B198" t="n">
         <v>473.15</v>
@@ -5003,7 +5003,7 @@
     </row>
     <row r="199">
       <c r="A199" t="n">
-        <v>-20.66265060240963</v>
+        <v>-17.53012048192771</v>
       </c>
       <c r="B199" t="n">
         <v>473.15</v>
@@ -5026,7 +5026,7 @@
     </row>
     <row r="200">
       <c r="A200" t="n">
-        <v>-20.36144578313252</v>
+        <v>-17.28915662650603</v>
       </c>
       <c r="B200" t="n">
         <v>473.15</v>
@@ -5049,7 +5049,7 @@
     </row>
     <row r="201">
       <c r="A201" t="n">
-        <v>-20.06024096385541</v>
+        <v>-17.04819277108434</v>
       </c>
       <c r="B201" t="n">
         <v>473.15</v>
@@ -5072,7 +5072,7 @@
     </row>
     <row r="202">
       <c r="A202" t="n">
-        <v>-19.75903614457831</v>
+        <v>-16.80722891566265</v>
       </c>
       <c r="B202" t="n">
         <v>473.15</v>
@@ -5095,7 +5095,7 @@
     </row>
     <row r="203">
       <c r="A203" t="n">
-        <v>-19.4578313253012</v>
+        <v>-16.56626506024097</v>
       </c>
       <c r="B203" t="n">
         <v>473.15</v>
@@ -5118,7 +5118,7 @@
     </row>
     <row r="204">
       <c r="A204" t="n">
-        <v>-19.15662650602409</v>
+        <v>-16.32530120481928</v>
       </c>
       <c r="B204" t="n">
         <v>473.15</v>
@@ -5141,7 +5141,7 @@
     </row>
     <row r="205">
       <c r="A205" t="n">
-        <v>-18.85542168674699</v>
+        <v>-16.08433734939759</v>
       </c>
       <c r="B205" t="n">
         <v>473.15</v>
@@ -5164,7 +5164,7 @@
     </row>
     <row r="206">
       <c r="A206" t="n">
-        <v>-18.55421686746988</v>
+        <v>-15.8433734939759</v>
       </c>
       <c r="B206" t="n">
         <v>473.15</v>
@@ -5187,7 +5187,7 @@
     </row>
     <row r="207">
       <c r="A207" t="n">
-        <v>-18.25301204819277</v>
+        <v>-15.60240963855421</v>
       </c>
       <c r="B207" t="n">
         <v>473.15</v>
@@ -5210,7 +5210,7 @@
     </row>
     <row r="208">
       <c r="A208" t="n">
-        <v>-17.95180722891565</v>
+        <v>-15.36144578313253</v>
       </c>
       <c r="B208" t="n">
         <v>473.15</v>
@@ -5233,7 +5233,7 @@
     </row>
     <row r="209">
       <c r="A209" t="n">
-        <v>-17.65060240963855</v>
+        <v>-15.12048192771084</v>
       </c>
       <c r="B209" t="n">
         <v>473.15</v>
@@ -5256,7 +5256,7 @@
     </row>
     <row r="210">
       <c r="A210" t="n">
-        <v>-17.34939759036144</v>
+        <v>-14.87951807228916</v>
       </c>
       <c r="B210" t="n">
         <v>473.15</v>
@@ -5279,7 +5279,7 @@
     </row>
     <row r="211">
       <c r="A211" t="n">
-        <v>-17.04819277108433</v>
+        <v>-14.63855421686747</v>
       </c>
       <c r="B211" t="n">
         <v>473.15</v>
@@ -5302,7 +5302,7 @@
     </row>
     <row r="212">
       <c r="A212" t="n">
-        <v>-16.74698795180722</v>
+        <v>-14.39759036144579</v>
       </c>
       <c r="B212" t="n">
         <v>473.15</v>
@@ -5325,7 +5325,7 @@
     </row>
     <row r="213">
       <c r="A213" t="n">
-        <v>-16.44578313253012</v>
+        <v>-14.1566265060241</v>
       </c>
       <c r="B213" t="n">
         <v>473.15</v>
@@ -5348,7 +5348,7 @@
     </row>
     <row r="214">
       <c r="A214" t="n">
-        <v>-16.14457831325301</v>
+        <v>-13.91566265060241</v>
       </c>
       <c r="B214" t="n">
         <v>473.15</v>
@@ -5371,7 +5371,7 @@
     </row>
     <row r="215">
       <c r="A215" t="n">
-        <v>-15.8433734939759</v>
+        <v>-13.67469879518072</v>
       </c>
       <c r="B215" t="n">
         <v>473.15</v>
@@ -5394,7 +5394,7 @@
     </row>
     <row r="216">
       <c r="A216" t="n">
-        <v>-15.54216867469879</v>
+        <v>-13.43373493975903</v>
       </c>
       <c r="B216" t="n">
         <v>473.15</v>
@@ -5417,7 +5417,7 @@
     </row>
     <row r="217">
       <c r="A217" t="n">
-        <v>-15.24096385542168</v>
+        <v>-13.19277108433735</v>
       </c>
       <c r="B217" t="n">
         <v>473.15</v>
@@ -5440,7 +5440,7 @@
     </row>
     <row r="218">
       <c r="A218" t="n">
-        <v>-14.93975903614458</v>
+        <v>-12.95180722891566</v>
       </c>
       <c r="B218" t="n">
         <v>473.15</v>
@@ -5463,7 +5463,7 @@
     </row>
     <row r="219">
       <c r="A219" t="n">
-        <v>-14.63855421686746</v>
+        <v>-12.71084337349398</v>
       </c>
       <c r="B219" t="n">
         <v>473.15</v>
@@ -5486,7 +5486,7 @@
     </row>
     <row r="220">
       <c r="A220" t="n">
-        <v>-14.33734939759036</v>
+        <v>-12.46987951807229</v>
       </c>
       <c r="B220" t="n">
         <v>473.15</v>
@@ -5509,7 +5509,7 @@
     </row>
     <row r="221">
       <c r="A221" t="n">
-        <v>-14.03614457831324</v>
+        <v>-12.2289156626506</v>
       </c>
       <c r="B221" t="n">
         <v>473.15</v>
@@ -5532,7 +5532,7 @@
     </row>
     <row r="222">
       <c r="A222" t="n">
-        <v>-13.73493975903614</v>
+        <v>-11.98795180722892</v>
       </c>
       <c r="B222" t="n">
         <v>473.15</v>
@@ -5555,7 +5555,7 @@
     </row>
     <row r="223">
       <c r="A223" t="n">
-        <v>-13.43373493975903</v>
+        <v>-11.74698795180723</v>
       </c>
       <c r="B223" t="n">
         <v>473.15</v>
@@ -5578,7 +5578,7 @@
     </row>
     <row r="224">
       <c r="A224" t="n">
-        <v>-13.13253012048192</v>
+        <v>-11.50602409638554</v>
       </c>
       <c r="B224" t="n">
         <v>473.15</v>
@@ -5601,7 +5601,7 @@
     </row>
     <row r="225">
       <c r="A225" t="n">
-        <v>-12.83132530120481</v>
+        <v>-11.26506024096386</v>
       </c>
       <c r="B225" t="n">
         <v>473.15</v>
@@ -5624,7 +5624,7 @@
     </row>
     <row r="226">
       <c r="A226" t="n">
-        <v>-12.53012048192771</v>
+        <v>-11.02409638554217</v>
       </c>
       <c r="B226" t="n">
         <v>473.15</v>
@@ -5647,7 +5647,7 @@
     </row>
     <row r="227">
       <c r="A227" t="n">
-        <v>-12.22891566265059</v>
+        <v>-10.78313253012048</v>
       </c>
       <c r="B227" t="n">
         <v>473.15</v>
@@ -5670,7 +5670,7 @@
     </row>
     <row r="228">
       <c r="A228" t="n">
-        <v>-11.92771084337349</v>
+        <v>-10.54216867469879</v>
       </c>
       <c r="B228" t="n">
         <v>473.15</v>
@@ -5693,7 +5693,7 @@
     </row>
     <row r="229">
       <c r="A229" t="n">
-        <v>-11.62650602409639</v>
+        <v>-10.30120481927711</v>
       </c>
       <c r="B229" t="n">
         <v>473.15</v>
@@ -5716,7 +5716,7 @@
     </row>
     <row r="230">
       <c r="A230" t="n">
-        <v>-11.32530120481927</v>
+        <v>-10.06024096385542</v>
       </c>
       <c r="B230" t="n">
         <v>473.15</v>
@@ -5739,7 +5739,7 @@
     </row>
     <row r="231">
       <c r="A231" t="n">
-        <v>-11.02409638554217</v>
+        <v>-9.819277108433738</v>
       </c>
       <c r="B231" t="n">
         <v>473.15</v>
@@ -5762,7 +5762,7 @@
     </row>
     <row r="232">
       <c r="A232" t="n">
-        <v>-10.72289156626505</v>
+        <v>-9.578313253012048</v>
       </c>
       <c r="B232" t="n">
         <v>473.15</v>
@@ -5785,7 +5785,7 @@
     </row>
     <row r="233">
       <c r="A233" t="n">
-        <v>-10.42168674698794</v>
+        <v>-9.337349397590359</v>
       </c>
       <c r="B233" t="n">
         <v>473.15</v>
@@ -5808,7 +5808,7 @@
     </row>
     <row r="234">
       <c r="A234" t="n">
-        <v>-10.12048192771084</v>
+        <v>-9.096385542168676</v>
       </c>
       <c r="B234" t="n">
         <v>473.15</v>
@@ -5831,7 +5831,7 @@
     </row>
     <row r="235">
       <c r="A235" t="n">
-        <v>-9.819277108433724</v>
+        <v>-8.855421686746986</v>
       </c>
       <c r="B235" t="n">
         <v>473.15</v>
@@ -5854,7 +5854,7 @@
     </row>
     <row r="236">
       <c r="A236" t="n">
-        <v>-9.518072289156621</v>
+        <v>-8.614457831325304</v>
       </c>
       <c r="B236" t="n">
         <v>473.15</v>
@@ -5877,7 +5877,7 @@
     </row>
     <row r="237">
       <c r="A237" t="n">
-        <v>-9.216867469879517</v>
+        <v>-8.373493975903614</v>
       </c>
       <c r="B237" t="n">
         <v>473.15</v>
@@ -5900,7 +5900,7 @@
     </row>
     <row r="238">
       <c r="A238" t="n">
-        <v>-8.9156626506024</v>
+        <v>-8.132530120481931</v>
       </c>
       <c r="B238" t="n">
         <v>473.15</v>
@@ -5923,7 +5923,7 @@
     </row>
     <row r="239">
       <c r="A239" t="n">
-        <v>-8.614457831325296</v>
+        <v>-7.891566265060241</v>
       </c>
       <c r="B239" t="n">
         <v>473.15</v>
@@ -5946,7 +5946,7 @@
     </row>
     <row r="240">
       <c r="A240" t="n">
-        <v>-8.313253012048193</v>
+        <v>-7.650602409638552</v>
       </c>
       <c r="B240" t="n">
         <v>473.15</v>
@@ -5969,7 +5969,7 @@
     </row>
     <row r="241">
       <c r="A241" t="n">
-        <v>-8.012048192771076</v>
+        <v>-7.409638554216869</v>
       </c>
       <c r="B241" t="n">
         <v>473.15</v>
@@ -5992,7 +5992,7 @@
     </row>
     <row r="242">
       <c r="A242" t="n">
-        <v>-7.710843373493972</v>
+        <v>-7.168674698795179</v>
       </c>
       <c r="B242" t="n">
         <v>473.15</v>
@@ -6015,7 +6015,7 @@
     </row>
     <row r="243">
       <c r="A243" t="n">
-        <v>-7.409638554216855</v>
+        <v>-6.927710843373497</v>
       </c>
       <c r="B243" t="n">
         <v>473.15</v>
@@ -6038,7 +6038,7 @@
     </row>
     <row r="244">
       <c r="A244" t="n">
-        <v>-7.108433734939752</v>
+        <v>-6.686746987951807</v>
       </c>
       <c r="B244" t="n">
         <v>473.15</v>
@@ -6061,7 +6061,7 @@
     </row>
     <row r="245">
       <c r="A245" t="n">
-        <v>-6.807228915662648</v>
+        <v>-6.445783132530124</v>
       </c>
       <c r="B245" t="n">
         <v>473.15</v>
@@ -6084,7 +6084,7 @@
     </row>
     <row r="246">
       <c r="A246" t="n">
-        <v>-6.506024096385531</v>
+        <v>-6.204819277108435</v>
       </c>
       <c r="B246" t="n">
         <v>473.15</v>
@@ -6107,7 +6107,7 @@
     </row>
     <row r="247">
       <c r="A247" t="n">
-        <v>-6.204819277108427</v>
+        <v>-5.963855421686745</v>
       </c>
       <c r="B247" t="n">
         <v>473.15</v>
@@ -6130,7 +6130,7 @@
     </row>
     <row r="248">
       <c r="A248" t="n">
-        <v>-5.903614457831324</v>
+        <v>-5.722891566265062</v>
       </c>
       <c r="B248" t="n">
         <v>473.15</v>
@@ -6153,7 +6153,7 @@
     </row>
     <row r="249">
       <c r="A249" t="n">
-        <v>-5.602409638554207</v>
+        <v>-5.481927710843372</v>
       </c>
       <c r="B249" t="n">
         <v>473.15</v>
@@ -6176,7 +6176,7 @@
     </row>
     <row r="250">
       <c r="A250" t="n">
-        <v>-5.301204819277103</v>
+        <v>-5.24096385542169</v>
       </c>
       <c r="B250" t="n">
         <v>473.15</v>

--- a/tc_df_FullEquil_check_filter.xlsx
+++ b/tc_df_FullEquil_check_filter.xlsx
@@ -475,7 +475,7 @@
         <v>-65</v>
       </c>
       <c r="B2" t="n">
-        <v>473.15</v>
+        <v>573.15</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -487,7 +487,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>1.000000000019076</v>
+        <v>1.00000000004135</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -498,7 +498,7 @@
         <v>-64.75903614457832</v>
       </c>
       <c r="B3" t="n">
-        <v>473.15</v>
+        <v>573.15</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -510,7 +510,7 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>1.000000000018353</v>
+        <v>1.000000000040628</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -521,7 +521,7 @@
         <v>-64.51807228915662</v>
       </c>
       <c r="B4" t="n">
-        <v>473.15</v>
+        <v>573.15</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -533,7 +533,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>1.00000000001763</v>
+        <v>1.000000000039905</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -544,7 +544,7 @@
         <v>-64.27710843373494</v>
       </c>
       <c r="B5" t="n">
-        <v>473.15</v>
+        <v>573.15</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -556,7 +556,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>1.000000000016907</v>
+        <v>1.000000000039182</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -567,7 +567,7 @@
         <v>-64.03614457831326</v>
       </c>
       <c r="B6" t="n">
-        <v>473.15</v>
+        <v>573.15</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -579,7 +579,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>1.000000000016184</v>
+        <v>1.000000000038459</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -590,7 +590,7 @@
         <v>-63.79518072289157</v>
       </c>
       <c r="B7" t="n">
-        <v>473.15</v>
+        <v>573.15</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -602,7 +602,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>1.000000000015461</v>
+        <v>1.000000000037736</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -613,7 +613,7 @@
         <v>-63.55421686746988</v>
       </c>
       <c r="B8" t="n">
-        <v>473.15</v>
+        <v>573.15</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -625,7 +625,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>1.000000000014738</v>
+        <v>1.000000000037013</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -636,7 +636,7 @@
         <v>-63.31325301204819</v>
       </c>
       <c r="B9" t="n">
-        <v>473.15</v>
+        <v>573.15</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>1.000000000014015</v>
+        <v>1.00000000003629</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -659,7 +659,7 @@
         <v>-63.0722891566265</v>
       </c>
       <c r="B10" t="n">
-        <v>473.15</v>
+        <v>573.15</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -671,7 +671,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>1.000000000013293</v>
+        <v>1.000000000035567</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -682,7 +682,7 @@
         <v>-62.83132530120482</v>
       </c>
       <c r="B11" t="n">
-        <v>473.15</v>
+        <v>573.15</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -694,7 +694,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>1.00000000001257</v>
+        <v>1.000000000034844</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -705,7 +705,7 @@
         <v>-62.59036144578313</v>
       </c>
       <c r="B12" t="n">
-        <v>473.15</v>
+        <v>573.15</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -717,7 +717,7 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>1.000000000011847</v>
+        <v>1.000000000034121</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -728,7 +728,7 @@
         <v>-62.34939759036145</v>
       </c>
       <c r="B13" t="n">
-        <v>473.15</v>
+        <v>573.15</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -740,7 +740,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>1.000000000011124</v>
+        <v>1.000000000033399</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -751,7 +751,7 @@
         <v>-62.10843373493976</v>
       </c>
       <c r="B14" t="n">
-        <v>473.15</v>
+        <v>573.15</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -763,7 +763,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>1.000000000010401</v>
+        <v>1.000000000032676</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -774,7 +774,7 @@
         <v>-61.86746987951807</v>
       </c>
       <c r="B15" t="n">
-        <v>473.15</v>
+        <v>573.15</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
@@ -786,7 +786,7 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>1.000000000009678</v>
+        <v>1.000000000031953</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
@@ -797,7 +797,7 @@
         <v>-61.62650602409639</v>
       </c>
       <c r="B16" t="n">
-        <v>473.15</v>
+        <v>573.15</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -809,7 +809,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>1.000000000008955</v>
+        <v>1.00000000003123</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -820,7 +820,7 @@
         <v>-61.3855421686747</v>
       </c>
       <c r="B17" t="n">
-        <v>473.15</v>
+        <v>573.15</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -832,7 +832,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>1.000000000008232</v>
+        <v>1.000000000030507</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -843,7 +843,7 @@
         <v>-61.14457831325301</v>
       </c>
       <c r="B18" t="n">
-        <v>473.15</v>
+        <v>573.15</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
@@ -855,7 +855,7 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>1.00000000000751</v>
+        <v>1.000000000029784</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
@@ -866,7 +866,7 @@
         <v>-60.90361445783132</v>
       </c>
       <c r="B19" t="n">
-        <v>473.15</v>
+        <v>573.15</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -878,7 +878,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>1.000000000006787</v>
+        <v>1.000000000029061</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -889,7 +889,7 @@
         <v>-60.66265060240964</v>
       </c>
       <c r="B20" t="n">
-        <v>473.15</v>
+        <v>573.15</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -901,7 +901,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>1.000000000006064</v>
+        <v>1.000000000028338</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -912,7 +912,7 @@
         <v>-60.42168674698795</v>
       </c>
       <c r="B21" t="n">
-        <v>473.15</v>
+        <v>573.15</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
@@ -924,7 +924,7 @@
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>1.000000000005341</v>
+        <v>1.000000000027615</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>-60.18072289156626</v>
       </c>
       <c r="B22" t="n">
-        <v>473.15</v>
+        <v>573.15</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -947,7 +947,7 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>1.000000000004618</v>
+        <v>1.000000000026892</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -958,7 +958,7 @@
         <v>-59.93975903614458</v>
       </c>
       <c r="B23" t="n">
-        <v>473.15</v>
+        <v>573.15</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -970,7 +970,7 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>1.000000000003895</v>
+        <v>1.00000000002617</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -981,19 +981,19 @@
         <v>-59.69879518072289</v>
       </c>
       <c r="B24" t="n">
-        <v>473.15</v>
+        <v>573.15</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>1.000000000025447</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
@@ -1004,19 +1004,19 @@
         <v>-59.45783132530121</v>
       </c>
       <c r="B25" t="n">
-        <v>473.15</v>
+        <v>573.15</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>1.000000000024724</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -1027,19 +1027,19 @@
         <v>-59.21686746987952</v>
       </c>
       <c r="B26" t="n">
-        <v>473.15</v>
+        <v>573.15</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>1.000000000024001</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -1050,19 +1050,19 @@
         <v>-58.97590361445783</v>
       </c>
       <c r="B27" t="n">
-        <v>473.15</v>
+        <v>573.15</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>1.000000000023278</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
@@ -1073,19 +1073,19 @@
         <v>-58.73493975903614</v>
       </c>
       <c r="B28" t="n">
-        <v>473.15</v>
+        <v>573.15</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>1.000000000022555</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -1096,19 +1096,19 @@
         <v>-58.49397590361446</v>
       </c>
       <c r="B29" t="n">
-        <v>473.15</v>
+        <v>573.15</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>1.000000000021832</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -1119,19 +1119,19 @@
         <v>-58.25301204819277</v>
       </c>
       <c r="B30" t="n">
-        <v>473.15</v>
+        <v>573.15</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>1.000000000021109</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
@@ -1142,19 +1142,19 @@
         <v>-58.01204819277108</v>
       </c>
       <c r="B31" t="n">
-        <v>473.15</v>
+        <v>573.15</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>1.000000000020387</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -1165,19 +1165,19 @@
         <v>-57.7710843373494</v>
       </c>
       <c r="B32" t="n">
-        <v>473.15</v>
+        <v>573.15</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>1.000000000019664</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -1188,19 +1188,19 @@
         <v>-57.53012048192771</v>
       </c>
       <c r="B33" t="n">
-        <v>473.15</v>
+        <v>573.15</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>1.000000000018941</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
@@ -1211,19 +1211,19 @@
         <v>-57.28915662650603</v>
       </c>
       <c r="B34" t="n">
-        <v>473.15</v>
+        <v>573.15</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>1.000000000018218</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -1234,19 +1234,19 @@
         <v>-57.04819277108434</v>
       </c>
       <c r="B35" t="n">
-        <v>473.15</v>
+        <v>573.15</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>1.000000000017495</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -1257,19 +1257,19 @@
         <v>-56.80722891566265</v>
       </c>
       <c r="B36" t="n">
-        <v>473.15</v>
+        <v>573.15</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>1.000000000016772</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
@@ -1280,19 +1280,19 @@
         <v>-56.56626506024097</v>
       </c>
       <c r="B37" t="n">
-        <v>473.15</v>
+        <v>573.15</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>1.000000000016049</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -1303,19 +1303,19 @@
         <v>-56.32530120481928</v>
       </c>
       <c r="B38" t="n">
-        <v>473.15</v>
+        <v>573.15</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>1.000000000015326</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -1326,19 +1326,19 @@
         <v>-56.08433734939759</v>
       </c>
       <c r="B39" t="n">
-        <v>473.15</v>
+        <v>573.15</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>1.000000000014603</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
@@ -1349,19 +1349,19 @@
         <v>-55.8433734939759</v>
       </c>
       <c r="B40" t="n">
-        <v>473.15</v>
+        <v>573.15</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>1.00000000001388</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -1372,19 +1372,19 @@
         <v>-55.60240963855422</v>
       </c>
       <c r="B41" t="n">
-        <v>473.15</v>
+        <v>573.15</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>1.000000000013157</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -1395,19 +1395,19 @@
         <v>-55.36144578313253</v>
       </c>
       <c r="B42" t="n">
-        <v>473.15</v>
+        <v>573.15</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>1.000000000012435</v>
       </c>
       <c r="G42" t="n">
         <v>0</v>
@@ -1418,19 +1418,19 @@
         <v>-55.12048192771084</v>
       </c>
       <c r="B43" t="n">
-        <v>473.15</v>
+        <v>573.15</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>1.000000000011712</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -1441,19 +1441,19 @@
         <v>-54.87951807228916</v>
       </c>
       <c r="B44" t="n">
-        <v>473.15</v>
+        <v>573.15</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>1.000000000010989</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -1464,19 +1464,19 @@
         <v>-54.63855421686747</v>
       </c>
       <c r="B45" t="n">
-        <v>473.15</v>
+        <v>573.15</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>1.000000000010266</v>
       </c>
       <c r="G45" t="n">
         <v>0</v>
@@ -1487,19 +1487,19 @@
         <v>-54.39759036144578</v>
       </c>
       <c r="B46" t="n">
-        <v>473.15</v>
+        <v>573.15</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>1.000000000009543</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -1510,19 +1510,19 @@
         <v>-54.1566265060241</v>
       </c>
       <c r="B47" t="n">
-        <v>473.15</v>
+        <v>573.15</v>
       </c>
       <c r="C47" t="n">
         <v>0</v>
       </c>
       <c r="D47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E47" t="n">
         <v>0</v>
       </c>
       <c r="F47" t="n">
-        <v>0</v>
+        <v>1.00000000000882</v>
       </c>
       <c r="G47" t="n">
         <v>0</v>
@@ -1533,19 +1533,19 @@
         <v>-53.91566265060241</v>
       </c>
       <c r="B48" t="n">
-        <v>473.15</v>
+        <v>573.15</v>
       </c>
       <c r="C48" t="n">
         <v>0</v>
       </c>
       <c r="D48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E48" t="n">
         <v>0</v>
       </c>
       <c r="F48" t="n">
-        <v>0</v>
+        <v>1.000000000008097</v>
       </c>
       <c r="G48" t="n">
         <v>0</v>
@@ -1556,19 +1556,19 @@
         <v>-53.67469879518072</v>
       </c>
       <c r="B49" t="n">
-        <v>473.15</v>
+        <v>573.15</v>
       </c>
       <c r="C49" t="n">
         <v>0</v>
       </c>
       <c r="D49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E49" t="n">
         <v>0</v>
       </c>
       <c r="F49" t="n">
-        <v>0</v>
+        <v>1.000000000007374</v>
       </c>
       <c r="G49" t="n">
         <v>0</v>
@@ -1579,19 +1579,19 @@
         <v>-53.43373493975903</v>
       </c>
       <c r="B50" t="n">
-        <v>473.15</v>
+        <v>573.15</v>
       </c>
       <c r="C50" t="n">
         <v>0</v>
       </c>
       <c r="D50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E50" t="n">
         <v>0</v>
       </c>
       <c r="F50" t="n">
-        <v>0</v>
+        <v>1.000000000006652</v>
       </c>
       <c r="G50" t="n">
         <v>0</v>
@@ -1602,19 +1602,19 @@
         <v>-53.19277108433735</v>
       </c>
       <c r="B51" t="n">
-        <v>473.15</v>
+        <v>573.15</v>
       </c>
       <c r="C51" t="n">
         <v>0</v>
       </c>
       <c r="D51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E51" t="n">
         <v>0</v>
       </c>
       <c r="F51" t="n">
-        <v>0</v>
+        <v>1.000000000005929</v>
       </c>
       <c r="G51" t="n">
         <v>0</v>
@@ -1625,19 +1625,19 @@
         <v>-52.95180722891566</v>
       </c>
       <c r="B52" t="n">
-        <v>473.15</v>
+        <v>573.15</v>
       </c>
       <c r="C52" t="n">
         <v>0</v>
       </c>
       <c r="D52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E52" t="n">
         <v>0</v>
       </c>
       <c r="F52" t="n">
-        <v>0</v>
+        <v>1.000000000005206</v>
       </c>
       <c r="G52" t="n">
         <v>0</v>
@@ -1648,19 +1648,19 @@
         <v>-52.71084337349397</v>
       </c>
       <c r="B53" t="n">
-        <v>473.15</v>
+        <v>573.15</v>
       </c>
       <c r="C53" t="n">
         <v>0</v>
       </c>
       <c r="D53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E53" t="n">
         <v>0</v>
       </c>
       <c r="F53" t="n">
-        <v>0</v>
+        <v>1.000000000004483</v>
       </c>
       <c r="G53" t="n">
         <v>0</v>
@@ -1671,19 +1671,19 @@
         <v>-52.46987951807229</v>
       </c>
       <c r="B54" t="n">
-        <v>473.15</v>
+        <v>573.15</v>
       </c>
       <c r="C54" t="n">
         <v>0</v>
       </c>
       <c r="D54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E54" t="n">
         <v>0</v>
       </c>
       <c r="F54" t="n">
-        <v>0</v>
+        <v>1.00000000000376</v>
       </c>
       <c r="G54" t="n">
         <v>0</v>
@@ -1694,19 +1694,19 @@
         <v>-52.2289156626506</v>
       </c>
       <c r="B55" t="n">
-        <v>473.15</v>
+        <v>573.15</v>
       </c>
       <c r="C55" t="n">
         <v>0</v>
       </c>
       <c r="D55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E55" t="n">
         <v>0</v>
       </c>
       <c r="F55" t="n">
-        <v>0</v>
+        <v>1.000000000003037</v>
       </c>
       <c r="G55" t="n">
         <v>0</v>
@@ -1717,19 +1717,19 @@
         <v>-51.98795180722892</v>
       </c>
       <c r="B56" t="n">
-        <v>473.15</v>
+        <v>573.15</v>
       </c>
       <c r="C56" t="n">
         <v>0</v>
       </c>
       <c r="D56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E56" t="n">
         <v>0</v>
       </c>
       <c r="F56" t="n">
-        <v>0</v>
+        <v>1.000000000002314</v>
       </c>
       <c r="G56" t="n">
         <v>0</v>
@@ -1740,19 +1740,19 @@
         <v>-51.74698795180723</v>
       </c>
       <c r="B57" t="n">
-        <v>473.15</v>
+        <v>573.15</v>
       </c>
       <c r="C57" t="n">
         <v>0</v>
       </c>
       <c r="D57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E57" t="n">
         <v>0</v>
       </c>
       <c r="F57" t="n">
-        <v>0</v>
+        <v>1.000000000001591</v>
       </c>
       <c r="G57" t="n">
         <v>0</v>
@@ -1763,19 +1763,19 @@
         <v>-51.50602409638554</v>
       </c>
       <c r="B58" t="n">
-        <v>473.15</v>
+        <v>573.15</v>
       </c>
       <c r="C58" t="n">
         <v>0</v>
       </c>
       <c r="D58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E58" t="n">
         <v>0</v>
       </c>
       <c r="F58" t="n">
-        <v>0</v>
+        <v>1.000000000000868</v>
       </c>
       <c r="G58" t="n">
         <v>0</v>
@@ -1786,19 +1786,19 @@
         <v>-51.26506024096386</v>
       </c>
       <c r="B59" t="n">
-        <v>473.15</v>
+        <v>573.15</v>
       </c>
       <c r="C59" t="n">
         <v>0</v>
       </c>
       <c r="D59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E59" t="n">
         <v>0</v>
       </c>
       <c r="F59" t="n">
-        <v>0</v>
+        <v>1.000000000000146</v>
       </c>
       <c r="G59" t="n">
         <v>0</v>
@@ -1809,19 +1809,19 @@
         <v>-51.02409638554217</v>
       </c>
       <c r="B60" t="n">
-        <v>473.15</v>
+        <v>573.15</v>
       </c>
       <c r="C60" t="n">
         <v>0</v>
       </c>
       <c r="D60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E60" t="n">
         <v>0</v>
       </c>
       <c r="F60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G60" t="n">
         <v>0</v>
@@ -1832,19 +1832,19 @@
         <v>-50.78313253012048</v>
       </c>
       <c r="B61" t="n">
-        <v>473.15</v>
+        <v>573.15</v>
       </c>
       <c r="C61" t="n">
         <v>0</v>
       </c>
       <c r="D61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E61" t="n">
         <v>0</v>
       </c>
       <c r="F61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G61" t="n">
         <v>0</v>
@@ -1855,19 +1855,19 @@
         <v>-50.54216867469879</v>
       </c>
       <c r="B62" t="n">
-        <v>473.15</v>
+        <v>573.15</v>
       </c>
       <c r="C62" t="n">
         <v>0</v>
       </c>
       <c r="D62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E62" t="n">
         <v>0</v>
       </c>
       <c r="F62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G62" t="n">
         <v>0</v>
@@ -1878,19 +1878,19 @@
         <v>-50.30120481927711</v>
       </c>
       <c r="B63" t="n">
-        <v>473.15</v>
+        <v>573.15</v>
       </c>
       <c r="C63" t="n">
         <v>0</v>
       </c>
       <c r="D63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E63" t="n">
         <v>0</v>
       </c>
       <c r="F63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G63" t="n">
         <v>0</v>
@@ -1901,19 +1901,19 @@
         <v>-50.06024096385542</v>
       </c>
       <c r="B64" t="n">
-        <v>473.15</v>
+        <v>573.15</v>
       </c>
       <c r="C64" t="n">
         <v>0</v>
       </c>
       <c r="D64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E64" t="n">
         <v>0</v>
       </c>
       <c r="F64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G64" t="n">
         <v>0</v>
@@ -1924,19 +1924,19 @@
         <v>-49.81927710843374</v>
       </c>
       <c r="B65" t="n">
-        <v>473.15</v>
+        <v>573.15</v>
       </c>
       <c r="C65" t="n">
         <v>0</v>
       </c>
       <c r="D65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E65" t="n">
         <v>0</v>
       </c>
       <c r="F65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G65" t="n">
         <v>0</v>
@@ -1947,19 +1947,19 @@
         <v>-49.57831325301205</v>
       </c>
       <c r="B66" t="n">
-        <v>473.15</v>
+        <v>573.15</v>
       </c>
       <c r="C66" t="n">
         <v>0</v>
       </c>
       <c r="D66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E66" t="n">
         <v>0</v>
       </c>
       <c r="F66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G66" t="n">
         <v>0</v>
@@ -1970,19 +1970,19 @@
         <v>-49.33734939759036</v>
       </c>
       <c r="B67" t="n">
-        <v>473.15</v>
+        <v>573.15</v>
       </c>
       <c r="C67" t="n">
         <v>0</v>
       </c>
       <c r="D67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E67" t="n">
         <v>0</v>
       </c>
       <c r="F67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G67" t="n">
         <v>0</v>
@@ -1993,19 +1993,19 @@
         <v>-49.09638554216868</v>
       </c>
       <c r="B68" t="n">
-        <v>473.15</v>
+        <v>573.15</v>
       </c>
       <c r="C68" t="n">
         <v>0</v>
       </c>
       <c r="D68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E68" t="n">
         <v>0</v>
       </c>
       <c r="F68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G68" t="n">
         <v>0</v>
@@ -2016,19 +2016,19 @@
         <v>-48.85542168674699</v>
       </c>
       <c r="B69" t="n">
-        <v>473.15</v>
+        <v>573.15</v>
       </c>
       <c r="C69" t="n">
         <v>0</v>
       </c>
       <c r="D69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E69" t="n">
         <v>0</v>
       </c>
       <c r="F69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G69" t="n">
         <v>0</v>
@@ -2039,19 +2039,19 @@
         <v>-48.6144578313253</v>
       </c>
       <c r="B70" t="n">
-        <v>473.15</v>
+        <v>573.15</v>
       </c>
       <c r="C70" t="n">
         <v>0</v>
       </c>
       <c r="D70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E70" t="n">
         <v>0</v>
       </c>
       <c r="F70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G70" t="n">
         <v>0</v>
@@ -2062,19 +2062,19 @@
         <v>-48.37349397590361</v>
       </c>
       <c r="B71" t="n">
-        <v>473.15</v>
+        <v>573.15</v>
       </c>
       <c r="C71" t="n">
         <v>0</v>
       </c>
       <c r="D71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E71" t="n">
         <v>0</v>
       </c>
       <c r="F71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G71" t="n">
         <v>0</v>
@@ -2085,19 +2085,19 @@
         <v>-48.13253012048193</v>
       </c>
       <c r="B72" t="n">
-        <v>473.15</v>
+        <v>573.15</v>
       </c>
       <c r="C72" t="n">
         <v>0</v>
       </c>
       <c r="D72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E72" t="n">
         <v>0</v>
       </c>
       <c r="F72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G72" t="n">
         <v>0</v>
@@ -2108,19 +2108,19 @@
         <v>-47.89156626506024</v>
       </c>
       <c r="B73" t="n">
-        <v>473.15</v>
+        <v>573.15</v>
       </c>
       <c r="C73" t="n">
         <v>0</v>
       </c>
       <c r="D73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E73" t="n">
         <v>0</v>
       </c>
       <c r="F73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G73" t="n">
         <v>0</v>
@@ -2131,19 +2131,19 @@
         <v>-47.65060240963855</v>
       </c>
       <c r="B74" t="n">
-        <v>473.15</v>
+        <v>573.15</v>
       </c>
       <c r="C74" t="n">
         <v>0</v>
       </c>
       <c r="D74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E74" t="n">
         <v>0</v>
       </c>
       <c r="F74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G74" t="n">
         <v>0</v>
@@ -2154,19 +2154,19 @@
         <v>-47.40963855421687</v>
       </c>
       <c r="B75" t="n">
-        <v>473.15</v>
+        <v>573.15</v>
       </c>
       <c r="C75" t="n">
         <v>0</v>
       </c>
       <c r="D75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E75" t="n">
         <v>0</v>
       </c>
       <c r="F75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G75" t="n">
         <v>0</v>
@@ -2177,7 +2177,7 @@
         <v>-47.16867469879518</v>
       </c>
       <c r="B76" t="n">
-        <v>473.15</v>
+        <v>573.15</v>
       </c>
       <c r="C76" t="n">
         <v>0</v>
@@ -2200,7 +2200,7 @@
         <v>-46.92771084337349</v>
       </c>
       <c r="B77" t="n">
-        <v>473.15</v>
+        <v>573.15</v>
       </c>
       <c r="C77" t="n">
         <v>0</v>
@@ -2223,7 +2223,7 @@
         <v>-46.68674698795181</v>
       </c>
       <c r="B78" t="n">
-        <v>473.15</v>
+        <v>573.15</v>
       </c>
       <c r="C78" t="n">
         <v>0</v>
@@ -2246,7 +2246,7 @@
         <v>-46.44578313253012</v>
       </c>
       <c r="B79" t="n">
-        <v>473.15</v>
+        <v>573.15</v>
       </c>
       <c r="C79" t="n">
         <v>0</v>
@@ -2269,7 +2269,7 @@
         <v>-46.20481927710843</v>
       </c>
       <c r="B80" t="n">
-        <v>473.15</v>
+        <v>573.15</v>
       </c>
       <c r="C80" t="n">
         <v>0</v>
@@ -2292,7 +2292,7 @@
         <v>-45.96385542168674</v>
       </c>
       <c r="B81" t="n">
-        <v>473.15</v>
+        <v>573.15</v>
       </c>
       <c r="C81" t="n">
         <v>0</v>
@@ -2315,7 +2315,7 @@
         <v>-45.72289156626506</v>
       </c>
       <c r="B82" t="n">
-        <v>473.15</v>
+        <v>573.15</v>
       </c>
       <c r="C82" t="n">
         <v>0</v>
@@ -2338,7 +2338,7 @@
         <v>-45.48192771084337</v>
       </c>
       <c r="B83" t="n">
-        <v>473.15</v>
+        <v>573.15</v>
       </c>
       <c r="C83" t="n">
         <v>0</v>
@@ -2361,7 +2361,7 @@
         <v>-45.24096385542168</v>
       </c>
       <c r="B84" t="n">
-        <v>473.15</v>
+        <v>573.15</v>
       </c>
       <c r="C84" t="n">
         <v>0</v>
@@ -2384,7 +2384,7 @@
         <v>-45</v>
       </c>
       <c r="B85" t="n">
-        <v>473.15</v>
+        <v>573.15</v>
       </c>
       <c r="C85" t="n">
         <v>0</v>
@@ -2407,7 +2407,7 @@
         <v>-44.75903614457832</v>
       </c>
       <c r="B86" t="n">
-        <v>473.15</v>
+        <v>573.15</v>
       </c>
       <c r="C86" t="n">
         <v>0</v>
@@ -2430,7 +2430,7 @@
         <v>-44.51807228915663</v>
       </c>
       <c r="B87" t="n">
-        <v>473.15</v>
+        <v>573.15</v>
       </c>
       <c r="C87" t="n">
         <v>0</v>
@@ -2453,7 +2453,7 @@
         <v>-44.27710843373494</v>
       </c>
       <c r="B88" t="n">
-        <v>473.15</v>
+        <v>573.15</v>
       </c>
       <c r="C88" t="n">
         <v>0</v>
@@ -2476,7 +2476,7 @@
         <v>-44.03614457831326</v>
       </c>
       <c r="B89" t="n">
-        <v>473.15</v>
+        <v>573.15</v>
       </c>
       <c r="C89" t="n">
         <v>0</v>
@@ -2499,7 +2499,7 @@
         <v>-43.79518072289157</v>
       </c>
       <c r="B90" t="n">
-        <v>473.15</v>
+        <v>573.15</v>
       </c>
       <c r="C90" t="n">
         <v>0</v>
@@ -2522,7 +2522,7 @@
         <v>-43.55421686746988</v>
       </c>
       <c r="B91" t="n">
-        <v>473.15</v>
+        <v>573.15</v>
       </c>
       <c r="C91" t="n">
         <v>0</v>
@@ -2545,7 +2545,7 @@
         <v>-43.31325301204819</v>
       </c>
       <c r="B92" t="n">
-        <v>473.15</v>
+        <v>573.15</v>
       </c>
       <c r="C92" t="n">
         <v>0</v>
@@ -2568,7 +2568,7 @@
         <v>-43.07228915662651</v>
       </c>
       <c r="B93" t="n">
-        <v>473.15</v>
+        <v>573.15</v>
       </c>
       <c r="C93" t="n">
         <v>0</v>
@@ -2591,7 +2591,7 @@
         <v>-42.83132530120482</v>
       </c>
       <c r="B94" t="n">
-        <v>473.15</v>
+        <v>573.15</v>
       </c>
       <c r="C94" t="n">
         <v>0</v>
@@ -2614,7 +2614,7 @@
         <v>-42.59036144578313</v>
       </c>
       <c r="B95" t="n">
-        <v>473.15</v>
+        <v>573.15</v>
       </c>
       <c r="C95" t="n">
         <v>0</v>
@@ -2637,13 +2637,13 @@
         <v>-42.34939759036145</v>
       </c>
       <c r="B96" t="n">
-        <v>473.15</v>
+        <v>573.15</v>
       </c>
       <c r="C96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E96" t="n">
         <v>0</v>
@@ -2660,13 +2660,13 @@
         <v>-42.10843373493976</v>
       </c>
       <c r="B97" t="n">
-        <v>473.15</v>
+        <v>573.15</v>
       </c>
       <c r="C97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E97" t="n">
         <v>0</v>
@@ -2683,13 +2683,13 @@
         <v>-41.86746987951807</v>
       </c>
       <c r="B98" t="n">
-        <v>473.15</v>
+        <v>573.15</v>
       </c>
       <c r="C98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D98" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E98" t="n">
         <v>0</v>
@@ -2706,13 +2706,13 @@
         <v>-41.62650602409639</v>
       </c>
       <c r="B99" t="n">
-        <v>473.15</v>
+        <v>573.15</v>
       </c>
       <c r="C99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D99" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E99" t="n">
         <v>0</v>
@@ -2729,13 +2729,13 @@
         <v>-41.3855421686747</v>
       </c>
       <c r="B100" t="n">
-        <v>473.15</v>
+        <v>573.15</v>
       </c>
       <c r="C100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E100" t="n">
         <v>0</v>
@@ -2752,13 +2752,13 @@
         <v>-41.14457831325301</v>
       </c>
       <c r="B101" t="n">
-        <v>473.15</v>
+        <v>573.15</v>
       </c>
       <c r="C101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E101" t="n">
         <v>0</v>
@@ -2775,13 +2775,13 @@
         <v>-40.90361445783132</v>
       </c>
       <c r="B102" t="n">
-        <v>473.15</v>
+        <v>573.15</v>
       </c>
       <c r="C102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D102" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E102" t="n">
         <v>0</v>
@@ -2798,13 +2798,13 @@
         <v>-40.66265060240964</v>
       </c>
       <c r="B103" t="n">
-        <v>473.15</v>
+        <v>573.15</v>
       </c>
       <c r="C103" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D103" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E103" t="n">
         <v>0</v>
@@ -2821,13 +2821,13 @@
         <v>-40.42168674698795</v>
       </c>
       <c r="B104" t="n">
-        <v>473.15</v>
+        <v>573.15</v>
       </c>
       <c r="C104" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D104" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E104" t="n">
         <v>0</v>
@@ -2844,13 +2844,13 @@
         <v>-40.18072289156626</v>
       </c>
       <c r="B105" t="n">
-        <v>473.15</v>
+        <v>573.15</v>
       </c>
       <c r="C105" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D105" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E105" t="n">
         <v>0</v>
@@ -2867,13 +2867,13 @@
         <v>-39.93975903614458</v>
       </c>
       <c r="B106" t="n">
-        <v>473.15</v>
+        <v>573.15</v>
       </c>
       <c r="C106" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D106" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E106" t="n">
         <v>0</v>
@@ -2890,13 +2890,13 @@
         <v>-39.6987951807229</v>
       </c>
       <c r="B107" t="n">
-        <v>473.15</v>
+        <v>573.15</v>
       </c>
       <c r="C107" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D107" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E107" t="n">
         <v>0</v>
@@ -2913,13 +2913,13 @@
         <v>-39.4578313253012</v>
       </c>
       <c r="B108" t="n">
-        <v>473.15</v>
+        <v>573.15</v>
       </c>
       <c r="C108" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D108" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E108" t="n">
         <v>0</v>
@@ -2936,13 +2936,13 @@
         <v>-39.21686746987952</v>
       </c>
       <c r="B109" t="n">
-        <v>473.15</v>
+        <v>573.15</v>
       </c>
       <c r="C109" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D109" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E109" t="n">
         <v>0</v>
@@ -2959,13 +2959,13 @@
         <v>-38.97590361445783</v>
       </c>
       <c r="B110" t="n">
-        <v>473.15</v>
+        <v>573.15</v>
       </c>
       <c r="C110" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D110" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E110" t="n">
         <v>0</v>
@@ -2982,13 +2982,13 @@
         <v>-38.73493975903614</v>
       </c>
       <c r="B111" t="n">
-        <v>473.15</v>
+        <v>573.15</v>
       </c>
       <c r="C111" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D111" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E111" t="n">
         <v>0</v>
@@ -3005,13 +3005,13 @@
         <v>-38.49397590361446</v>
       </c>
       <c r="B112" t="n">
-        <v>473.15</v>
+        <v>573.15</v>
       </c>
       <c r="C112" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D112" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E112" t="n">
         <v>0</v>
@@ -3028,13 +3028,13 @@
         <v>-38.25301204819277</v>
       </c>
       <c r="B113" t="n">
-        <v>473.15</v>
+        <v>573.15</v>
       </c>
       <c r="C113" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D113" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E113" t="n">
         <v>0</v>
@@ -3051,13 +3051,13 @@
         <v>-38.01204819277108</v>
       </c>
       <c r="B114" t="n">
-        <v>473.15</v>
+        <v>573.15</v>
       </c>
       <c r="C114" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D114" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E114" t="n">
         <v>0</v>
@@ -3074,13 +3074,13 @@
         <v>-37.77108433734939</v>
       </c>
       <c r="B115" t="n">
-        <v>473.15</v>
+        <v>573.15</v>
       </c>
       <c r="C115" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D115" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E115" t="n">
         <v>0</v>
@@ -3097,13 +3097,13 @@
         <v>-37.53012048192771</v>
       </c>
       <c r="B116" t="n">
-        <v>473.15</v>
+        <v>573.15</v>
       </c>
       <c r="C116" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D116" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E116" t="n">
         <v>0</v>
@@ -3120,13 +3120,13 @@
         <v>-37.28915662650603</v>
       </c>
       <c r="B117" t="n">
-        <v>473.15</v>
+        <v>573.15</v>
       </c>
       <c r="C117" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D117" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E117" t="n">
         <v>0</v>
@@ -3143,13 +3143,13 @@
         <v>-37.04819277108434</v>
       </c>
       <c r="B118" t="n">
-        <v>473.15</v>
+        <v>573.15</v>
       </c>
       <c r="C118" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D118" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E118" t="n">
         <v>0</v>
@@ -3166,13 +3166,13 @@
         <v>-36.80722891566265</v>
       </c>
       <c r="B119" t="n">
-        <v>473.15</v>
+        <v>573.15</v>
       </c>
       <c r="C119" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D119" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E119" t="n">
         <v>0</v>
@@ -3189,13 +3189,13 @@
         <v>-36.56626506024097</v>
       </c>
       <c r="B120" t="n">
-        <v>473.15</v>
+        <v>573.15</v>
       </c>
       <c r="C120" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D120" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E120" t="n">
         <v>0</v>
@@ -3212,13 +3212,13 @@
         <v>-36.32530120481928</v>
       </c>
       <c r="B121" t="n">
-        <v>473.15</v>
+        <v>573.15</v>
       </c>
       <c r="C121" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D121" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E121" t="n">
         <v>0</v>
@@ -3235,13 +3235,13 @@
         <v>-36.08433734939759</v>
       </c>
       <c r="B122" t="n">
-        <v>473.15</v>
+        <v>573.15</v>
       </c>
       <c r="C122" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D122" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E122" t="n">
         <v>0</v>
@@ -3258,13 +3258,13 @@
         <v>-35.8433734939759</v>
       </c>
       <c r="B123" t="n">
-        <v>473.15</v>
+        <v>573.15</v>
       </c>
       <c r="C123" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D123" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E123" t="n">
         <v>0</v>
@@ -3281,13 +3281,13 @@
         <v>-35.60240963855422</v>
       </c>
       <c r="B124" t="n">
-        <v>473.15</v>
+        <v>573.15</v>
       </c>
       <c r="C124" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D124" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E124" t="n">
         <v>0</v>
@@ -3304,13 +3304,13 @@
         <v>-35.36144578313253</v>
       </c>
       <c r="B125" t="n">
-        <v>473.15</v>
+        <v>573.15</v>
       </c>
       <c r="C125" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D125" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E125" t="n">
         <v>0</v>
@@ -3327,13 +3327,13 @@
         <v>-35.12048192771084</v>
       </c>
       <c r="B126" t="n">
-        <v>473.15</v>
+        <v>573.15</v>
       </c>
       <c r="C126" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D126" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E126" t="n">
         <v>0</v>
@@ -3350,13 +3350,13 @@
         <v>-34.87951807228916</v>
       </c>
       <c r="B127" t="n">
-        <v>473.15</v>
+        <v>573.15</v>
       </c>
       <c r="C127" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D127" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E127" t="n">
         <v>0</v>
@@ -3373,13 +3373,13 @@
         <v>-34.63855421686747</v>
       </c>
       <c r="B128" t="n">
-        <v>473.15</v>
+        <v>573.15</v>
       </c>
       <c r="C128" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D128" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E128" t="n">
         <v>0</v>
@@ -3396,13 +3396,13 @@
         <v>-34.39759036144578</v>
       </c>
       <c r="B129" t="n">
-        <v>473.15</v>
+        <v>573.15</v>
       </c>
       <c r="C129" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D129" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E129" t="n">
         <v>0</v>
@@ -3419,13 +3419,13 @@
         <v>-34.1566265060241</v>
       </c>
       <c r="B130" t="n">
-        <v>473.15</v>
+        <v>573.15</v>
       </c>
       <c r="C130" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D130" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E130" t="n">
         <v>0</v>
@@ -3442,13 +3442,13 @@
         <v>-33.91566265060241</v>
       </c>
       <c r="B131" t="n">
-        <v>473.15</v>
+        <v>573.15</v>
       </c>
       <c r="C131" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D131" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E131" t="n">
         <v>0</v>
@@ -3465,13 +3465,13 @@
         <v>-33.67469879518072</v>
       </c>
       <c r="B132" t="n">
-        <v>473.15</v>
+        <v>573.15</v>
       </c>
       <c r="C132" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D132" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E132" t="n">
         <v>0</v>
@@ -3488,13 +3488,13 @@
         <v>-33.43373493975903</v>
       </c>
       <c r="B133" t="n">
-        <v>473.15</v>
+        <v>573.15</v>
       </c>
       <c r="C133" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D133" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E133" t="n">
         <v>0</v>
@@ -3511,13 +3511,13 @@
         <v>-33.19277108433735</v>
       </c>
       <c r="B134" t="n">
-        <v>473.15</v>
+        <v>573.15</v>
       </c>
       <c r="C134" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D134" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E134" t="n">
         <v>0</v>
@@ -3534,13 +3534,13 @@
         <v>-32.95180722891566</v>
       </c>
       <c r="B135" t="n">
-        <v>473.15</v>
+        <v>573.15</v>
       </c>
       <c r="C135" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D135" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E135" t="n">
         <v>0</v>
@@ -3557,13 +3557,13 @@
         <v>-32.71084337349398</v>
       </c>
       <c r="B136" t="n">
-        <v>473.15</v>
+        <v>573.15</v>
       </c>
       <c r="C136" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D136" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E136" t="n">
         <v>0</v>
@@ -3580,13 +3580,13 @@
         <v>-32.46987951807229</v>
       </c>
       <c r="B137" t="n">
-        <v>473.15</v>
+        <v>573.15</v>
       </c>
       <c r="C137" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D137" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E137" t="n">
         <v>0</v>
@@ -3603,13 +3603,13 @@
         <v>-32.2289156626506</v>
       </c>
       <c r="B138" t="n">
-        <v>473.15</v>
+        <v>573.15</v>
       </c>
       <c r="C138" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D138" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E138" t="n">
         <v>0</v>
@@ -3626,7 +3626,7 @@
         <v>-31.98795180722892</v>
       </c>
       <c r="B139" t="n">
-        <v>473.15</v>
+        <v>573.15</v>
       </c>
       <c r="C139" t="n">
         <v>1</v>
@@ -3649,7 +3649,7 @@
         <v>-31.74698795180723</v>
       </c>
       <c r="B140" t="n">
-        <v>473.15</v>
+        <v>573.15</v>
       </c>
       <c r="C140" t="n">
         <v>1</v>
@@ -3672,7 +3672,7 @@
         <v>-31.50602409638554</v>
       </c>
       <c r="B141" t="n">
-        <v>473.15</v>
+        <v>573.15</v>
       </c>
       <c r="C141" t="n">
         <v>1</v>
@@ -3695,7 +3695,7 @@
         <v>-31.26506024096386</v>
       </c>
       <c r="B142" t="n">
-        <v>473.15</v>
+        <v>573.15</v>
       </c>
       <c r="C142" t="n">
         <v>1</v>
@@ -3718,7 +3718,7 @@
         <v>-31.02409638554217</v>
       </c>
       <c r="B143" t="n">
-        <v>473.15</v>
+        <v>573.15</v>
       </c>
       <c r="C143" t="n">
         <v>1</v>
@@ -3741,7 +3741,7 @@
         <v>-30.78313253012048</v>
       </c>
       <c r="B144" t="n">
-        <v>473.15</v>
+        <v>573.15</v>
       </c>
       <c r="C144" t="n">
         <v>1</v>
@@ -3764,7 +3764,7 @@
         <v>-30.54216867469879</v>
       </c>
       <c r="B145" t="n">
-        <v>473.15</v>
+        <v>573.15</v>
       </c>
       <c r="C145" t="n">
         <v>1</v>
@@ -3787,7 +3787,7 @@
         <v>-30.30120481927711</v>
       </c>
       <c r="B146" t="n">
-        <v>473.15</v>
+        <v>573.15</v>
       </c>
       <c r="C146" t="n">
         <v>1</v>
@@ -3810,7 +3810,7 @@
         <v>-30.06024096385542</v>
       </c>
       <c r="B147" t="n">
-        <v>473.15</v>
+        <v>573.15</v>
       </c>
       <c r="C147" t="n">
         <v>1</v>
@@ -3833,7 +3833,7 @@
         <v>-29.81927710843374</v>
       </c>
       <c r="B148" t="n">
-        <v>473.15</v>
+        <v>573.15</v>
       </c>
       <c r="C148" t="n">
         <v>1</v>
@@ -3856,7 +3856,7 @@
         <v>-29.57831325301205</v>
       </c>
       <c r="B149" t="n">
-        <v>473.15</v>
+        <v>573.15</v>
       </c>
       <c r="C149" t="n">
         <v>1</v>
@@ -3879,7 +3879,7 @@
         <v>-29.33734939759036</v>
       </c>
       <c r="B150" t="n">
-        <v>473.15</v>
+        <v>573.15</v>
       </c>
       <c r="C150" t="n">
         <v>1</v>
@@ -3902,7 +3902,7 @@
         <v>-29.09638554216868</v>
       </c>
       <c r="B151" t="n">
-        <v>473.15</v>
+        <v>573.15</v>
       </c>
       <c r="C151" t="n">
         <v>1</v>
@@ -3925,7 +3925,7 @@
         <v>-28.85542168674699</v>
       </c>
       <c r="B152" t="n">
-        <v>473.15</v>
+        <v>573.15</v>
       </c>
       <c r="C152" t="n">
         <v>1</v>
@@ -3948,7 +3948,7 @@
         <v>-28.6144578313253</v>
       </c>
       <c r="B153" t="n">
-        <v>473.15</v>
+        <v>573.15</v>
       </c>
       <c r="C153" t="n">
         <v>1</v>
@@ -3971,7 +3971,7 @@
         <v>-28.37349397590361</v>
       </c>
       <c r="B154" t="n">
-        <v>473.15</v>
+        <v>573.15</v>
       </c>
       <c r="C154" t="n">
         <v>1</v>
@@ -3994,7 +3994,7 @@
         <v>-28.13253012048193</v>
       </c>
       <c r="B155" t="n">
-        <v>473.15</v>
+        <v>573.15</v>
       </c>
       <c r="C155" t="n">
         <v>1</v>
@@ -4017,7 +4017,7 @@
         <v>-27.89156626506024</v>
       </c>
       <c r="B156" t="n">
-        <v>473.15</v>
+        <v>573.15</v>
       </c>
       <c r="C156" t="n">
         <v>1</v>
@@ -4040,7 +4040,7 @@
         <v>-27.65060240963855</v>
       </c>
       <c r="B157" t="n">
-        <v>473.15</v>
+        <v>573.15</v>
       </c>
       <c r="C157" t="n">
         <v>1</v>
@@ -4063,7 +4063,7 @@
         <v>-27.40963855421687</v>
       </c>
       <c r="B158" t="n">
-        <v>473.15</v>
+        <v>573.15</v>
       </c>
       <c r="C158" t="n">
         <v>1</v>
@@ -4086,7 +4086,7 @@
         <v>-27.16867469879518</v>
       </c>
       <c r="B159" t="n">
-        <v>473.15</v>
+        <v>573.15</v>
       </c>
       <c r="C159" t="n">
         <v>1</v>
@@ -4109,7 +4109,7 @@
         <v>-26.9277108433735</v>
       </c>
       <c r="B160" t="n">
-        <v>473.15</v>
+        <v>573.15</v>
       </c>
       <c r="C160" t="n">
         <v>1</v>
@@ -4132,7 +4132,7 @@
         <v>-26.68674698795181</v>
       </c>
       <c r="B161" t="n">
-        <v>473.15</v>
+        <v>573.15</v>
       </c>
       <c r="C161" t="n">
         <v>1</v>
@@ -4155,7 +4155,7 @@
         <v>-26.44578313253012</v>
       </c>
       <c r="B162" t="n">
-        <v>473.15</v>
+        <v>573.15</v>
       </c>
       <c r="C162" t="n">
         <v>1</v>
@@ -4178,7 +4178,7 @@
         <v>-26.20481927710843</v>
       </c>
       <c r="B163" t="n">
-        <v>473.15</v>
+        <v>573.15</v>
       </c>
       <c r="C163" t="n">
         <v>1</v>
@@ -4201,7 +4201,7 @@
         <v>-25.96385542168674</v>
       </c>
       <c r="B164" t="n">
-        <v>473.15</v>
+        <v>573.15</v>
       </c>
       <c r="C164" t="n">
         <v>1</v>
@@ -4224,7 +4224,7 @@
         <v>-25.72289156626506</v>
       </c>
       <c r="B165" t="n">
-        <v>473.15</v>
+        <v>573.15</v>
       </c>
       <c r="C165" t="n">
         <v>1</v>
@@ -4247,7 +4247,7 @@
         <v>-25.48192771084337</v>
       </c>
       <c r="B166" t="n">
-        <v>473.15</v>
+        <v>573.15</v>
       </c>
       <c r="C166" t="n">
         <v>1</v>
@@ -4270,7 +4270,7 @@
         <v>-25.24096385542169</v>
       </c>
       <c r="B167" t="n">
-        <v>473.15</v>
+        <v>573.15</v>
       </c>
       <c r="C167" t="n">
         <v>1</v>
@@ -4293,7 +4293,7 @@
         <v>-25</v>
       </c>
       <c r="B168" t="n">
-        <v>473.15</v>
+        <v>573.15</v>
       </c>
       <c r="C168" t="n">
         <v>1</v>
@@ -4316,7 +4316,7 @@
         <v>-24.75903614457831</v>
       </c>
       <c r="B169" t="n">
-        <v>473.15</v>
+        <v>573.15</v>
       </c>
       <c r="C169" t="n">
         <v>1</v>
@@ -4339,7 +4339,7 @@
         <v>-24.51807228915663</v>
       </c>
       <c r="B170" t="n">
-        <v>473.15</v>
+        <v>573.15</v>
       </c>
       <c r="C170" t="n">
         <v>1</v>
@@ -4362,7 +4362,7 @@
         <v>-24.27710843373494</v>
       </c>
       <c r="B171" t="n">
-        <v>473.15</v>
+        <v>573.15</v>
       </c>
       <c r="C171" t="n">
         <v>1</v>
@@ -4385,7 +4385,7 @@
         <v>-24.03614457831326</v>
       </c>
       <c r="B172" t="n">
-        <v>473.15</v>
+        <v>573.15</v>
       </c>
       <c r="C172" t="n">
         <v>1</v>
@@ -4408,7 +4408,7 @@
         <v>-23.79518072289157</v>
       </c>
       <c r="B173" t="n">
-        <v>473.15</v>
+        <v>573.15</v>
       </c>
       <c r="C173" t="n">
         <v>1</v>
@@ -4431,7 +4431,7 @@
         <v>-23.55421686746988</v>
       </c>
       <c r="B174" t="n">
-        <v>473.15</v>
+        <v>573.15</v>
       </c>
       <c r="C174" t="n">
         <v>1</v>
@@ -4454,7 +4454,7 @@
         <v>-23.31325301204819</v>
       </c>
       <c r="B175" t="n">
-        <v>473.15</v>
+        <v>573.15</v>
       </c>
       <c r="C175" t="n">
         <v>1</v>
@@ -4477,7 +4477,7 @@
         <v>-23.0722891566265</v>
       </c>
       <c r="B176" t="n">
-        <v>473.15</v>
+        <v>573.15</v>
       </c>
       <c r="C176" t="n">
         <v>1</v>
@@ -4500,7 +4500,7 @@
         <v>-22.83132530120482</v>
       </c>
       <c r="B177" t="n">
-        <v>473.15</v>
+        <v>573.15</v>
       </c>
       <c r="C177" t="n">
         <v>1</v>
@@ -4523,7 +4523,7 @@
         <v>-22.59036144578313</v>
       </c>
       <c r="B178" t="n">
-        <v>473.15</v>
+        <v>573.15</v>
       </c>
       <c r="C178" t="n">
         <v>1</v>
@@ -4546,7 +4546,7 @@
         <v>-22.34939759036145</v>
       </c>
       <c r="B179" t="n">
-        <v>473.15</v>
+        <v>573.15</v>
       </c>
       <c r="C179" t="n">
         <v>1</v>
@@ -4569,7 +4569,7 @@
         <v>-22.10843373493976</v>
       </c>
       <c r="B180" t="n">
-        <v>473.15</v>
+        <v>573.15</v>
       </c>
       <c r="C180" t="n">
         <v>1</v>
@@ -4592,7 +4592,7 @@
         <v>-21.86746987951808</v>
       </c>
       <c r="B181" t="n">
-        <v>473.15</v>
+        <v>573.15</v>
       </c>
       <c r="C181" t="n">
         <v>1</v>
@@ -4615,7 +4615,7 @@
         <v>-21.62650602409639</v>
       </c>
       <c r="B182" t="n">
-        <v>473.15</v>
+        <v>573.15</v>
       </c>
       <c r="C182" t="n">
         <v>1</v>
@@ -4638,7 +4638,7 @@
         <v>-21.3855421686747</v>
       </c>
       <c r="B183" t="n">
-        <v>473.15</v>
+        <v>573.15</v>
       </c>
       <c r="C183" t="n">
         <v>1</v>
@@ -4661,7 +4661,7 @@
         <v>-21.14457831325301</v>
       </c>
       <c r="B184" t="n">
-        <v>473.15</v>
+        <v>573.15</v>
       </c>
       <c r="C184" t="n">
         <v>1</v>
@@ -4684,7 +4684,7 @@
         <v>-20.90361445783132</v>
       </c>
       <c r="B185" t="n">
-        <v>473.15</v>
+        <v>573.15</v>
       </c>
       <c r="C185" t="n">
         <v>1</v>
@@ -4707,7 +4707,7 @@
         <v>-20.66265060240964</v>
       </c>
       <c r="B186" t="n">
-        <v>473.15</v>
+        <v>573.15</v>
       </c>
       <c r="C186" t="n">
         <v>1</v>
@@ -4730,7 +4730,7 @@
         <v>-20.42168674698795</v>
       </c>
       <c r="B187" t="n">
-        <v>473.15</v>
+        <v>573.15</v>
       </c>
       <c r="C187" t="n">
         <v>1</v>
@@ -4753,7 +4753,7 @@
         <v>-20.18072289156626</v>
       </c>
       <c r="B188" t="n">
-        <v>473.15</v>
+        <v>573.15</v>
       </c>
       <c r="C188" t="n">
         <v>1</v>
@@ -4776,7 +4776,7 @@
         <v>-19.93975903614458</v>
       </c>
       <c r="B189" t="n">
-        <v>473.15</v>
+        <v>573.15</v>
       </c>
       <c r="C189" t="n">
         <v>1</v>
@@ -4799,7 +4799,7 @@
         <v>-19.69879518072289</v>
       </c>
       <c r="B190" t="n">
-        <v>473.15</v>
+        <v>573.15</v>
       </c>
       <c r="C190" t="n">
         <v>1</v>
@@ -4822,7 +4822,7 @@
         <v>-19.45783132530121</v>
       </c>
       <c r="B191" t="n">
-        <v>473.15</v>
+        <v>573.15</v>
       </c>
       <c r="C191" t="n">
         <v>1</v>
@@ -4845,7 +4845,7 @@
         <v>-19.21686746987952</v>
       </c>
       <c r="B192" t="n">
-        <v>473.15</v>
+        <v>573.15</v>
       </c>
       <c r="C192" t="n">
         <v>1</v>
@@ -4868,7 +4868,7 @@
         <v>-18.97590361445783</v>
       </c>
       <c r="B193" t="n">
-        <v>473.15</v>
+        <v>573.15</v>
       </c>
       <c r="C193" t="n">
         <v>1</v>
@@ -4891,7 +4891,7 @@
         <v>-18.73493975903614</v>
       </c>
       <c r="B194" t="n">
-        <v>473.15</v>
+        <v>573.15</v>
       </c>
       <c r="C194" t="n">
         <v>1</v>
@@ -4914,7 +4914,7 @@
         <v>-18.49397590361446</v>
       </c>
       <c r="B195" t="n">
-        <v>473.15</v>
+        <v>573.15</v>
       </c>
       <c r="C195" t="n">
         <v>1</v>
@@ -4937,7 +4937,7 @@
         <v>-18.25301204819277</v>
       </c>
       <c r="B196" t="n">
-        <v>473.15</v>
+        <v>573.15</v>
       </c>
       <c r="C196" t="n">
         <v>1</v>
@@ -4960,7 +4960,7 @@
         <v>-18.01204819277108</v>
       </c>
       <c r="B197" t="n">
-        <v>473.15</v>
+        <v>573.15</v>
       </c>
       <c r="C197" t="n">
         <v>1</v>
@@ -4983,7 +4983,7 @@
         <v>-17.7710843373494</v>
       </c>
       <c r="B198" t="n">
-        <v>473.15</v>
+        <v>573.15</v>
       </c>
       <c r="C198" t="n">
         <v>1</v>
@@ -5006,7 +5006,7 @@
         <v>-17.53012048192771</v>
       </c>
       <c r="B199" t="n">
-        <v>473.15</v>
+        <v>573.15</v>
       </c>
       <c r="C199" t="n">
         <v>1</v>
@@ -5029,7 +5029,7 @@
         <v>-17.28915662650603</v>
       </c>
       <c r="B200" t="n">
-        <v>473.15</v>
+        <v>573.15</v>
       </c>
       <c r="C200" t="n">
         <v>1</v>
@@ -5052,7 +5052,7 @@
         <v>-17.04819277108434</v>
       </c>
       <c r="B201" t="n">
-        <v>473.15</v>
+        <v>573.15</v>
       </c>
       <c r="C201" t="n">
         <v>1</v>
@@ -5075,7 +5075,7 @@
         <v>-16.80722891566265</v>
       </c>
       <c r="B202" t="n">
-        <v>473.15</v>
+        <v>573.15</v>
       </c>
       <c r="C202" t="n">
         <v>1</v>
@@ -5098,7 +5098,7 @@
         <v>-16.56626506024097</v>
       </c>
       <c r="B203" t="n">
-        <v>473.15</v>
+        <v>573.15</v>
       </c>
       <c r="C203" t="n">
         <v>1</v>
@@ -5121,7 +5121,7 @@
         <v>-16.32530120481928</v>
       </c>
       <c r="B204" t="n">
-        <v>473.15</v>
+        <v>573.15</v>
       </c>
       <c r="C204" t="n">
         <v>1</v>
@@ -5144,7 +5144,7 @@
         <v>-16.08433734939759</v>
       </c>
       <c r="B205" t="n">
-        <v>473.15</v>
+        <v>573.15</v>
       </c>
       <c r="C205" t="n">
         <v>1</v>
@@ -5167,7 +5167,7 @@
         <v>-15.8433734939759</v>
       </c>
       <c r="B206" t="n">
-        <v>473.15</v>
+        <v>573.15</v>
       </c>
       <c r="C206" t="n">
         <v>1</v>
@@ -5190,7 +5190,7 @@
         <v>-15.60240963855421</v>
       </c>
       <c r="B207" t="n">
-        <v>473.15</v>
+        <v>573.15</v>
       </c>
       <c r="C207" t="n">
         <v>1</v>
@@ -5213,7 +5213,7 @@
         <v>-15.36144578313253</v>
       </c>
       <c r="B208" t="n">
-        <v>473.15</v>
+        <v>573.15</v>
       </c>
       <c r="C208" t="n">
         <v>1</v>
@@ -5236,7 +5236,7 @@
         <v>-15.12048192771084</v>
       </c>
       <c r="B209" t="n">
-        <v>473.15</v>
+        <v>573.15</v>
       </c>
       <c r="C209" t="n">
         <v>1</v>
@@ -5259,7 +5259,7 @@
         <v>-14.87951807228916</v>
       </c>
       <c r="B210" t="n">
-        <v>473.15</v>
+        <v>573.15</v>
       </c>
       <c r="C210" t="n">
         <v>1</v>
@@ -5282,7 +5282,7 @@
         <v>-14.63855421686747</v>
       </c>
       <c r="B211" t="n">
-        <v>473.15</v>
+        <v>573.15</v>
       </c>
       <c r="C211" t="n">
         <v>1</v>
@@ -5305,7 +5305,7 @@
         <v>-14.39759036144579</v>
       </c>
       <c r="B212" t="n">
-        <v>473.15</v>
+        <v>573.15</v>
       </c>
       <c r="C212" t="n">
         <v>1</v>
@@ -5328,7 +5328,7 @@
         <v>-14.1566265060241</v>
       </c>
       <c r="B213" t="n">
-        <v>473.15</v>
+        <v>573.15</v>
       </c>
       <c r="C213" t="n">
         <v>1</v>
@@ -5351,7 +5351,7 @@
         <v>-13.91566265060241</v>
       </c>
       <c r="B214" t="n">
-        <v>473.15</v>
+        <v>573.15</v>
       </c>
       <c r="C214" t="n">
         <v>1</v>
@@ -5374,7 +5374,7 @@
         <v>-13.67469879518072</v>
       </c>
       <c r="B215" t="n">
-        <v>473.15</v>
+        <v>573.15</v>
       </c>
       <c r="C215" t="n">
         <v>1</v>
@@ -5397,7 +5397,7 @@
         <v>-13.43373493975903</v>
       </c>
       <c r="B216" t="n">
-        <v>473.15</v>
+        <v>573.15</v>
       </c>
       <c r="C216" t="n">
         <v>1</v>
@@ -5420,7 +5420,7 @@
         <v>-13.19277108433735</v>
       </c>
       <c r="B217" t="n">
-        <v>473.15</v>
+        <v>573.15</v>
       </c>
       <c r="C217" t="n">
         <v>1</v>
@@ -5443,7 +5443,7 @@
         <v>-12.95180722891566</v>
       </c>
       <c r="B218" t="n">
-        <v>473.15</v>
+        <v>573.15</v>
       </c>
       <c r="C218" t="n">
         <v>1</v>
@@ -5466,7 +5466,7 @@
         <v>-12.71084337349398</v>
       </c>
       <c r="B219" t="n">
-        <v>473.15</v>
+        <v>573.15</v>
       </c>
       <c r="C219" t="n">
         <v>1</v>
@@ -5489,7 +5489,7 @@
         <v>-12.46987951807229</v>
       </c>
       <c r="B220" t="n">
-        <v>473.15</v>
+        <v>573.15</v>
       </c>
       <c r="C220" t="n">
         <v>1</v>
@@ -5512,7 +5512,7 @@
         <v>-12.2289156626506</v>
       </c>
       <c r="B221" t="n">
-        <v>473.15</v>
+        <v>573.15</v>
       </c>
       <c r="C221" t="n">
         <v>1</v>
@@ -5535,7 +5535,7 @@
         <v>-11.98795180722892</v>
       </c>
       <c r="B222" t="n">
-        <v>473.15</v>
+        <v>573.15</v>
       </c>
       <c r="C222" t="n">
         <v>1</v>
@@ -5558,7 +5558,7 @@
         <v>-11.74698795180723</v>
       </c>
       <c r="B223" t="n">
-        <v>473.15</v>
+        <v>573.15</v>
       </c>
       <c r="C223" t="n">
         <v>1</v>
@@ -5581,7 +5581,7 @@
         <v>-11.50602409638554</v>
       </c>
       <c r="B224" t="n">
-        <v>473.15</v>
+        <v>573.15</v>
       </c>
       <c r="C224" t="n">
         <v>1</v>
@@ -5604,7 +5604,7 @@
         <v>-11.26506024096386</v>
       </c>
       <c r="B225" t="n">
-        <v>473.15</v>
+        <v>573.15</v>
       </c>
       <c r="C225" t="n">
         <v>1</v>
@@ -5627,7 +5627,7 @@
         <v>-11.02409638554217</v>
       </c>
       <c r="B226" t="n">
-        <v>473.15</v>
+        <v>573.15</v>
       </c>
       <c r="C226" t="n">
         <v>1</v>
@@ -5650,7 +5650,7 @@
         <v>-10.78313253012048</v>
       </c>
       <c r="B227" t="n">
-        <v>473.15</v>
+        <v>573.15</v>
       </c>
       <c r="C227" t="n">
         <v>1</v>
@@ -5673,7 +5673,7 @@
         <v>-10.54216867469879</v>
       </c>
       <c r="B228" t="n">
-        <v>473.15</v>
+        <v>573.15</v>
       </c>
       <c r="C228" t="n">
         <v>1</v>
@@ -5696,7 +5696,7 @@
         <v>-10.30120481927711</v>
       </c>
       <c r="B229" t="n">
-        <v>473.15</v>
+        <v>573.15</v>
       </c>
       <c r="C229" t="n">
         <v>1</v>
@@ -5719,7 +5719,7 @@
         <v>-10.06024096385542</v>
       </c>
       <c r="B230" t="n">
-        <v>473.15</v>
+        <v>573.15</v>
       </c>
       <c r="C230" t="n">
         <v>1</v>
@@ -5742,7 +5742,7 @@
         <v>-9.819277108433738</v>
       </c>
       <c r="B231" t="n">
-        <v>473.15</v>
+        <v>573.15</v>
       </c>
       <c r="C231" t="n">
         <v>1</v>
@@ -5765,7 +5765,7 @@
         <v>-9.578313253012048</v>
       </c>
       <c r="B232" t="n">
-        <v>473.15</v>
+        <v>573.15</v>
       </c>
       <c r="C232" t="n">
         <v>1</v>
@@ -5788,7 +5788,7 @@
         <v>-9.337349397590359</v>
       </c>
       <c r="B233" t="n">
-        <v>473.15</v>
+        <v>573.15</v>
       </c>
       <c r="C233" t="n">
         <v>1</v>
@@ -5811,7 +5811,7 @@
         <v>-9.096385542168676</v>
       </c>
       <c r="B234" t="n">
-        <v>473.15</v>
+        <v>573.15</v>
       </c>
       <c r="C234" t="n">
         <v>1</v>
@@ -5834,7 +5834,7 @@
         <v>-8.855421686746986</v>
       </c>
       <c r="B235" t="n">
-        <v>473.15</v>
+        <v>573.15</v>
       </c>
       <c r="C235" t="n">
         <v>1</v>
@@ -5857,7 +5857,7 @@
         <v>-8.614457831325304</v>
       </c>
       <c r="B236" t="n">
-        <v>473.15</v>
+        <v>573.15</v>
       </c>
       <c r="C236" t="n">
         <v>1</v>
@@ -5880,7 +5880,7 @@
         <v>-8.373493975903614</v>
       </c>
       <c r="B237" t="n">
-        <v>473.15</v>
+        <v>573.15</v>
       </c>
       <c r="C237" t="n">
         <v>1</v>
@@ -5903,7 +5903,7 @@
         <v>-8.132530120481931</v>
       </c>
       <c r="B238" t="n">
-        <v>473.15</v>
+        <v>573.15</v>
       </c>
       <c r="C238" t="n">
         <v>1</v>
@@ -5926,7 +5926,7 @@
         <v>-7.891566265060241</v>
       </c>
       <c r="B239" t="n">
-        <v>473.15</v>
+        <v>573.15</v>
       </c>
       <c r="C239" t="n">
         <v>1</v>
@@ -5949,7 +5949,7 @@
         <v>-7.650602409638552</v>
       </c>
       <c r="B240" t="n">
-        <v>473.15</v>
+        <v>573.15</v>
       </c>
       <c r="C240" t="n">
         <v>1</v>
@@ -5972,7 +5972,7 @@
         <v>-7.409638554216869</v>
       </c>
       <c r="B241" t="n">
-        <v>473.15</v>
+        <v>573.15</v>
       </c>
       <c r="C241" t="n">
         <v>1</v>
@@ -5995,7 +5995,7 @@
         <v>-7.168674698795179</v>
       </c>
       <c r="B242" t="n">
-        <v>473.15</v>
+        <v>573.15</v>
       </c>
       <c r="C242" t="n">
         <v>1</v>
@@ -6018,7 +6018,7 @@
         <v>-6.927710843373497</v>
       </c>
       <c r="B243" t="n">
-        <v>473.15</v>
+        <v>573.15</v>
       </c>
       <c r="C243" t="n">
         <v>1</v>
@@ -6041,7 +6041,7 @@
         <v>-6.686746987951807</v>
       </c>
       <c r="B244" t="n">
-        <v>473.15</v>
+        <v>573.15</v>
       </c>
       <c r="C244" t="n">
         <v>1</v>
@@ -6064,7 +6064,7 @@
         <v>-6.445783132530124</v>
       </c>
       <c r="B245" t="n">
-        <v>473.15</v>
+        <v>573.15</v>
       </c>
       <c r="C245" t="n">
         <v>1</v>
@@ -6087,7 +6087,7 @@
         <v>-6.204819277108435</v>
       </c>
       <c r="B246" t="n">
-        <v>473.15</v>
+        <v>573.15</v>
       </c>
       <c r="C246" t="n">
         <v>1</v>
@@ -6110,7 +6110,7 @@
         <v>-5.963855421686745</v>
       </c>
       <c r="B247" t="n">
-        <v>473.15</v>
+        <v>573.15</v>
       </c>
       <c r="C247" t="n">
         <v>1</v>
@@ -6133,7 +6133,7 @@
         <v>-5.722891566265062</v>
       </c>
       <c r="B248" t="n">
-        <v>473.15</v>
+        <v>573.15</v>
       </c>
       <c r="C248" t="n">
         <v>1</v>
@@ -6156,7 +6156,7 @@
         <v>-5.481927710843372</v>
       </c>
       <c r="B249" t="n">
-        <v>473.15</v>
+        <v>573.15</v>
       </c>
       <c r="C249" t="n">
         <v>1</v>
@@ -6179,7 +6179,7 @@
         <v>-5.24096385542169</v>
       </c>
       <c r="B250" t="n">
-        <v>473.15</v>
+        <v>573.15</v>
       </c>
       <c r="C250" t="n">
         <v>1</v>
@@ -6202,7 +6202,7 @@
         <v>-5</v>
       </c>
       <c r="B251" t="n">
-        <v>473.15</v>
+        <v>573.15</v>
       </c>
       <c r="C251" t="n">
         <v>1</v>

--- a/tc_df_FullEquil_check_filter.xlsx
+++ b/tc_df_FullEquil_check_filter.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G251"/>
+  <dimension ref="A1:G151"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,7 +472,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-65</v>
+        <v>-60</v>
       </c>
       <c r="B2" t="n">
         <v>573.15</v>
@@ -487,7 +487,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>1.00000000004135</v>
+        <v>1.00000000002635</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -495,7 +495,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-64.75903614457832</v>
+        <v>-59.63087248322147</v>
       </c>
       <c r="B3" t="n">
         <v>573.15</v>
@@ -510,7 +510,7 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>1.000000000040628</v>
+        <v>1.000000000025243</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -518,7 +518,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>-64.51807228915662</v>
+        <v>-59.26174496644295</v>
       </c>
       <c r="B4" t="n">
         <v>573.15</v>
@@ -533,7 +533,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>1.000000000039905</v>
+        <v>1.000000000024136</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -541,7 +541,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>-64.27710843373494</v>
+        <v>-58.89261744966443</v>
       </c>
       <c r="B5" t="n">
         <v>573.15</v>
@@ -556,7 +556,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>1.000000000039182</v>
+        <v>1.000000000023028</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -564,7 +564,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>-64.03614457831326</v>
+        <v>-58.52348993288591</v>
       </c>
       <c r="B6" t="n">
         <v>573.15</v>
@@ -579,7 +579,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>1.000000000038459</v>
+        <v>1.000000000021921</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -587,7 +587,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>-63.79518072289157</v>
+        <v>-58.15436241610738</v>
       </c>
       <c r="B7" t="n">
         <v>573.15</v>
@@ -602,7 +602,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>1.000000000037736</v>
+        <v>1.000000000020813</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -610,7 +610,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>-63.55421686746988</v>
+        <v>-57.78523489932886</v>
       </c>
       <c r="B8" t="n">
         <v>573.15</v>
@@ -625,7 +625,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>1.000000000037013</v>
+        <v>1.000000000019706</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -633,7 +633,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-63.31325301204819</v>
+        <v>-57.41610738255034</v>
       </c>
       <c r="B9" t="n">
         <v>573.15</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>1.00000000003629</v>
+        <v>1.000000000018599</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -656,7 +656,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>-63.0722891566265</v>
+        <v>-57.04697986577181</v>
       </c>
       <c r="B10" t="n">
         <v>573.15</v>
@@ -671,7 +671,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>1.000000000035567</v>
+        <v>1.000000000017491</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -679,7 +679,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>-62.83132530120482</v>
+        <v>-56.67785234899329</v>
       </c>
       <c r="B11" t="n">
         <v>573.15</v>
@@ -694,7 +694,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>1.000000000034844</v>
+        <v>1.000000000016384</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -702,7 +702,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>-62.59036144578313</v>
+        <v>-56.30872483221476</v>
       </c>
       <c r="B12" t="n">
         <v>573.15</v>
@@ -717,7 +717,7 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>1.000000000034121</v>
+        <v>1.000000000015276</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -725,7 +725,7 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>-62.34939759036145</v>
+        <v>-55.93959731543625</v>
       </c>
       <c r="B13" t="n">
         <v>573.15</v>
@@ -740,7 +740,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>1.000000000033399</v>
+        <v>1.000000000014169</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -748,7 +748,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>-62.10843373493976</v>
+        <v>-55.57046979865772</v>
       </c>
       <c r="B14" t="n">
         <v>573.15</v>
@@ -763,7 +763,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>1.000000000032676</v>
+        <v>1.000000000013062</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -771,7 +771,7 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>-61.86746987951807</v>
+        <v>-55.20134228187919</v>
       </c>
       <c r="B15" t="n">
         <v>573.15</v>
@@ -786,7 +786,7 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>1.000000000031953</v>
+        <v>1.000000000011954</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
@@ -794,7 +794,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>-61.62650602409639</v>
+        <v>-54.83221476510067</v>
       </c>
       <c r="B16" t="n">
         <v>573.15</v>
@@ -809,7 +809,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>1.00000000003123</v>
+        <v>1.000000000010847</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -817,7 +817,7 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>-61.3855421686747</v>
+        <v>-54.46308724832215</v>
       </c>
       <c r="B17" t="n">
         <v>573.15</v>
@@ -832,7 +832,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>1.000000000030507</v>
+        <v>1.00000000000974</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -840,7 +840,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>-61.14457831325301</v>
+        <v>-54.09395973154362</v>
       </c>
       <c r="B18" t="n">
         <v>573.15</v>
@@ -855,7 +855,7 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>1.000000000029784</v>
+        <v>1.000000000008632</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
@@ -863,7 +863,7 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>-60.90361445783132</v>
+        <v>-53.7248322147651</v>
       </c>
       <c r="B19" t="n">
         <v>573.15</v>
@@ -878,7 +878,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>1.000000000029061</v>
+        <v>1.000000000007525</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -886,7 +886,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>-60.66265060240964</v>
+        <v>-53.35570469798657</v>
       </c>
       <c r="B20" t="n">
         <v>573.15</v>
@@ -901,7 +901,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>1.000000000028338</v>
+        <v>1.000000000006418</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -909,7 +909,7 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>-60.42168674698795</v>
+        <v>-52.98657718120806</v>
       </c>
       <c r="B21" t="n">
         <v>573.15</v>
@@ -924,7 +924,7 @@
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>1.000000000027615</v>
+        <v>1.00000000000531</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
@@ -932,7 +932,7 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>-60.18072289156626</v>
+        <v>-52.61744966442953</v>
       </c>
       <c r="B22" t="n">
         <v>573.15</v>
@@ -947,7 +947,7 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>1.000000000026892</v>
+        <v>1.000000000004203</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -955,7 +955,7 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>-59.93975903614458</v>
+        <v>-52.24832214765101</v>
       </c>
       <c r="B23" t="n">
         <v>573.15</v>
@@ -970,7 +970,7 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>1.00000000002617</v>
+        <v>1.000000000003095</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -978,7 +978,7 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>-59.69879518072289</v>
+        <v>-51.87919463087248</v>
       </c>
       <c r="B24" t="n">
         <v>573.15</v>
@@ -993,7 +993,7 @@
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>1.000000000025447</v>
+        <v>1.000000000001988</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
@@ -1001,7 +1001,7 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>-59.45783132530121</v>
+        <v>-51.51006711409396</v>
       </c>
       <c r="B25" t="n">
         <v>573.15</v>
@@ -1016,7 +1016,7 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>1.000000000024724</v>
+        <v>1.00000000000088</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -1024,7 +1024,7 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>-59.21686746987952</v>
+        <v>-51.14093959731544</v>
       </c>
       <c r="B26" t="n">
         <v>573.15</v>
@@ -1039,7 +1039,7 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>1.000000000024001</v>
+        <v>1</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -1047,7 +1047,7 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>-58.97590361445783</v>
+        <v>-50.77181208053691</v>
       </c>
       <c r="B27" t="n">
         <v>573.15</v>
@@ -1062,7 +1062,7 @@
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>1.000000000023278</v>
+        <v>1</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
@@ -1070,7 +1070,7 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>-58.73493975903614</v>
+        <v>-50.40268456375838</v>
       </c>
       <c r="B28" t="n">
         <v>573.15</v>
@@ -1085,7 +1085,7 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>1.000000000022555</v>
+        <v>1</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -1093,7 +1093,7 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>-58.49397590361446</v>
+        <v>-50.03355704697987</v>
       </c>
       <c r="B29" t="n">
         <v>573.15</v>
@@ -1108,7 +1108,7 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>1.000000000021832</v>
+        <v>1</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -1116,7 +1116,7 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>-58.25301204819277</v>
+        <v>-49.66442953020135</v>
       </c>
       <c r="B30" t="n">
         <v>573.15</v>
@@ -1131,7 +1131,7 @@
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>1.000000000021109</v>
+        <v>1</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
@@ -1139,7 +1139,7 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>-58.01204819277108</v>
+        <v>-49.29530201342282</v>
       </c>
       <c r="B31" t="n">
         <v>573.15</v>
@@ -1154,7 +1154,7 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>1.000000000020387</v>
+        <v>1</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -1162,7 +1162,7 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>-57.7710843373494</v>
+        <v>-48.92617449664429</v>
       </c>
       <c r="B32" t="n">
         <v>573.15</v>
@@ -1177,7 +1177,7 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>1.000000000019664</v>
+        <v>1</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -1185,7 +1185,7 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>-57.53012048192771</v>
+        <v>-48.55704697986577</v>
       </c>
       <c r="B33" t="n">
         <v>573.15</v>
@@ -1200,7 +1200,7 @@
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>1.000000000018941</v>
+        <v>1</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
@@ -1208,7 +1208,7 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>-57.28915662650603</v>
+        <v>-48.18791946308725</v>
       </c>
       <c r="B34" t="n">
         <v>573.15</v>
@@ -1223,7 +1223,7 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>1.000000000018218</v>
+        <v>1</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -1231,7 +1231,7 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>-57.04819277108434</v>
+        <v>-47.81879194630872</v>
       </c>
       <c r="B35" t="n">
         <v>573.15</v>
@@ -1246,7 +1246,7 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>1.000000000017495</v>
+        <v>1</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -1254,7 +1254,7 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>-56.80722891566265</v>
+        <v>-47.4496644295302</v>
       </c>
       <c r="B36" t="n">
         <v>573.15</v>
@@ -1269,7 +1269,7 @@
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>1.000000000016772</v>
+        <v>1</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
@@ -1277,7 +1277,7 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>-56.56626506024097</v>
+        <v>-47.08053691275168</v>
       </c>
       <c r="B37" t="n">
         <v>573.15</v>
@@ -1286,13 +1286,13 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>1.000000000016049</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -1300,7 +1300,7 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>-56.32530120481928</v>
+        <v>-46.71140939597315</v>
       </c>
       <c r="B38" t="n">
         <v>573.15</v>
@@ -1309,13 +1309,13 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>1.000000000015326</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -1323,7 +1323,7 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>-56.08433734939759</v>
+        <v>-46.34228187919463</v>
       </c>
       <c r="B39" t="n">
         <v>573.15</v>
@@ -1332,13 +1332,13 @@
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E39" t="n">
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>1.000000000014603</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
@@ -1346,7 +1346,7 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>-55.8433734939759</v>
+        <v>-45.97315436241611</v>
       </c>
       <c r="B40" t="n">
         <v>573.15</v>
@@ -1355,13 +1355,13 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>1.00000000001388</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -1369,7 +1369,7 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>-55.60240963855422</v>
+        <v>-45.60402684563758</v>
       </c>
       <c r="B41" t="n">
         <v>573.15</v>
@@ -1378,13 +1378,13 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>1.000000000013157</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -1392,7 +1392,7 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>-55.36144578313253</v>
+        <v>-45.23489932885906</v>
       </c>
       <c r="B42" t="n">
         <v>573.15</v>
@@ -1401,13 +1401,13 @@
         <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E42" t="n">
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>1.000000000012435</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
         <v>0</v>
@@ -1415,7 +1415,7 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>-55.12048192771084</v>
+        <v>-44.86577181208054</v>
       </c>
       <c r="B43" t="n">
         <v>573.15</v>
@@ -1424,13 +1424,13 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>1.000000000011712</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -1438,7 +1438,7 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>-54.87951807228916</v>
+        <v>-44.49664429530201</v>
       </c>
       <c r="B44" t="n">
         <v>573.15</v>
@@ -1447,13 +1447,13 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>1.000000000010989</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -1461,7 +1461,7 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>-54.63855421686747</v>
+        <v>-44.12751677852349</v>
       </c>
       <c r="B45" t="n">
         <v>573.15</v>
@@ -1470,13 +1470,13 @@
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E45" t="n">
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>1.000000000010266</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
         <v>0</v>
@@ -1484,7 +1484,7 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>-54.39759036144578</v>
+        <v>-43.75838926174497</v>
       </c>
       <c r="B46" t="n">
         <v>573.15</v>
@@ -1493,13 +1493,13 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>1.000000000009543</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -1507,7 +1507,7 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>-54.1566265060241</v>
+        <v>-43.38926174496645</v>
       </c>
       <c r="B47" t="n">
         <v>573.15</v>
@@ -1516,13 +1516,13 @@
         <v>0</v>
       </c>
       <c r="D47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E47" t="n">
         <v>0</v>
       </c>
       <c r="F47" t="n">
-        <v>1.00000000000882</v>
+        <v>0</v>
       </c>
       <c r="G47" t="n">
         <v>0</v>
@@ -1530,7 +1530,7 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>-53.91566265060241</v>
+        <v>-43.02013422818791</v>
       </c>
       <c r="B48" t="n">
         <v>573.15</v>
@@ -1539,13 +1539,13 @@
         <v>0</v>
       </c>
       <c r="D48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E48" t="n">
         <v>0</v>
       </c>
       <c r="F48" t="n">
-        <v>1.000000000008097</v>
+        <v>0</v>
       </c>
       <c r="G48" t="n">
         <v>0</v>
@@ -1553,7 +1553,7 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>-53.67469879518072</v>
+        <v>-42.65100671140939</v>
       </c>
       <c r="B49" t="n">
         <v>573.15</v>
@@ -1562,13 +1562,13 @@
         <v>0</v>
       </c>
       <c r="D49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E49" t="n">
         <v>0</v>
       </c>
       <c r="F49" t="n">
-        <v>1.000000000007374</v>
+        <v>0</v>
       </c>
       <c r="G49" t="n">
         <v>0</v>
@@ -1576,7 +1576,7 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>-53.43373493975903</v>
+        <v>-42.28187919463087</v>
       </c>
       <c r="B50" t="n">
         <v>573.15</v>
@@ -1585,13 +1585,13 @@
         <v>0</v>
       </c>
       <c r="D50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E50" t="n">
         <v>0</v>
       </c>
       <c r="F50" t="n">
-        <v>1.000000000006652</v>
+        <v>0</v>
       </c>
       <c r="G50" t="n">
         <v>0</v>
@@ -1599,7 +1599,7 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>-53.19277108433735</v>
+        <v>-41.91275167785235</v>
       </c>
       <c r="B51" t="n">
         <v>573.15</v>
@@ -1608,13 +1608,13 @@
         <v>0</v>
       </c>
       <c r="D51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E51" t="n">
         <v>0</v>
       </c>
       <c r="F51" t="n">
-        <v>1.000000000005929</v>
+        <v>0</v>
       </c>
       <c r="G51" t="n">
         <v>0</v>
@@ -1622,7 +1622,7 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>-52.95180722891566</v>
+        <v>-41.54362416107382</v>
       </c>
       <c r="B52" t="n">
         <v>573.15</v>
@@ -1631,13 +1631,13 @@
         <v>0</v>
       </c>
       <c r="D52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E52" t="n">
         <v>0</v>
       </c>
       <c r="F52" t="n">
-        <v>1.000000000005206</v>
+        <v>0</v>
       </c>
       <c r="G52" t="n">
         <v>0</v>
@@ -1645,7 +1645,7 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>-52.71084337349397</v>
+        <v>-41.1744966442953</v>
       </c>
       <c r="B53" t="n">
         <v>573.15</v>
@@ -1654,13 +1654,13 @@
         <v>0</v>
       </c>
       <c r="D53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E53" t="n">
         <v>0</v>
       </c>
       <c r="F53" t="n">
-        <v>1.000000000004483</v>
+        <v>0</v>
       </c>
       <c r="G53" t="n">
         <v>0</v>
@@ -1668,7 +1668,7 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>-52.46987951807229</v>
+        <v>-40.80536912751678</v>
       </c>
       <c r="B54" t="n">
         <v>573.15</v>
@@ -1677,13 +1677,13 @@
         <v>0</v>
       </c>
       <c r="D54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E54" t="n">
         <v>0</v>
       </c>
       <c r="F54" t="n">
-        <v>1.00000000000376</v>
+        <v>0</v>
       </c>
       <c r="G54" t="n">
         <v>0</v>
@@ -1691,7 +1691,7 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>-52.2289156626506</v>
+        <v>-40.43624161073825</v>
       </c>
       <c r="B55" t="n">
         <v>573.15</v>
@@ -1700,13 +1700,13 @@
         <v>0</v>
       </c>
       <c r="D55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E55" t="n">
         <v>0</v>
       </c>
       <c r="F55" t="n">
-        <v>1.000000000003037</v>
+        <v>0</v>
       </c>
       <c r="G55" t="n">
         <v>0</v>
@@ -1714,7 +1714,7 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>-51.98795180722892</v>
+        <v>-40.06711409395973</v>
       </c>
       <c r="B56" t="n">
         <v>573.15</v>
@@ -1723,13 +1723,13 @@
         <v>0</v>
       </c>
       <c r="D56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E56" t="n">
         <v>0</v>
       </c>
       <c r="F56" t="n">
-        <v>1.000000000002314</v>
+        <v>0</v>
       </c>
       <c r="G56" t="n">
         <v>0</v>
@@ -1737,7 +1737,7 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>-51.74698795180723</v>
+        <v>-39.69798657718121</v>
       </c>
       <c r="B57" t="n">
         <v>573.15</v>
@@ -1746,13 +1746,13 @@
         <v>0</v>
       </c>
       <c r="D57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E57" t="n">
         <v>0</v>
       </c>
       <c r="F57" t="n">
-        <v>1.000000000001591</v>
+        <v>0</v>
       </c>
       <c r="G57" t="n">
         <v>0</v>
@@ -1760,7 +1760,7 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>-51.50602409638554</v>
+        <v>-39.32885906040269</v>
       </c>
       <c r="B58" t="n">
         <v>573.15</v>
@@ -1769,13 +1769,13 @@
         <v>0</v>
       </c>
       <c r="D58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E58" t="n">
         <v>0</v>
       </c>
       <c r="F58" t="n">
-        <v>1.000000000000868</v>
+        <v>0</v>
       </c>
       <c r="G58" t="n">
         <v>0</v>
@@ -1783,7 +1783,7 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>-51.26506024096386</v>
+        <v>-38.95973154362416</v>
       </c>
       <c r="B59" t="n">
         <v>573.15</v>
@@ -1792,13 +1792,13 @@
         <v>0</v>
       </c>
       <c r="D59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E59" t="n">
         <v>0</v>
       </c>
       <c r="F59" t="n">
-        <v>1.000000000000146</v>
+        <v>0</v>
       </c>
       <c r="G59" t="n">
         <v>0</v>
@@ -1806,7 +1806,7 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>-51.02409638554217</v>
+        <v>-38.59060402684564</v>
       </c>
       <c r="B60" t="n">
         <v>573.15</v>
@@ -1815,13 +1815,13 @@
         <v>0</v>
       </c>
       <c r="D60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E60" t="n">
         <v>0</v>
       </c>
       <c r="F60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G60" t="n">
         <v>0</v>
@@ -1829,7 +1829,7 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>-50.78313253012048</v>
+        <v>-38.22147651006711</v>
       </c>
       <c r="B61" t="n">
         <v>573.15</v>
@@ -1838,13 +1838,13 @@
         <v>0</v>
       </c>
       <c r="D61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E61" t="n">
         <v>0</v>
       </c>
       <c r="F61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G61" t="n">
         <v>0</v>
@@ -1852,7 +1852,7 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>-50.54216867469879</v>
+        <v>-37.85234899328859</v>
       </c>
       <c r="B62" t="n">
         <v>573.15</v>
@@ -1861,13 +1861,13 @@
         <v>0</v>
       </c>
       <c r="D62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E62" t="n">
         <v>0</v>
       </c>
       <c r="F62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G62" t="n">
         <v>0</v>
@@ -1875,7 +1875,7 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>-50.30120481927711</v>
+        <v>-37.48322147651007</v>
       </c>
       <c r="B63" t="n">
         <v>573.15</v>
@@ -1884,13 +1884,13 @@
         <v>0</v>
       </c>
       <c r="D63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E63" t="n">
         <v>0</v>
       </c>
       <c r="F63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G63" t="n">
         <v>0</v>
@@ -1898,7 +1898,7 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>-50.06024096385542</v>
+        <v>-37.11409395973154</v>
       </c>
       <c r="B64" t="n">
         <v>573.15</v>
@@ -1907,13 +1907,13 @@
         <v>0</v>
       </c>
       <c r="D64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E64" t="n">
         <v>0</v>
       </c>
       <c r="F64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G64" t="n">
         <v>0</v>
@@ -1921,7 +1921,7 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>-49.81927710843374</v>
+        <v>-36.74496644295301</v>
       </c>
       <c r="B65" t="n">
         <v>573.15</v>
@@ -1930,13 +1930,13 @@
         <v>0</v>
       </c>
       <c r="D65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E65" t="n">
         <v>0</v>
       </c>
       <c r="F65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G65" t="n">
         <v>0</v>
@@ -1944,7 +1944,7 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>-49.57831325301205</v>
+        <v>-36.3758389261745</v>
       </c>
       <c r="B66" t="n">
         <v>573.15</v>
@@ -1953,13 +1953,13 @@
         <v>0</v>
       </c>
       <c r="D66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E66" t="n">
         <v>0</v>
       </c>
       <c r="F66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G66" t="n">
         <v>0</v>
@@ -1967,7 +1967,7 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>-49.33734939759036</v>
+        <v>-36.00671140939598</v>
       </c>
       <c r="B67" t="n">
         <v>573.15</v>
@@ -1976,13 +1976,13 @@
         <v>0</v>
       </c>
       <c r="D67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E67" t="n">
         <v>0</v>
       </c>
       <c r="F67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G67" t="n">
         <v>0</v>
@@ -1990,7 +1990,7 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>-49.09638554216868</v>
+        <v>-35.63758389261745</v>
       </c>
       <c r="B68" t="n">
         <v>573.15</v>
@@ -1999,13 +1999,13 @@
         <v>0</v>
       </c>
       <c r="D68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E68" t="n">
         <v>0</v>
       </c>
       <c r="F68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G68" t="n">
         <v>0</v>
@@ -2013,7 +2013,7 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>-48.85542168674699</v>
+        <v>-35.26845637583892</v>
       </c>
       <c r="B69" t="n">
         <v>573.15</v>
@@ -2022,13 +2022,13 @@
         <v>0</v>
       </c>
       <c r="D69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E69" t="n">
         <v>0</v>
       </c>
       <c r="F69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G69" t="n">
         <v>0</v>
@@ -2036,7 +2036,7 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>-48.6144578313253</v>
+        <v>-34.8993288590604</v>
       </c>
       <c r="B70" t="n">
         <v>573.15</v>
@@ -2045,13 +2045,13 @@
         <v>0</v>
       </c>
       <c r="D70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E70" t="n">
         <v>0</v>
       </c>
       <c r="F70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G70" t="n">
         <v>0</v>
@@ -2059,7 +2059,7 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>-48.37349397590361</v>
+        <v>-34.53020134228188</v>
       </c>
       <c r="B71" t="n">
         <v>573.15</v>
@@ -2068,13 +2068,13 @@
         <v>0</v>
       </c>
       <c r="D71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E71" t="n">
         <v>0</v>
       </c>
       <c r="F71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G71" t="n">
         <v>0</v>
@@ -2082,7 +2082,7 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>-48.13253012048193</v>
+        <v>-34.16107382550335</v>
       </c>
       <c r="B72" t="n">
         <v>573.15</v>
@@ -2091,13 +2091,13 @@
         <v>0</v>
       </c>
       <c r="D72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E72" t="n">
         <v>0</v>
       </c>
       <c r="F72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G72" t="n">
         <v>0</v>
@@ -2105,7 +2105,7 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>-47.89156626506024</v>
+        <v>-33.79194630872483</v>
       </c>
       <c r="B73" t="n">
         <v>573.15</v>
@@ -2114,13 +2114,13 @@
         <v>0</v>
       </c>
       <c r="D73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E73" t="n">
         <v>0</v>
       </c>
       <c r="F73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G73" t="n">
         <v>0</v>
@@ -2128,7 +2128,7 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>-47.65060240963855</v>
+        <v>-33.42281879194631</v>
       </c>
       <c r="B74" t="n">
         <v>573.15</v>
@@ -2137,13 +2137,13 @@
         <v>0</v>
       </c>
       <c r="D74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E74" t="n">
         <v>0</v>
       </c>
       <c r="F74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G74" t="n">
         <v>0</v>
@@ -2151,7 +2151,7 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>-47.40963855421687</v>
+        <v>-33.05369127516778</v>
       </c>
       <c r="B75" t="n">
         <v>573.15</v>
@@ -2160,13 +2160,13 @@
         <v>0</v>
       </c>
       <c r="D75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E75" t="n">
         <v>0</v>
       </c>
       <c r="F75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G75" t="n">
         <v>0</v>
@@ -2174,7 +2174,7 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>-47.16867469879518</v>
+        <v>-32.68456375838926</v>
       </c>
       <c r="B76" t="n">
         <v>573.15</v>
@@ -2197,7 +2197,7 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>-46.92771084337349</v>
+        <v>-32.31543624161074</v>
       </c>
       <c r="B77" t="n">
         <v>573.15</v>
@@ -2220,16 +2220,16 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>-46.68674698795181</v>
+        <v>-31.94630872483221</v>
       </c>
       <c r="B78" t="n">
         <v>573.15</v>
       </c>
       <c r="C78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E78" t="n">
         <v>0</v>
@@ -2243,16 +2243,16 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>-46.44578313253012</v>
+        <v>-31.57718120805369</v>
       </c>
       <c r="B79" t="n">
         <v>573.15</v>
       </c>
       <c r="C79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E79" t="n">
         <v>0</v>
@@ -2266,16 +2266,16 @@
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>-46.20481927710843</v>
+        <v>-31.20805369127516</v>
       </c>
       <c r="B80" t="n">
         <v>573.15</v>
       </c>
       <c r="C80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E80" t="n">
         <v>0</v>
@@ -2289,16 +2289,16 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>-45.96385542168674</v>
+        <v>-30.83892617449664</v>
       </c>
       <c r="B81" t="n">
         <v>573.15</v>
       </c>
       <c r="C81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E81" t="n">
         <v>0</v>
@@ -2312,16 +2312,16 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>-45.72289156626506</v>
+        <v>-30.46979865771812</v>
       </c>
       <c r="B82" t="n">
         <v>573.15</v>
       </c>
       <c r="C82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E82" t="n">
         <v>0</v>
@@ -2335,16 +2335,16 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>-45.48192771084337</v>
+        <v>-30.1006711409396</v>
       </c>
       <c r="B83" t="n">
         <v>573.15</v>
       </c>
       <c r="C83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E83" t="n">
         <v>0</v>
@@ -2358,16 +2358,16 @@
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>-45.24096385542168</v>
+        <v>-29.73154362416107</v>
       </c>
       <c r="B84" t="n">
         <v>573.15</v>
       </c>
       <c r="C84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E84" t="n">
         <v>0</v>
@@ -2381,16 +2381,16 @@
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>-45</v>
+        <v>-29.36241610738255</v>
       </c>
       <c r="B85" t="n">
         <v>573.15</v>
       </c>
       <c r="C85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E85" t="n">
         <v>0</v>
@@ -2404,16 +2404,16 @@
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>-44.75903614457832</v>
+        <v>-28.99328859060402</v>
       </c>
       <c r="B86" t="n">
         <v>573.15</v>
       </c>
       <c r="C86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E86" t="n">
         <v>0</v>
@@ -2427,16 +2427,16 @@
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>-44.51807228915663</v>
+        <v>-28.6241610738255</v>
       </c>
       <c r="B87" t="n">
         <v>573.15</v>
       </c>
       <c r="C87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E87" t="n">
         <v>0</v>
@@ -2450,16 +2450,16 @@
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>-44.27710843373494</v>
+        <v>-28.25503355704698</v>
       </c>
       <c r="B88" t="n">
         <v>573.15</v>
       </c>
       <c r="C88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E88" t="n">
         <v>0</v>
@@ -2473,16 +2473,16 @@
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>-44.03614457831326</v>
+        <v>-27.88590604026845</v>
       </c>
       <c r="B89" t="n">
         <v>573.15</v>
       </c>
       <c r="C89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E89" t="n">
         <v>0</v>
@@ -2496,16 +2496,16 @@
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>-43.79518072289157</v>
+        <v>-27.51677852348993</v>
       </c>
       <c r="B90" t="n">
         <v>573.15</v>
       </c>
       <c r="C90" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E90" t="n">
         <v>0</v>
@@ -2519,16 +2519,16 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>-43.55421686746988</v>
+        <v>-27.14765100671141</v>
       </c>
       <c r="B91" t="n">
         <v>573.15</v>
       </c>
       <c r="C91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E91" t="n">
         <v>0</v>
@@ -2542,16 +2542,16 @@
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>-43.31325301204819</v>
+        <v>-26.77852348993289</v>
       </c>
       <c r="B92" t="n">
         <v>573.15</v>
       </c>
       <c r="C92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E92" t="n">
         <v>0</v>
@@ -2565,16 +2565,16 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>-43.07228915662651</v>
+        <v>-26.40939597315436</v>
       </c>
       <c r="B93" t="n">
         <v>573.15</v>
       </c>
       <c r="C93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D93" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E93" t="n">
         <v>0</v>
@@ -2588,16 +2588,16 @@
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>-42.83132530120482</v>
+        <v>-26.04026845637583</v>
       </c>
       <c r="B94" t="n">
         <v>573.15</v>
       </c>
       <c r="C94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E94" t="n">
         <v>0</v>
@@ -2611,16 +2611,16 @@
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>-42.59036144578313</v>
+        <v>-25.67114093959731</v>
       </c>
       <c r="B95" t="n">
         <v>573.15</v>
       </c>
       <c r="C95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E95" t="n">
         <v>0</v>
@@ -2634,16 +2634,16 @@
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>-42.34939759036145</v>
+        <v>-25.30201342281879</v>
       </c>
       <c r="B96" t="n">
         <v>573.15</v>
       </c>
       <c r="C96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E96" t="n">
         <v>0</v>
@@ -2657,16 +2657,16 @@
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>-42.10843373493976</v>
+        <v>-24.93288590604027</v>
       </c>
       <c r="B97" t="n">
         <v>573.15</v>
       </c>
       <c r="C97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E97" t="n">
         <v>0</v>
@@ -2680,16 +2680,16 @@
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>-41.86746987951807</v>
+        <v>-24.56375838926174</v>
       </c>
       <c r="B98" t="n">
         <v>573.15</v>
       </c>
       <c r="C98" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E98" t="n">
         <v>0</v>
@@ -2703,16 +2703,16 @@
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>-41.62650602409639</v>
+        <v>-24.19463087248322</v>
       </c>
       <c r="B99" t="n">
         <v>573.15</v>
       </c>
       <c r="C99" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E99" t="n">
         <v>0</v>
@@ -2726,16 +2726,16 @@
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>-41.3855421686747</v>
+        <v>-23.8255033557047</v>
       </c>
       <c r="B100" t="n">
         <v>573.15</v>
       </c>
       <c r="C100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E100" t="n">
         <v>0</v>
@@ -2749,16 +2749,16 @@
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>-41.14457831325301</v>
+        <v>-23.45637583892617</v>
       </c>
       <c r="B101" t="n">
         <v>573.15</v>
       </c>
       <c r="C101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E101" t="n">
         <v>0</v>
@@ -2772,16 +2772,16 @@
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>-40.90361445783132</v>
+        <v>-23.08724832214765</v>
       </c>
       <c r="B102" t="n">
         <v>573.15</v>
       </c>
       <c r="C102" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E102" t="n">
         <v>0</v>
@@ -2795,16 +2795,16 @@
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>-40.66265060240964</v>
+        <v>-22.71812080536913</v>
       </c>
       <c r="B103" t="n">
         <v>573.15</v>
       </c>
       <c r="C103" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D103" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E103" t="n">
         <v>0</v>
@@ -2818,16 +2818,16 @@
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>-40.42168674698795</v>
+        <v>-22.3489932885906</v>
       </c>
       <c r="B104" t="n">
         <v>573.15</v>
       </c>
       <c r="C104" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D104" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E104" t="n">
         <v>0</v>
@@ -2841,16 +2841,16 @@
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>-40.18072289156626</v>
+        <v>-21.97986577181208</v>
       </c>
       <c r="B105" t="n">
         <v>573.15</v>
       </c>
       <c r="C105" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D105" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E105" t="n">
         <v>0</v>
@@ -2864,16 +2864,16 @@
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>-39.93975903614458</v>
+        <v>-21.61073825503355</v>
       </c>
       <c r="B106" t="n">
         <v>573.15</v>
       </c>
       <c r="C106" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D106" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E106" t="n">
         <v>0</v>
@@ -2887,16 +2887,16 @@
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>-39.6987951807229</v>
+        <v>-21.24161073825503</v>
       </c>
       <c r="B107" t="n">
         <v>573.15</v>
       </c>
       <c r="C107" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D107" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E107" t="n">
         <v>0</v>
@@ -2910,16 +2910,16 @@
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>-39.4578313253012</v>
+        <v>-20.87248322147651</v>
       </c>
       <c r="B108" t="n">
         <v>573.15</v>
       </c>
       <c r="C108" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D108" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E108" t="n">
         <v>0</v>
@@ -2933,16 +2933,16 @@
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>-39.21686746987952</v>
+        <v>-20.50335570469798</v>
       </c>
       <c r="B109" t="n">
         <v>573.15</v>
       </c>
       <c r="C109" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D109" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E109" t="n">
         <v>0</v>
@@ -2956,16 +2956,16 @@
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>-38.97590361445783</v>
+        <v>-20.13422818791946</v>
       </c>
       <c r="B110" t="n">
         <v>573.15</v>
       </c>
       <c r="C110" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D110" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E110" t="n">
         <v>0</v>
@@ -2979,16 +2979,16 @@
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>-38.73493975903614</v>
+        <v>-19.76510067114094</v>
       </c>
       <c r="B111" t="n">
         <v>573.15</v>
       </c>
       <c r="C111" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D111" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E111" t="n">
         <v>0</v>
@@ -3002,16 +3002,16 @@
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>-38.49397590361446</v>
+        <v>-19.39597315436242</v>
       </c>
       <c r="B112" t="n">
         <v>573.15</v>
       </c>
       <c r="C112" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D112" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E112" t="n">
         <v>0</v>
@@ -3025,16 +3025,16 @@
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>-38.25301204819277</v>
+        <v>-19.02684563758389</v>
       </c>
       <c r="B113" t="n">
         <v>573.15</v>
       </c>
       <c r="C113" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D113" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E113" t="n">
         <v>0</v>
@@ -3048,16 +3048,16 @@
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>-38.01204819277108</v>
+        <v>-18.65771812080537</v>
       </c>
       <c r="B114" t="n">
         <v>573.15</v>
       </c>
       <c r="C114" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D114" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E114" t="n">
         <v>0</v>
@@ -3071,16 +3071,16 @@
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>-37.77108433734939</v>
+        <v>-18.28859060402684</v>
       </c>
       <c r="B115" t="n">
         <v>573.15</v>
       </c>
       <c r="C115" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D115" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E115" t="n">
         <v>0</v>
@@ -3094,16 +3094,16 @@
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>-37.53012048192771</v>
+        <v>-17.91946308724832</v>
       </c>
       <c r="B116" t="n">
         <v>573.15</v>
       </c>
       <c r="C116" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D116" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E116" t="n">
         <v>0</v>
@@ -3117,16 +3117,16 @@
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>-37.28915662650603</v>
+        <v>-17.5503355704698</v>
       </c>
       <c r="B117" t="n">
         <v>573.15</v>
       </c>
       <c r="C117" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D117" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E117" t="n">
         <v>0</v>
@@ -3140,16 +3140,16 @@
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>-37.04819277108434</v>
+        <v>-17.18120805369127</v>
       </c>
       <c r="B118" t="n">
         <v>573.15</v>
       </c>
       <c r="C118" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D118" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E118" t="n">
         <v>0</v>
@@ -3163,16 +3163,16 @@
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>-36.80722891566265</v>
+        <v>-16.81208053691275</v>
       </c>
       <c r="B119" t="n">
         <v>573.15</v>
       </c>
       <c r="C119" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D119" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E119" t="n">
         <v>0</v>
@@ -3186,16 +3186,16 @@
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>-36.56626506024097</v>
+        <v>-16.44295302013423</v>
       </c>
       <c r="B120" t="n">
         <v>573.15</v>
       </c>
       <c r="C120" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D120" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E120" t="n">
         <v>0</v>
@@ -3209,16 +3209,16 @@
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>-36.32530120481928</v>
+        <v>-16.0738255033557</v>
       </c>
       <c r="B121" t="n">
         <v>573.15</v>
       </c>
       <c r="C121" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D121" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E121" t="n">
         <v>0</v>
@@ -3232,16 +3232,16 @@
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>-36.08433734939759</v>
+        <v>-15.70469798657718</v>
       </c>
       <c r="B122" t="n">
         <v>573.15</v>
       </c>
       <c r="C122" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D122" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E122" t="n">
         <v>0</v>
@@ -3255,16 +3255,16 @@
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>-35.8433734939759</v>
+        <v>-15.33557046979865</v>
       </c>
       <c r="B123" t="n">
         <v>573.15</v>
       </c>
       <c r="C123" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D123" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E123" t="n">
         <v>0</v>
@@ -3278,16 +3278,16 @@
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>-35.60240963855422</v>
+        <v>-14.96644295302013</v>
       </c>
       <c r="B124" t="n">
         <v>573.15</v>
       </c>
       <c r="C124" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D124" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E124" t="n">
         <v>0</v>
@@ -3301,16 +3301,16 @@
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>-35.36144578313253</v>
+        <v>-14.59731543624161</v>
       </c>
       <c r="B125" t="n">
         <v>573.15</v>
       </c>
       <c r="C125" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D125" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E125" t="n">
         <v>0</v>
@@ -3324,16 +3324,16 @@
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>-35.12048192771084</v>
+        <v>-14.22818791946308</v>
       </c>
       <c r="B126" t="n">
         <v>573.15</v>
       </c>
       <c r="C126" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D126" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E126" t="n">
         <v>0</v>
@@ -3347,16 +3347,16 @@
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>-34.87951807228916</v>
+        <v>-13.85906040268456</v>
       </c>
       <c r="B127" t="n">
         <v>573.15</v>
       </c>
       <c r="C127" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D127" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E127" t="n">
         <v>0</v>
@@ -3370,16 +3370,16 @@
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>-34.63855421686747</v>
+        <v>-13.48993288590604</v>
       </c>
       <c r="B128" t="n">
         <v>573.15</v>
       </c>
       <c r="C128" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D128" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E128" t="n">
         <v>0</v>
@@ -3393,16 +3393,16 @@
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>-34.39759036144578</v>
+        <v>-13.12080536912752</v>
       </c>
       <c r="B129" t="n">
         <v>573.15</v>
       </c>
       <c r="C129" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D129" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E129" t="n">
         <v>0</v>
@@ -3416,16 +3416,16 @@
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>-34.1566265060241</v>
+        <v>-12.75167785234899</v>
       </c>
       <c r="B130" t="n">
         <v>573.15</v>
       </c>
       <c r="C130" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D130" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E130" t="n">
         <v>0</v>
@@ -3439,16 +3439,16 @@
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>-33.91566265060241</v>
+        <v>-12.38255033557046</v>
       </c>
       <c r="B131" t="n">
         <v>573.15</v>
       </c>
       <c r="C131" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D131" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E131" t="n">
         <v>0</v>
@@ -3462,16 +3462,16 @@
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>-33.67469879518072</v>
+        <v>-12.01342281879194</v>
       </c>
       <c r="B132" t="n">
         <v>573.15</v>
       </c>
       <c r="C132" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D132" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E132" t="n">
         <v>0</v>
@@ -3485,16 +3485,16 @@
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>-33.43373493975903</v>
+        <v>-11.64429530201342</v>
       </c>
       <c r="B133" t="n">
         <v>573.15</v>
       </c>
       <c r="C133" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D133" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E133" t="n">
         <v>0</v>
@@ -3508,16 +3508,16 @@
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>-33.19277108433735</v>
+        <v>-11.2751677852349</v>
       </c>
       <c r="B134" t="n">
         <v>573.15</v>
       </c>
       <c r="C134" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D134" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E134" t="n">
         <v>0</v>
@@ -3531,16 +3531,16 @@
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>-32.95180722891566</v>
+        <v>-10.90604026845637</v>
       </c>
       <c r="B135" t="n">
         <v>573.15</v>
       </c>
       <c r="C135" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D135" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E135" t="n">
         <v>0</v>
@@ -3554,16 +3554,16 @@
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>-32.71084337349398</v>
+        <v>-10.53691275167785</v>
       </c>
       <c r="B136" t="n">
         <v>573.15</v>
       </c>
       <c r="C136" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D136" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E136" t="n">
         <v>0</v>
@@ -3577,16 +3577,16 @@
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>-32.46987951807229</v>
+        <v>-10.16778523489933</v>
       </c>
       <c r="B137" t="n">
         <v>573.15</v>
       </c>
       <c r="C137" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D137" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E137" t="n">
         <v>0</v>
@@ -3600,16 +3600,16 @@
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>-32.2289156626506</v>
+        <v>-9.798657718120801</v>
       </c>
       <c r="B138" t="n">
         <v>573.15</v>
       </c>
       <c r="C138" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D138" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E138" t="n">
         <v>0</v>
@@ -3623,7 +3623,7 @@
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>-31.98795180722892</v>
+        <v>-9.429530201342281</v>
       </c>
       <c r="B139" t="n">
         <v>573.15</v>
@@ -3646,7 +3646,7 @@
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>-31.74698795180723</v>
+        <v>-9.060402684563755</v>
       </c>
       <c r="B140" t="n">
         <v>573.15</v>
@@ -3669,7 +3669,7 @@
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>-31.50602409638554</v>
+        <v>-8.691275167785228</v>
       </c>
       <c r="B141" t="n">
         <v>573.15</v>
@@ -3692,7 +3692,7 @@
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>-31.26506024096386</v>
+        <v>-8.322147651006709</v>
       </c>
       <c r="B142" t="n">
         <v>573.15</v>
@@ -3715,7 +3715,7 @@
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>-31.02409638554217</v>
+        <v>-7.953020134228183</v>
       </c>
       <c r="B143" t="n">
         <v>573.15</v>
@@ -3738,7 +3738,7 @@
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>-30.78313253012048</v>
+        <v>-7.583892617449663</v>
       </c>
       <c r="B144" t="n">
         <v>573.15</v>
@@ -3761,7 +3761,7 @@
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>-30.54216867469879</v>
+        <v>-7.214765100671137</v>
       </c>
       <c r="B145" t="n">
         <v>573.15</v>
@@ -3784,7 +3784,7 @@
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>-30.30120481927711</v>
+        <v>-6.845637583892611</v>
       </c>
       <c r="B146" t="n">
         <v>573.15</v>
@@ -3807,7 +3807,7 @@
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>-30.06024096385542</v>
+        <v>-6.476510067114091</v>
       </c>
       <c r="B147" t="n">
         <v>573.15</v>
@@ -3830,7 +3830,7 @@
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>-29.81927710843374</v>
+        <v>-6.107382550335565</v>
       </c>
       <c r="B148" t="n">
         <v>573.15</v>
@@ -3853,7 +3853,7 @@
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>-29.57831325301205</v>
+        <v>-5.738255033557046</v>
       </c>
       <c r="B149" t="n">
         <v>573.15</v>
@@ -3876,7 +3876,7 @@
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>-29.33734939759036</v>
+        <v>-5.369127516778519</v>
       </c>
       <c r="B150" t="n">
         <v>573.15</v>
@@ -3899,7 +3899,7 @@
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>-29.09638554216868</v>
+        <v>-5</v>
       </c>
       <c r="B151" t="n">
         <v>573.15</v>
@@ -3917,2306 +3917,6 @@
         <v>0</v>
       </c>
       <c r="G151" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" t="n">
-        <v>-28.85542168674699</v>
-      </c>
-      <c r="B152" t="n">
-        <v>573.15</v>
-      </c>
-      <c r="C152" t="n">
-        <v>1</v>
-      </c>
-      <c r="D152" t="n">
-        <v>0</v>
-      </c>
-      <c r="E152" t="n">
-        <v>0</v>
-      </c>
-      <c r="F152" t="n">
-        <v>0</v>
-      </c>
-      <c r="G152" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" t="n">
-        <v>-28.6144578313253</v>
-      </c>
-      <c r="B153" t="n">
-        <v>573.15</v>
-      </c>
-      <c r="C153" t="n">
-        <v>1</v>
-      </c>
-      <c r="D153" t="n">
-        <v>0</v>
-      </c>
-      <c r="E153" t="n">
-        <v>0</v>
-      </c>
-      <c r="F153" t="n">
-        <v>0</v>
-      </c>
-      <c r="G153" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" t="n">
-        <v>-28.37349397590361</v>
-      </c>
-      <c r="B154" t="n">
-        <v>573.15</v>
-      </c>
-      <c r="C154" t="n">
-        <v>1</v>
-      </c>
-      <c r="D154" t="n">
-        <v>0</v>
-      </c>
-      <c r="E154" t="n">
-        <v>0</v>
-      </c>
-      <c r="F154" t="n">
-        <v>0</v>
-      </c>
-      <c r="G154" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" t="n">
-        <v>-28.13253012048193</v>
-      </c>
-      <c r="B155" t="n">
-        <v>573.15</v>
-      </c>
-      <c r="C155" t="n">
-        <v>1</v>
-      </c>
-      <c r="D155" t="n">
-        <v>0</v>
-      </c>
-      <c r="E155" t="n">
-        <v>0</v>
-      </c>
-      <c r="F155" t="n">
-        <v>0</v>
-      </c>
-      <c r="G155" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" t="n">
-        <v>-27.89156626506024</v>
-      </c>
-      <c r="B156" t="n">
-        <v>573.15</v>
-      </c>
-      <c r="C156" t="n">
-        <v>1</v>
-      </c>
-      <c r="D156" t="n">
-        <v>0</v>
-      </c>
-      <c r="E156" t="n">
-        <v>0</v>
-      </c>
-      <c r="F156" t="n">
-        <v>0</v>
-      </c>
-      <c r="G156" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" t="n">
-        <v>-27.65060240963855</v>
-      </c>
-      <c r="B157" t="n">
-        <v>573.15</v>
-      </c>
-      <c r="C157" t="n">
-        <v>1</v>
-      </c>
-      <c r="D157" t="n">
-        <v>0</v>
-      </c>
-      <c r="E157" t="n">
-        <v>0</v>
-      </c>
-      <c r="F157" t="n">
-        <v>0</v>
-      </c>
-      <c r="G157" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" t="n">
-        <v>-27.40963855421687</v>
-      </c>
-      <c r="B158" t="n">
-        <v>573.15</v>
-      </c>
-      <c r="C158" t="n">
-        <v>1</v>
-      </c>
-      <c r="D158" t="n">
-        <v>0</v>
-      </c>
-      <c r="E158" t="n">
-        <v>0</v>
-      </c>
-      <c r="F158" t="n">
-        <v>0</v>
-      </c>
-      <c r="G158" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159" t="n">
-        <v>-27.16867469879518</v>
-      </c>
-      <c r="B159" t="n">
-        <v>573.15</v>
-      </c>
-      <c r="C159" t="n">
-        <v>1</v>
-      </c>
-      <c r="D159" t="n">
-        <v>0</v>
-      </c>
-      <c r="E159" t="n">
-        <v>0</v>
-      </c>
-      <c r="F159" t="n">
-        <v>0</v>
-      </c>
-      <c r="G159" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160" t="n">
-        <v>-26.9277108433735</v>
-      </c>
-      <c r="B160" t="n">
-        <v>573.15</v>
-      </c>
-      <c r="C160" t="n">
-        <v>1</v>
-      </c>
-      <c r="D160" t="n">
-        <v>0</v>
-      </c>
-      <c r="E160" t="n">
-        <v>0</v>
-      </c>
-      <c r="F160" t="n">
-        <v>0</v>
-      </c>
-      <c r="G160" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="161">
-      <c r="A161" t="n">
-        <v>-26.68674698795181</v>
-      </c>
-      <c r="B161" t="n">
-        <v>573.15</v>
-      </c>
-      <c r="C161" t="n">
-        <v>1</v>
-      </c>
-      <c r="D161" t="n">
-        <v>0</v>
-      </c>
-      <c r="E161" t="n">
-        <v>0</v>
-      </c>
-      <c r="F161" t="n">
-        <v>0</v>
-      </c>
-      <c r="G161" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="162">
-      <c r="A162" t="n">
-        <v>-26.44578313253012</v>
-      </c>
-      <c r="B162" t="n">
-        <v>573.15</v>
-      </c>
-      <c r="C162" t="n">
-        <v>1</v>
-      </c>
-      <c r="D162" t="n">
-        <v>0</v>
-      </c>
-      <c r="E162" t="n">
-        <v>0</v>
-      </c>
-      <c r="F162" t="n">
-        <v>0</v>
-      </c>
-      <c r="G162" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="163">
-      <c r="A163" t="n">
-        <v>-26.20481927710843</v>
-      </c>
-      <c r="B163" t="n">
-        <v>573.15</v>
-      </c>
-      <c r="C163" t="n">
-        <v>1</v>
-      </c>
-      <c r="D163" t="n">
-        <v>0</v>
-      </c>
-      <c r="E163" t="n">
-        <v>0</v>
-      </c>
-      <c r="F163" t="n">
-        <v>0</v>
-      </c>
-      <c r="G163" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="164">
-      <c r="A164" t="n">
-        <v>-25.96385542168674</v>
-      </c>
-      <c r="B164" t="n">
-        <v>573.15</v>
-      </c>
-      <c r="C164" t="n">
-        <v>1</v>
-      </c>
-      <c r="D164" t="n">
-        <v>0</v>
-      </c>
-      <c r="E164" t="n">
-        <v>0</v>
-      </c>
-      <c r="F164" t="n">
-        <v>0</v>
-      </c>
-      <c r="G164" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="165">
-      <c r="A165" t="n">
-        <v>-25.72289156626506</v>
-      </c>
-      <c r="B165" t="n">
-        <v>573.15</v>
-      </c>
-      <c r="C165" t="n">
-        <v>1</v>
-      </c>
-      <c r="D165" t="n">
-        <v>0</v>
-      </c>
-      <c r="E165" t="n">
-        <v>0</v>
-      </c>
-      <c r="F165" t="n">
-        <v>0</v>
-      </c>
-      <c r="G165" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="166">
-      <c r="A166" t="n">
-        <v>-25.48192771084337</v>
-      </c>
-      <c r="B166" t="n">
-        <v>573.15</v>
-      </c>
-      <c r="C166" t="n">
-        <v>1</v>
-      </c>
-      <c r="D166" t="n">
-        <v>0</v>
-      </c>
-      <c r="E166" t="n">
-        <v>0</v>
-      </c>
-      <c r="F166" t="n">
-        <v>0</v>
-      </c>
-      <c r="G166" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="167">
-      <c r="A167" t="n">
-        <v>-25.24096385542169</v>
-      </c>
-      <c r="B167" t="n">
-        <v>573.15</v>
-      </c>
-      <c r="C167" t="n">
-        <v>1</v>
-      </c>
-      <c r="D167" t="n">
-        <v>0</v>
-      </c>
-      <c r="E167" t="n">
-        <v>0</v>
-      </c>
-      <c r="F167" t="n">
-        <v>0</v>
-      </c>
-      <c r="G167" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="168">
-      <c r="A168" t="n">
-        <v>-25</v>
-      </c>
-      <c r="B168" t="n">
-        <v>573.15</v>
-      </c>
-      <c r="C168" t="n">
-        <v>1</v>
-      </c>
-      <c r="D168" t="n">
-        <v>0</v>
-      </c>
-      <c r="E168" t="n">
-        <v>0</v>
-      </c>
-      <c r="F168" t="n">
-        <v>0</v>
-      </c>
-      <c r="G168" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="169">
-      <c r="A169" t="n">
-        <v>-24.75903614457831</v>
-      </c>
-      <c r="B169" t="n">
-        <v>573.15</v>
-      </c>
-      <c r="C169" t="n">
-        <v>1</v>
-      </c>
-      <c r="D169" t="n">
-        <v>0</v>
-      </c>
-      <c r="E169" t="n">
-        <v>0</v>
-      </c>
-      <c r="F169" t="n">
-        <v>0</v>
-      </c>
-      <c r="G169" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="170">
-      <c r="A170" t="n">
-        <v>-24.51807228915663</v>
-      </c>
-      <c r="B170" t="n">
-        <v>573.15</v>
-      </c>
-      <c r="C170" t="n">
-        <v>1</v>
-      </c>
-      <c r="D170" t="n">
-        <v>0</v>
-      </c>
-      <c r="E170" t="n">
-        <v>0</v>
-      </c>
-      <c r="F170" t="n">
-        <v>0</v>
-      </c>
-      <c r="G170" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="171">
-      <c r="A171" t="n">
-        <v>-24.27710843373494</v>
-      </c>
-      <c r="B171" t="n">
-        <v>573.15</v>
-      </c>
-      <c r="C171" t="n">
-        <v>1</v>
-      </c>
-      <c r="D171" t="n">
-        <v>0</v>
-      </c>
-      <c r="E171" t="n">
-        <v>0</v>
-      </c>
-      <c r="F171" t="n">
-        <v>0</v>
-      </c>
-      <c r="G171" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="172">
-      <c r="A172" t="n">
-        <v>-24.03614457831326</v>
-      </c>
-      <c r="B172" t="n">
-        <v>573.15</v>
-      </c>
-      <c r="C172" t="n">
-        <v>1</v>
-      </c>
-      <c r="D172" t="n">
-        <v>0</v>
-      </c>
-      <c r="E172" t="n">
-        <v>0</v>
-      </c>
-      <c r="F172" t="n">
-        <v>0</v>
-      </c>
-      <c r="G172" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="173">
-      <c r="A173" t="n">
-        <v>-23.79518072289157</v>
-      </c>
-      <c r="B173" t="n">
-        <v>573.15</v>
-      </c>
-      <c r="C173" t="n">
-        <v>1</v>
-      </c>
-      <c r="D173" t="n">
-        <v>0</v>
-      </c>
-      <c r="E173" t="n">
-        <v>0</v>
-      </c>
-      <c r="F173" t="n">
-        <v>0</v>
-      </c>
-      <c r="G173" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="174">
-      <c r="A174" t="n">
-        <v>-23.55421686746988</v>
-      </c>
-      <c r="B174" t="n">
-        <v>573.15</v>
-      </c>
-      <c r="C174" t="n">
-        <v>1</v>
-      </c>
-      <c r="D174" t="n">
-        <v>0</v>
-      </c>
-      <c r="E174" t="n">
-        <v>0</v>
-      </c>
-      <c r="F174" t="n">
-        <v>0</v>
-      </c>
-      <c r="G174" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="175">
-      <c r="A175" t="n">
-        <v>-23.31325301204819</v>
-      </c>
-      <c r="B175" t="n">
-        <v>573.15</v>
-      </c>
-      <c r="C175" t="n">
-        <v>1</v>
-      </c>
-      <c r="D175" t="n">
-        <v>0</v>
-      </c>
-      <c r="E175" t="n">
-        <v>0</v>
-      </c>
-      <c r="F175" t="n">
-        <v>0</v>
-      </c>
-      <c r="G175" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="176">
-      <c r="A176" t="n">
-        <v>-23.0722891566265</v>
-      </c>
-      <c r="B176" t="n">
-        <v>573.15</v>
-      </c>
-      <c r="C176" t="n">
-        <v>1</v>
-      </c>
-      <c r="D176" t="n">
-        <v>0</v>
-      </c>
-      <c r="E176" t="n">
-        <v>0</v>
-      </c>
-      <c r="F176" t="n">
-        <v>0</v>
-      </c>
-      <c r="G176" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="177">
-      <c r="A177" t="n">
-        <v>-22.83132530120482</v>
-      </c>
-      <c r="B177" t="n">
-        <v>573.15</v>
-      </c>
-      <c r="C177" t="n">
-        <v>1</v>
-      </c>
-      <c r="D177" t="n">
-        <v>0</v>
-      </c>
-      <c r="E177" t="n">
-        <v>0</v>
-      </c>
-      <c r="F177" t="n">
-        <v>0</v>
-      </c>
-      <c r="G177" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="178">
-      <c r="A178" t="n">
-        <v>-22.59036144578313</v>
-      </c>
-      <c r="B178" t="n">
-        <v>573.15</v>
-      </c>
-      <c r="C178" t="n">
-        <v>1</v>
-      </c>
-      <c r="D178" t="n">
-        <v>0</v>
-      </c>
-      <c r="E178" t="n">
-        <v>0</v>
-      </c>
-      <c r="F178" t="n">
-        <v>0</v>
-      </c>
-      <c r="G178" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="179">
-      <c r="A179" t="n">
-        <v>-22.34939759036145</v>
-      </c>
-      <c r="B179" t="n">
-        <v>573.15</v>
-      </c>
-      <c r="C179" t="n">
-        <v>1</v>
-      </c>
-      <c r="D179" t="n">
-        <v>0</v>
-      </c>
-      <c r="E179" t="n">
-        <v>0</v>
-      </c>
-      <c r="F179" t="n">
-        <v>0</v>
-      </c>
-      <c r="G179" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="180">
-      <c r="A180" t="n">
-        <v>-22.10843373493976</v>
-      </c>
-      <c r="B180" t="n">
-        <v>573.15</v>
-      </c>
-      <c r="C180" t="n">
-        <v>1</v>
-      </c>
-      <c r="D180" t="n">
-        <v>0</v>
-      </c>
-      <c r="E180" t="n">
-        <v>0</v>
-      </c>
-      <c r="F180" t="n">
-        <v>0</v>
-      </c>
-      <c r="G180" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="181">
-      <c r="A181" t="n">
-        <v>-21.86746987951808</v>
-      </c>
-      <c r="B181" t="n">
-        <v>573.15</v>
-      </c>
-      <c r="C181" t="n">
-        <v>1</v>
-      </c>
-      <c r="D181" t="n">
-        <v>0</v>
-      </c>
-      <c r="E181" t="n">
-        <v>0</v>
-      </c>
-      <c r="F181" t="n">
-        <v>0</v>
-      </c>
-      <c r="G181" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182" t="n">
-        <v>-21.62650602409639</v>
-      </c>
-      <c r="B182" t="n">
-        <v>573.15</v>
-      </c>
-      <c r="C182" t="n">
-        <v>1</v>
-      </c>
-      <c r="D182" t="n">
-        <v>0</v>
-      </c>
-      <c r="E182" t="n">
-        <v>0</v>
-      </c>
-      <c r="F182" t="n">
-        <v>0</v>
-      </c>
-      <c r="G182" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" t="n">
-        <v>-21.3855421686747</v>
-      </c>
-      <c r="B183" t="n">
-        <v>573.15</v>
-      </c>
-      <c r="C183" t="n">
-        <v>1</v>
-      </c>
-      <c r="D183" t="n">
-        <v>0</v>
-      </c>
-      <c r="E183" t="n">
-        <v>0</v>
-      </c>
-      <c r="F183" t="n">
-        <v>0</v>
-      </c>
-      <c r="G183" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="184">
-      <c r="A184" t="n">
-        <v>-21.14457831325301</v>
-      </c>
-      <c r="B184" t="n">
-        <v>573.15</v>
-      </c>
-      <c r="C184" t="n">
-        <v>1</v>
-      </c>
-      <c r="D184" t="n">
-        <v>0</v>
-      </c>
-      <c r="E184" t="n">
-        <v>0</v>
-      </c>
-      <c r="F184" t="n">
-        <v>0</v>
-      </c>
-      <c r="G184" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="185">
-      <c r="A185" t="n">
-        <v>-20.90361445783132</v>
-      </c>
-      <c r="B185" t="n">
-        <v>573.15</v>
-      </c>
-      <c r="C185" t="n">
-        <v>1</v>
-      </c>
-      <c r="D185" t="n">
-        <v>0</v>
-      </c>
-      <c r="E185" t="n">
-        <v>0</v>
-      </c>
-      <c r="F185" t="n">
-        <v>0</v>
-      </c>
-      <c r="G185" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="186">
-      <c r="A186" t="n">
-        <v>-20.66265060240964</v>
-      </c>
-      <c r="B186" t="n">
-        <v>573.15</v>
-      </c>
-      <c r="C186" t="n">
-        <v>1</v>
-      </c>
-      <c r="D186" t="n">
-        <v>0</v>
-      </c>
-      <c r="E186" t="n">
-        <v>0</v>
-      </c>
-      <c r="F186" t="n">
-        <v>0</v>
-      </c>
-      <c r="G186" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="187">
-      <c r="A187" t="n">
-        <v>-20.42168674698795</v>
-      </c>
-      <c r="B187" t="n">
-        <v>573.15</v>
-      </c>
-      <c r="C187" t="n">
-        <v>1</v>
-      </c>
-      <c r="D187" t="n">
-        <v>0</v>
-      </c>
-      <c r="E187" t="n">
-        <v>0</v>
-      </c>
-      <c r="F187" t="n">
-        <v>0</v>
-      </c>
-      <c r="G187" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="188">
-      <c r="A188" t="n">
-        <v>-20.18072289156626</v>
-      </c>
-      <c r="B188" t="n">
-        <v>573.15</v>
-      </c>
-      <c r="C188" t="n">
-        <v>1</v>
-      </c>
-      <c r="D188" t="n">
-        <v>0</v>
-      </c>
-      <c r="E188" t="n">
-        <v>0</v>
-      </c>
-      <c r="F188" t="n">
-        <v>0</v>
-      </c>
-      <c r="G188" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="189">
-      <c r="A189" t="n">
-        <v>-19.93975903614458</v>
-      </c>
-      <c r="B189" t="n">
-        <v>573.15</v>
-      </c>
-      <c r="C189" t="n">
-        <v>1</v>
-      </c>
-      <c r="D189" t="n">
-        <v>0</v>
-      </c>
-      <c r="E189" t="n">
-        <v>0</v>
-      </c>
-      <c r="F189" t="n">
-        <v>0</v>
-      </c>
-      <c r="G189" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="190">
-      <c r="A190" t="n">
-        <v>-19.69879518072289</v>
-      </c>
-      <c r="B190" t="n">
-        <v>573.15</v>
-      </c>
-      <c r="C190" t="n">
-        <v>1</v>
-      </c>
-      <c r="D190" t="n">
-        <v>0</v>
-      </c>
-      <c r="E190" t="n">
-        <v>0</v>
-      </c>
-      <c r="F190" t="n">
-        <v>0</v>
-      </c>
-      <c r="G190" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="191">
-      <c r="A191" t="n">
-        <v>-19.45783132530121</v>
-      </c>
-      <c r="B191" t="n">
-        <v>573.15</v>
-      </c>
-      <c r="C191" t="n">
-        <v>1</v>
-      </c>
-      <c r="D191" t="n">
-        <v>0</v>
-      </c>
-      <c r="E191" t="n">
-        <v>0</v>
-      </c>
-      <c r="F191" t="n">
-        <v>0</v>
-      </c>
-      <c r="G191" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="192">
-      <c r="A192" t="n">
-        <v>-19.21686746987952</v>
-      </c>
-      <c r="B192" t="n">
-        <v>573.15</v>
-      </c>
-      <c r="C192" t="n">
-        <v>1</v>
-      </c>
-      <c r="D192" t="n">
-        <v>0</v>
-      </c>
-      <c r="E192" t="n">
-        <v>0</v>
-      </c>
-      <c r="F192" t="n">
-        <v>0</v>
-      </c>
-      <c r="G192" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="193">
-      <c r="A193" t="n">
-        <v>-18.97590361445783</v>
-      </c>
-      <c r="B193" t="n">
-        <v>573.15</v>
-      </c>
-      <c r="C193" t="n">
-        <v>1</v>
-      </c>
-      <c r="D193" t="n">
-        <v>0</v>
-      </c>
-      <c r="E193" t="n">
-        <v>0</v>
-      </c>
-      <c r="F193" t="n">
-        <v>0</v>
-      </c>
-      <c r="G193" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="194">
-      <c r="A194" t="n">
-        <v>-18.73493975903614</v>
-      </c>
-      <c r="B194" t="n">
-        <v>573.15</v>
-      </c>
-      <c r="C194" t="n">
-        <v>1</v>
-      </c>
-      <c r="D194" t="n">
-        <v>0</v>
-      </c>
-      <c r="E194" t="n">
-        <v>0</v>
-      </c>
-      <c r="F194" t="n">
-        <v>0</v>
-      </c>
-      <c r="G194" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="195">
-      <c r="A195" t="n">
-        <v>-18.49397590361446</v>
-      </c>
-      <c r="B195" t="n">
-        <v>573.15</v>
-      </c>
-      <c r="C195" t="n">
-        <v>1</v>
-      </c>
-      <c r="D195" t="n">
-        <v>0</v>
-      </c>
-      <c r="E195" t="n">
-        <v>0</v>
-      </c>
-      <c r="F195" t="n">
-        <v>0</v>
-      </c>
-      <c r="G195" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="196">
-      <c r="A196" t="n">
-        <v>-18.25301204819277</v>
-      </c>
-      <c r="B196" t="n">
-        <v>573.15</v>
-      </c>
-      <c r="C196" t="n">
-        <v>1</v>
-      </c>
-      <c r="D196" t="n">
-        <v>0</v>
-      </c>
-      <c r="E196" t="n">
-        <v>0</v>
-      </c>
-      <c r="F196" t="n">
-        <v>0</v>
-      </c>
-      <c r="G196" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="197">
-      <c r="A197" t="n">
-        <v>-18.01204819277108</v>
-      </c>
-      <c r="B197" t="n">
-        <v>573.15</v>
-      </c>
-      <c r="C197" t="n">
-        <v>1</v>
-      </c>
-      <c r="D197" t="n">
-        <v>0</v>
-      </c>
-      <c r="E197" t="n">
-        <v>0</v>
-      </c>
-      <c r="F197" t="n">
-        <v>0</v>
-      </c>
-      <c r="G197" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="198">
-      <c r="A198" t="n">
-        <v>-17.7710843373494</v>
-      </c>
-      <c r="B198" t="n">
-        <v>573.15</v>
-      </c>
-      <c r="C198" t="n">
-        <v>1</v>
-      </c>
-      <c r="D198" t="n">
-        <v>0</v>
-      </c>
-      <c r="E198" t="n">
-        <v>0</v>
-      </c>
-      <c r="F198" t="n">
-        <v>0</v>
-      </c>
-      <c r="G198" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="199">
-      <c r="A199" t="n">
-        <v>-17.53012048192771</v>
-      </c>
-      <c r="B199" t="n">
-        <v>573.15</v>
-      </c>
-      <c r="C199" t="n">
-        <v>1</v>
-      </c>
-      <c r="D199" t="n">
-        <v>0</v>
-      </c>
-      <c r="E199" t="n">
-        <v>0</v>
-      </c>
-      <c r="F199" t="n">
-        <v>0</v>
-      </c>
-      <c r="G199" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="200">
-      <c r="A200" t="n">
-        <v>-17.28915662650603</v>
-      </c>
-      <c r="B200" t="n">
-        <v>573.15</v>
-      </c>
-      <c r="C200" t="n">
-        <v>1</v>
-      </c>
-      <c r="D200" t="n">
-        <v>0</v>
-      </c>
-      <c r="E200" t="n">
-        <v>0</v>
-      </c>
-      <c r="F200" t="n">
-        <v>0</v>
-      </c>
-      <c r="G200" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="201">
-      <c r="A201" t="n">
-        <v>-17.04819277108434</v>
-      </c>
-      <c r="B201" t="n">
-        <v>573.15</v>
-      </c>
-      <c r="C201" t="n">
-        <v>1</v>
-      </c>
-      <c r="D201" t="n">
-        <v>0</v>
-      </c>
-      <c r="E201" t="n">
-        <v>0</v>
-      </c>
-      <c r="F201" t="n">
-        <v>0</v>
-      </c>
-      <c r="G201" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="202">
-      <c r="A202" t="n">
-        <v>-16.80722891566265</v>
-      </c>
-      <c r="B202" t="n">
-        <v>573.15</v>
-      </c>
-      <c r="C202" t="n">
-        <v>1</v>
-      </c>
-      <c r="D202" t="n">
-        <v>0</v>
-      </c>
-      <c r="E202" t="n">
-        <v>0</v>
-      </c>
-      <c r="F202" t="n">
-        <v>0</v>
-      </c>
-      <c r="G202" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="203">
-      <c r="A203" t="n">
-        <v>-16.56626506024097</v>
-      </c>
-      <c r="B203" t="n">
-        <v>573.15</v>
-      </c>
-      <c r="C203" t="n">
-        <v>1</v>
-      </c>
-      <c r="D203" t="n">
-        <v>0</v>
-      </c>
-      <c r="E203" t="n">
-        <v>0</v>
-      </c>
-      <c r="F203" t="n">
-        <v>0</v>
-      </c>
-      <c r="G203" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="204">
-      <c r="A204" t="n">
-        <v>-16.32530120481928</v>
-      </c>
-      <c r="B204" t="n">
-        <v>573.15</v>
-      </c>
-      <c r="C204" t="n">
-        <v>1</v>
-      </c>
-      <c r="D204" t="n">
-        <v>0</v>
-      </c>
-      <c r="E204" t="n">
-        <v>0</v>
-      </c>
-      <c r="F204" t="n">
-        <v>0</v>
-      </c>
-      <c r="G204" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="205">
-      <c r="A205" t="n">
-        <v>-16.08433734939759</v>
-      </c>
-      <c r="B205" t="n">
-        <v>573.15</v>
-      </c>
-      <c r="C205" t="n">
-        <v>1</v>
-      </c>
-      <c r="D205" t="n">
-        <v>0</v>
-      </c>
-      <c r="E205" t="n">
-        <v>0</v>
-      </c>
-      <c r="F205" t="n">
-        <v>0</v>
-      </c>
-      <c r="G205" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="206">
-      <c r="A206" t="n">
-        <v>-15.8433734939759</v>
-      </c>
-      <c r="B206" t="n">
-        <v>573.15</v>
-      </c>
-      <c r="C206" t="n">
-        <v>1</v>
-      </c>
-      <c r="D206" t="n">
-        <v>0</v>
-      </c>
-      <c r="E206" t="n">
-        <v>0</v>
-      </c>
-      <c r="F206" t="n">
-        <v>0</v>
-      </c>
-      <c r="G206" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="207">
-      <c r="A207" t="n">
-        <v>-15.60240963855421</v>
-      </c>
-      <c r="B207" t="n">
-        <v>573.15</v>
-      </c>
-      <c r="C207" t="n">
-        <v>1</v>
-      </c>
-      <c r="D207" t="n">
-        <v>0</v>
-      </c>
-      <c r="E207" t="n">
-        <v>0</v>
-      </c>
-      <c r="F207" t="n">
-        <v>0</v>
-      </c>
-      <c r="G207" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="208">
-      <c r="A208" t="n">
-        <v>-15.36144578313253</v>
-      </c>
-      <c r="B208" t="n">
-        <v>573.15</v>
-      </c>
-      <c r="C208" t="n">
-        <v>1</v>
-      </c>
-      <c r="D208" t="n">
-        <v>0</v>
-      </c>
-      <c r="E208" t="n">
-        <v>0</v>
-      </c>
-      <c r="F208" t="n">
-        <v>0</v>
-      </c>
-      <c r="G208" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="209">
-      <c r="A209" t="n">
-        <v>-15.12048192771084</v>
-      </c>
-      <c r="B209" t="n">
-        <v>573.15</v>
-      </c>
-      <c r="C209" t="n">
-        <v>1</v>
-      </c>
-      <c r="D209" t="n">
-        <v>0</v>
-      </c>
-      <c r="E209" t="n">
-        <v>0</v>
-      </c>
-      <c r="F209" t="n">
-        <v>0</v>
-      </c>
-      <c r="G209" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="210">
-      <c r="A210" t="n">
-        <v>-14.87951807228916</v>
-      </c>
-      <c r="B210" t="n">
-        <v>573.15</v>
-      </c>
-      <c r="C210" t="n">
-        <v>1</v>
-      </c>
-      <c r="D210" t="n">
-        <v>0</v>
-      </c>
-      <c r="E210" t="n">
-        <v>0</v>
-      </c>
-      <c r="F210" t="n">
-        <v>0</v>
-      </c>
-      <c r="G210" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="211">
-      <c r="A211" t="n">
-        <v>-14.63855421686747</v>
-      </c>
-      <c r="B211" t="n">
-        <v>573.15</v>
-      </c>
-      <c r="C211" t="n">
-        <v>1</v>
-      </c>
-      <c r="D211" t="n">
-        <v>0</v>
-      </c>
-      <c r="E211" t="n">
-        <v>0</v>
-      </c>
-      <c r="F211" t="n">
-        <v>0</v>
-      </c>
-      <c r="G211" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="212">
-      <c r="A212" t="n">
-        <v>-14.39759036144579</v>
-      </c>
-      <c r="B212" t="n">
-        <v>573.15</v>
-      </c>
-      <c r="C212" t="n">
-        <v>1</v>
-      </c>
-      <c r="D212" t="n">
-        <v>0</v>
-      </c>
-      <c r="E212" t="n">
-        <v>0</v>
-      </c>
-      <c r="F212" t="n">
-        <v>0</v>
-      </c>
-      <c r="G212" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="213">
-      <c r="A213" t="n">
-        <v>-14.1566265060241</v>
-      </c>
-      <c r="B213" t="n">
-        <v>573.15</v>
-      </c>
-      <c r="C213" t="n">
-        <v>1</v>
-      </c>
-      <c r="D213" t="n">
-        <v>0</v>
-      </c>
-      <c r="E213" t="n">
-        <v>0</v>
-      </c>
-      <c r="F213" t="n">
-        <v>0</v>
-      </c>
-      <c r="G213" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="214">
-      <c r="A214" t="n">
-        <v>-13.91566265060241</v>
-      </c>
-      <c r="B214" t="n">
-        <v>573.15</v>
-      </c>
-      <c r="C214" t="n">
-        <v>1</v>
-      </c>
-      <c r="D214" t="n">
-        <v>0</v>
-      </c>
-      <c r="E214" t="n">
-        <v>0</v>
-      </c>
-      <c r="F214" t="n">
-        <v>0</v>
-      </c>
-      <c r="G214" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="215">
-      <c r="A215" t="n">
-        <v>-13.67469879518072</v>
-      </c>
-      <c r="B215" t="n">
-        <v>573.15</v>
-      </c>
-      <c r="C215" t="n">
-        <v>1</v>
-      </c>
-      <c r="D215" t="n">
-        <v>0</v>
-      </c>
-      <c r="E215" t="n">
-        <v>0</v>
-      </c>
-      <c r="F215" t="n">
-        <v>0</v>
-      </c>
-      <c r="G215" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="216">
-      <c r="A216" t="n">
-        <v>-13.43373493975903</v>
-      </c>
-      <c r="B216" t="n">
-        <v>573.15</v>
-      </c>
-      <c r="C216" t="n">
-        <v>1</v>
-      </c>
-      <c r="D216" t="n">
-        <v>0</v>
-      </c>
-      <c r="E216" t="n">
-        <v>0</v>
-      </c>
-      <c r="F216" t="n">
-        <v>0</v>
-      </c>
-      <c r="G216" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="217">
-      <c r="A217" t="n">
-        <v>-13.19277108433735</v>
-      </c>
-      <c r="B217" t="n">
-        <v>573.15</v>
-      </c>
-      <c r="C217" t="n">
-        <v>1</v>
-      </c>
-      <c r="D217" t="n">
-        <v>0</v>
-      </c>
-      <c r="E217" t="n">
-        <v>0</v>
-      </c>
-      <c r="F217" t="n">
-        <v>0</v>
-      </c>
-      <c r="G217" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="218">
-      <c r="A218" t="n">
-        <v>-12.95180722891566</v>
-      </c>
-      <c r="B218" t="n">
-        <v>573.15</v>
-      </c>
-      <c r="C218" t="n">
-        <v>1</v>
-      </c>
-      <c r="D218" t="n">
-        <v>0</v>
-      </c>
-      <c r="E218" t="n">
-        <v>0</v>
-      </c>
-      <c r="F218" t="n">
-        <v>0</v>
-      </c>
-      <c r="G218" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="219">
-      <c r="A219" t="n">
-        <v>-12.71084337349398</v>
-      </c>
-      <c r="B219" t="n">
-        <v>573.15</v>
-      </c>
-      <c r="C219" t="n">
-        <v>1</v>
-      </c>
-      <c r="D219" t="n">
-        <v>0</v>
-      </c>
-      <c r="E219" t="n">
-        <v>0</v>
-      </c>
-      <c r="F219" t="n">
-        <v>0</v>
-      </c>
-      <c r="G219" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="220">
-      <c r="A220" t="n">
-        <v>-12.46987951807229</v>
-      </c>
-      <c r="B220" t="n">
-        <v>573.15</v>
-      </c>
-      <c r="C220" t="n">
-        <v>1</v>
-      </c>
-      <c r="D220" t="n">
-        <v>0</v>
-      </c>
-      <c r="E220" t="n">
-        <v>0</v>
-      </c>
-      <c r="F220" t="n">
-        <v>0</v>
-      </c>
-      <c r="G220" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="221">
-      <c r="A221" t="n">
-        <v>-12.2289156626506</v>
-      </c>
-      <c r="B221" t="n">
-        <v>573.15</v>
-      </c>
-      <c r="C221" t="n">
-        <v>1</v>
-      </c>
-      <c r="D221" t="n">
-        <v>0</v>
-      </c>
-      <c r="E221" t="n">
-        <v>0</v>
-      </c>
-      <c r="F221" t="n">
-        <v>0</v>
-      </c>
-      <c r="G221" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="222">
-      <c r="A222" t="n">
-        <v>-11.98795180722892</v>
-      </c>
-      <c r="B222" t="n">
-        <v>573.15</v>
-      </c>
-      <c r="C222" t="n">
-        <v>1</v>
-      </c>
-      <c r="D222" t="n">
-        <v>0</v>
-      </c>
-      <c r="E222" t="n">
-        <v>0</v>
-      </c>
-      <c r="F222" t="n">
-        <v>0</v>
-      </c>
-      <c r="G222" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="223">
-      <c r="A223" t="n">
-        <v>-11.74698795180723</v>
-      </c>
-      <c r="B223" t="n">
-        <v>573.15</v>
-      </c>
-      <c r="C223" t="n">
-        <v>1</v>
-      </c>
-      <c r="D223" t="n">
-        <v>0</v>
-      </c>
-      <c r="E223" t="n">
-        <v>0</v>
-      </c>
-      <c r="F223" t="n">
-        <v>0</v>
-      </c>
-      <c r="G223" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="224">
-      <c r="A224" t="n">
-        <v>-11.50602409638554</v>
-      </c>
-      <c r="B224" t="n">
-        <v>573.15</v>
-      </c>
-      <c r="C224" t="n">
-        <v>1</v>
-      </c>
-      <c r="D224" t="n">
-        <v>0</v>
-      </c>
-      <c r="E224" t="n">
-        <v>0</v>
-      </c>
-      <c r="F224" t="n">
-        <v>0</v>
-      </c>
-      <c r="G224" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="225">
-      <c r="A225" t="n">
-        <v>-11.26506024096386</v>
-      </c>
-      <c r="B225" t="n">
-        <v>573.15</v>
-      </c>
-      <c r="C225" t="n">
-        <v>1</v>
-      </c>
-      <c r="D225" t="n">
-        <v>0</v>
-      </c>
-      <c r="E225" t="n">
-        <v>0</v>
-      </c>
-      <c r="F225" t="n">
-        <v>0</v>
-      </c>
-      <c r="G225" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="226">
-      <c r="A226" t="n">
-        <v>-11.02409638554217</v>
-      </c>
-      <c r="B226" t="n">
-        <v>573.15</v>
-      </c>
-      <c r="C226" t="n">
-        <v>1</v>
-      </c>
-      <c r="D226" t="n">
-        <v>0</v>
-      </c>
-      <c r="E226" t="n">
-        <v>0</v>
-      </c>
-      <c r="F226" t="n">
-        <v>0</v>
-      </c>
-      <c r="G226" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="227">
-      <c r="A227" t="n">
-        <v>-10.78313253012048</v>
-      </c>
-      <c r="B227" t="n">
-        <v>573.15</v>
-      </c>
-      <c r="C227" t="n">
-        <v>1</v>
-      </c>
-      <c r="D227" t="n">
-        <v>0</v>
-      </c>
-      <c r="E227" t="n">
-        <v>0</v>
-      </c>
-      <c r="F227" t="n">
-        <v>0</v>
-      </c>
-      <c r="G227" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="228">
-      <c r="A228" t="n">
-        <v>-10.54216867469879</v>
-      </c>
-      <c r="B228" t="n">
-        <v>573.15</v>
-      </c>
-      <c r="C228" t="n">
-        <v>1</v>
-      </c>
-      <c r="D228" t="n">
-        <v>0</v>
-      </c>
-      <c r="E228" t="n">
-        <v>0</v>
-      </c>
-      <c r="F228" t="n">
-        <v>0</v>
-      </c>
-      <c r="G228" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="229">
-      <c r="A229" t="n">
-        <v>-10.30120481927711</v>
-      </c>
-      <c r="B229" t="n">
-        <v>573.15</v>
-      </c>
-      <c r="C229" t="n">
-        <v>1</v>
-      </c>
-      <c r="D229" t="n">
-        <v>0</v>
-      </c>
-      <c r="E229" t="n">
-        <v>0</v>
-      </c>
-      <c r="F229" t="n">
-        <v>0</v>
-      </c>
-      <c r="G229" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="230">
-      <c r="A230" t="n">
-        <v>-10.06024096385542</v>
-      </c>
-      <c r="B230" t="n">
-        <v>573.15</v>
-      </c>
-      <c r="C230" t="n">
-        <v>1</v>
-      </c>
-      <c r="D230" t="n">
-        <v>0</v>
-      </c>
-      <c r="E230" t="n">
-        <v>0</v>
-      </c>
-      <c r="F230" t="n">
-        <v>0</v>
-      </c>
-      <c r="G230" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="231">
-      <c r="A231" t="n">
-        <v>-9.819277108433738</v>
-      </c>
-      <c r="B231" t="n">
-        <v>573.15</v>
-      </c>
-      <c r="C231" t="n">
-        <v>1</v>
-      </c>
-      <c r="D231" t="n">
-        <v>0</v>
-      </c>
-      <c r="E231" t="n">
-        <v>0</v>
-      </c>
-      <c r="F231" t="n">
-        <v>0</v>
-      </c>
-      <c r="G231" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="232">
-      <c r="A232" t="n">
-        <v>-9.578313253012048</v>
-      </c>
-      <c r="B232" t="n">
-        <v>573.15</v>
-      </c>
-      <c r="C232" t="n">
-        <v>1</v>
-      </c>
-      <c r="D232" t="n">
-        <v>0</v>
-      </c>
-      <c r="E232" t="n">
-        <v>0</v>
-      </c>
-      <c r="F232" t="n">
-        <v>0</v>
-      </c>
-      <c r="G232" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="233">
-      <c r="A233" t="n">
-        <v>-9.337349397590359</v>
-      </c>
-      <c r="B233" t="n">
-        <v>573.15</v>
-      </c>
-      <c r="C233" t="n">
-        <v>1</v>
-      </c>
-      <c r="D233" t="n">
-        <v>0</v>
-      </c>
-      <c r="E233" t="n">
-        <v>0</v>
-      </c>
-      <c r="F233" t="n">
-        <v>0</v>
-      </c>
-      <c r="G233" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="234">
-      <c r="A234" t="n">
-        <v>-9.096385542168676</v>
-      </c>
-      <c r="B234" t="n">
-        <v>573.15</v>
-      </c>
-      <c r="C234" t="n">
-        <v>1</v>
-      </c>
-      <c r="D234" t="n">
-        <v>0</v>
-      </c>
-      <c r="E234" t="n">
-        <v>0</v>
-      </c>
-      <c r="F234" t="n">
-        <v>0</v>
-      </c>
-      <c r="G234" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="235">
-      <c r="A235" t="n">
-        <v>-8.855421686746986</v>
-      </c>
-      <c r="B235" t="n">
-        <v>573.15</v>
-      </c>
-      <c r="C235" t="n">
-        <v>1</v>
-      </c>
-      <c r="D235" t="n">
-        <v>0</v>
-      </c>
-      <c r="E235" t="n">
-        <v>0</v>
-      </c>
-      <c r="F235" t="n">
-        <v>0</v>
-      </c>
-      <c r="G235" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="236">
-      <c r="A236" t="n">
-        <v>-8.614457831325304</v>
-      </c>
-      <c r="B236" t="n">
-        <v>573.15</v>
-      </c>
-      <c r="C236" t="n">
-        <v>1</v>
-      </c>
-      <c r="D236" t="n">
-        <v>0</v>
-      </c>
-      <c r="E236" t="n">
-        <v>0</v>
-      </c>
-      <c r="F236" t="n">
-        <v>0</v>
-      </c>
-      <c r="G236" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="237">
-      <c r="A237" t="n">
-        <v>-8.373493975903614</v>
-      </c>
-      <c r="B237" t="n">
-        <v>573.15</v>
-      </c>
-      <c r="C237" t="n">
-        <v>1</v>
-      </c>
-      <c r="D237" t="n">
-        <v>0</v>
-      </c>
-      <c r="E237" t="n">
-        <v>0</v>
-      </c>
-      <c r="F237" t="n">
-        <v>0</v>
-      </c>
-      <c r="G237" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="238">
-      <c r="A238" t="n">
-        <v>-8.132530120481931</v>
-      </c>
-      <c r="B238" t="n">
-        <v>573.15</v>
-      </c>
-      <c r="C238" t="n">
-        <v>1</v>
-      </c>
-      <c r="D238" t="n">
-        <v>0</v>
-      </c>
-      <c r="E238" t="n">
-        <v>0</v>
-      </c>
-      <c r="F238" t="n">
-        <v>0</v>
-      </c>
-      <c r="G238" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="239">
-      <c r="A239" t="n">
-        <v>-7.891566265060241</v>
-      </c>
-      <c r="B239" t="n">
-        <v>573.15</v>
-      </c>
-      <c r="C239" t="n">
-        <v>1</v>
-      </c>
-      <c r="D239" t="n">
-        <v>0</v>
-      </c>
-      <c r="E239" t="n">
-        <v>0</v>
-      </c>
-      <c r="F239" t="n">
-        <v>0</v>
-      </c>
-      <c r="G239" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="240">
-      <c r="A240" t="n">
-        <v>-7.650602409638552</v>
-      </c>
-      <c r="B240" t="n">
-        <v>573.15</v>
-      </c>
-      <c r="C240" t="n">
-        <v>1</v>
-      </c>
-      <c r="D240" t="n">
-        <v>0</v>
-      </c>
-      <c r="E240" t="n">
-        <v>0</v>
-      </c>
-      <c r="F240" t="n">
-        <v>0</v>
-      </c>
-      <c r="G240" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="241">
-      <c r="A241" t="n">
-        <v>-7.409638554216869</v>
-      </c>
-      <c r="B241" t="n">
-        <v>573.15</v>
-      </c>
-      <c r="C241" t="n">
-        <v>1</v>
-      </c>
-      <c r="D241" t="n">
-        <v>0</v>
-      </c>
-      <c r="E241" t="n">
-        <v>0</v>
-      </c>
-      <c r="F241" t="n">
-        <v>0</v>
-      </c>
-      <c r="G241" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="242">
-      <c r="A242" t="n">
-        <v>-7.168674698795179</v>
-      </c>
-      <c r="B242" t="n">
-        <v>573.15</v>
-      </c>
-      <c r="C242" t="n">
-        <v>1</v>
-      </c>
-      <c r="D242" t="n">
-        <v>0</v>
-      </c>
-      <c r="E242" t="n">
-        <v>0</v>
-      </c>
-      <c r="F242" t="n">
-        <v>0</v>
-      </c>
-      <c r="G242" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="243">
-      <c r="A243" t="n">
-        <v>-6.927710843373497</v>
-      </c>
-      <c r="B243" t="n">
-        <v>573.15</v>
-      </c>
-      <c r="C243" t="n">
-        <v>1</v>
-      </c>
-      <c r="D243" t="n">
-        <v>0</v>
-      </c>
-      <c r="E243" t="n">
-        <v>0</v>
-      </c>
-      <c r="F243" t="n">
-        <v>0</v>
-      </c>
-      <c r="G243" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="244">
-      <c r="A244" t="n">
-        <v>-6.686746987951807</v>
-      </c>
-      <c r="B244" t="n">
-        <v>573.15</v>
-      </c>
-      <c r="C244" t="n">
-        <v>1</v>
-      </c>
-      <c r="D244" t="n">
-        <v>0</v>
-      </c>
-      <c r="E244" t="n">
-        <v>0</v>
-      </c>
-      <c r="F244" t="n">
-        <v>0</v>
-      </c>
-      <c r="G244" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="245">
-      <c r="A245" t="n">
-        <v>-6.445783132530124</v>
-      </c>
-      <c r="B245" t="n">
-        <v>573.15</v>
-      </c>
-      <c r="C245" t="n">
-        <v>1</v>
-      </c>
-      <c r="D245" t="n">
-        <v>0</v>
-      </c>
-      <c r="E245" t="n">
-        <v>0</v>
-      </c>
-      <c r="F245" t="n">
-        <v>0</v>
-      </c>
-      <c r="G245" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="246">
-      <c r="A246" t="n">
-        <v>-6.204819277108435</v>
-      </c>
-      <c r="B246" t="n">
-        <v>573.15</v>
-      </c>
-      <c r="C246" t="n">
-        <v>1</v>
-      </c>
-      <c r="D246" t="n">
-        <v>0</v>
-      </c>
-      <c r="E246" t="n">
-        <v>0</v>
-      </c>
-      <c r="F246" t="n">
-        <v>0</v>
-      </c>
-      <c r="G246" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="247">
-      <c r="A247" t="n">
-        <v>-5.963855421686745</v>
-      </c>
-      <c r="B247" t="n">
-        <v>573.15</v>
-      </c>
-      <c r="C247" t="n">
-        <v>1</v>
-      </c>
-      <c r="D247" t="n">
-        <v>0</v>
-      </c>
-      <c r="E247" t="n">
-        <v>0</v>
-      </c>
-      <c r="F247" t="n">
-        <v>0</v>
-      </c>
-      <c r="G247" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="248">
-      <c r="A248" t="n">
-        <v>-5.722891566265062</v>
-      </c>
-      <c r="B248" t="n">
-        <v>573.15</v>
-      </c>
-      <c r="C248" t="n">
-        <v>1</v>
-      </c>
-      <c r="D248" t="n">
-        <v>0</v>
-      </c>
-      <c r="E248" t="n">
-        <v>0</v>
-      </c>
-      <c r="F248" t="n">
-        <v>0</v>
-      </c>
-      <c r="G248" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="249">
-      <c r="A249" t="n">
-        <v>-5.481927710843372</v>
-      </c>
-      <c r="B249" t="n">
-        <v>573.15</v>
-      </c>
-      <c r="C249" t="n">
-        <v>1</v>
-      </c>
-      <c r="D249" t="n">
-        <v>0</v>
-      </c>
-      <c r="E249" t="n">
-        <v>0</v>
-      </c>
-      <c r="F249" t="n">
-        <v>0</v>
-      </c>
-      <c r="G249" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="250">
-      <c r="A250" t="n">
-        <v>-5.24096385542169</v>
-      </c>
-      <c r="B250" t="n">
-        <v>573.15</v>
-      </c>
-      <c r="C250" t="n">
-        <v>1</v>
-      </c>
-      <c r="D250" t="n">
-        <v>0</v>
-      </c>
-      <c r="E250" t="n">
-        <v>0</v>
-      </c>
-      <c r="F250" t="n">
-        <v>0</v>
-      </c>
-      <c r="G250" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="251">
-      <c r="A251" t="n">
-        <v>-5</v>
-      </c>
-      <c r="B251" t="n">
-        <v>573.15</v>
-      </c>
-      <c r="C251" t="n">
-        <v>1</v>
-      </c>
-      <c r="D251" t="n">
-        <v>0</v>
-      </c>
-      <c r="E251" t="n">
-        <v>0</v>
-      </c>
-      <c r="F251" t="n">
-        <v>0</v>
-      </c>
-      <c r="G251" t="n">
         <v>0</v>
       </c>
     </row>

--- a/tc_df_FullEquil_check_filter.xlsx
+++ b/tc_df_FullEquil_check_filter.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G151"/>
+  <dimension ref="A1:F151"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,17 +446,17 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>np(HEMATITE)</t>
+          <t>np(CORUNDUM)</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>np(MAGNETITE)</t>
+          <t>np(SPINEL)</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>np(WUSTITE)</t>
+          <t>np(HALITE)</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
@@ -464,11 +464,6 @@
           <t>np(BCC_A2)</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>np(LIQUID)</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -489,9 +484,6 @@
       <c r="F2" t="n">
         <v>1.00000000002635</v>
       </c>
-      <c r="G2" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -510,10 +502,7 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>1.000000000025243</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
+        <v>1.000000000025242</v>
       </c>
     </row>
     <row r="4">
@@ -533,10 +522,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>1.000000000024136</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
+        <v>1.000000000024135</v>
       </c>
     </row>
     <row r="5">
@@ -556,10 +542,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>1.000000000023028</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0</v>
+        <v>1.000000000023027</v>
       </c>
     </row>
     <row r="6">
@@ -579,10 +562,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>1.000000000021921</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0</v>
+        <v>1.00000000002192</v>
       </c>
     </row>
     <row r="7">
@@ -604,9 +584,6 @@
       <c r="F7" t="n">
         <v>1.000000000020813</v>
       </c>
-      <c r="G7" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -625,10 +602,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>1.000000000019706</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0</v>
+        <v>1.000000000019705</v>
       </c>
     </row>
     <row r="9">
@@ -648,10 +622,7 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>1.000000000018599</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0</v>
+        <v>1.000000000018598</v>
       </c>
     </row>
     <row r="10">
@@ -671,10 +642,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>1.000000000017491</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0</v>
+        <v>1.00000000001749</v>
       </c>
     </row>
     <row r="11">
@@ -694,10 +662,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>1.000000000016384</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0</v>
+        <v>1.000000000016383</v>
       </c>
     </row>
     <row r="12">
@@ -719,9 +684,6 @@
       <c r="F12" t="n">
         <v>1.000000000015276</v>
       </c>
-      <c r="G12" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -740,10 +702,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>1.000000000014169</v>
-      </c>
-      <c r="G13" t="n">
-        <v>0</v>
+        <v>1.000000000014168</v>
       </c>
     </row>
     <row r="14">
@@ -763,10 +722,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>1.000000000013062</v>
-      </c>
-      <c r="G14" t="n">
-        <v>0</v>
+        <v>1.000000000013061</v>
       </c>
     </row>
     <row r="15">
@@ -788,9 +744,6 @@
       <c r="F15" t="n">
         <v>1.000000000011954</v>
       </c>
-      <c r="G15" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -809,10 +762,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>1.000000000010847</v>
-      </c>
-      <c r="G16" t="n">
-        <v>0</v>
+        <v>1.000000000010846</v>
       </c>
     </row>
     <row r="17">
@@ -832,10 +782,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>1.00000000000974</v>
-      </c>
-      <c r="G17" t="n">
-        <v>0</v>
+        <v>1.000000000009739</v>
       </c>
     </row>
     <row r="18">
@@ -855,10 +802,7 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>1.000000000008632</v>
-      </c>
-      <c r="G18" t="n">
-        <v>0</v>
+        <v>1.000000000008631</v>
       </c>
     </row>
     <row r="19">
@@ -878,10 +822,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>1.000000000007525</v>
-      </c>
-      <c r="G19" t="n">
-        <v>0</v>
+        <v>1.000000000007524</v>
       </c>
     </row>
     <row r="20">
@@ -901,10 +842,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>1.000000000006418</v>
-      </c>
-      <c r="G20" t="n">
-        <v>0</v>
+        <v>1.000000000006417</v>
       </c>
     </row>
     <row r="21">
@@ -924,10 +862,7 @@
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>1.00000000000531</v>
-      </c>
-      <c r="G21" t="n">
-        <v>0</v>
+        <v>1.000000000005309</v>
       </c>
     </row>
     <row r="22">
@@ -947,10 +882,7 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>1.000000000004203</v>
-      </c>
-      <c r="G22" t="n">
-        <v>0</v>
+        <v>1.000000000004202</v>
       </c>
     </row>
     <row r="23">
@@ -970,10 +902,7 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>1.000000000003095</v>
-      </c>
-      <c r="G23" t="n">
-        <v>0</v>
+        <v>1.000000000003094</v>
       </c>
     </row>
     <row r="24">
@@ -993,10 +922,7 @@
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>1.000000000001988</v>
-      </c>
-      <c r="G24" t="n">
-        <v>0</v>
+        <v>1.000000000001987</v>
       </c>
     </row>
     <row r="25">
@@ -1018,9 +944,6 @@
       <c r="F25" t="n">
         <v>1.00000000000088</v>
       </c>
-      <c r="G25" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -1041,9 +964,6 @@
       <c r="F26" t="n">
         <v>1</v>
       </c>
-      <c r="G26" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -1064,9 +984,6 @@
       <c r="F27" t="n">
         <v>1</v>
       </c>
-      <c r="G27" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -1087,9 +1004,6 @@
       <c r="F28" t="n">
         <v>1</v>
       </c>
-      <c r="G28" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -1110,9 +1024,6 @@
       <c r="F29" t="n">
         <v>1</v>
       </c>
-      <c r="G29" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -1133,9 +1044,6 @@
       <c r="F30" t="n">
         <v>1</v>
       </c>
-      <c r="G30" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -1156,9 +1064,6 @@
       <c r="F31" t="n">
         <v>1</v>
       </c>
-      <c r="G31" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -1179,9 +1084,6 @@
       <c r="F32" t="n">
         <v>1</v>
       </c>
-      <c r="G32" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -1202,9 +1104,6 @@
       <c r="F33" t="n">
         <v>1</v>
       </c>
-      <c r="G33" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -1225,9 +1124,6 @@
       <c r="F34" t="n">
         <v>1</v>
       </c>
-      <c r="G34" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -1248,9 +1144,6 @@
       <c r="F35" t="n">
         <v>1</v>
       </c>
-      <c r="G35" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -1271,9 +1164,6 @@
       <c r="F36" t="n">
         <v>1</v>
       </c>
-      <c r="G36" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -1286,15 +1176,12 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>1</v>
+        <v>0.9999999999981205</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
-      </c>
-      <c r="G37" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1309,15 +1196,12 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>1</v>
+        <v>0.9999999999982608</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
-      </c>
-      <c r="G38" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1332,15 +1216,12 @@
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>1</v>
+        <v>0.9999999999984015</v>
       </c>
       <c r="E39" t="n">
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
-      </c>
-      <c r="G39" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1355,15 +1236,12 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>1</v>
+        <v>0.9999999999985418</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
-      </c>
-      <c r="G40" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1378,15 +1256,12 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>1</v>
+        <v>0.9999999999986831</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
-      </c>
-      <c r="G41" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1401,15 +1276,12 @@
         <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>1</v>
+        <v>0.9999999999988229</v>
       </c>
       <c r="E42" t="n">
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
-      </c>
-      <c r="G42" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1424,15 +1296,12 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>1</v>
+        <v>0.9999999999989638</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
-      </c>
-      <c r="G43" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1447,15 +1316,12 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>1</v>
+        <v>0.9999999999991048</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
-      </c>
-      <c r="G44" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1470,15 +1336,12 @@
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>1</v>
+        <v>0.9999999999992452</v>
       </c>
       <c r="E45" t="n">
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
-      </c>
-      <c r="G45" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1493,15 +1356,12 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>1</v>
+        <v>0.9999999999993862</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
-      </c>
-      <c r="G46" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1516,15 +1376,12 @@
         <v>0</v>
       </c>
       <c r="D47" t="n">
-        <v>1</v>
+        <v>0.9999999999995266</v>
       </c>
       <c r="E47" t="n">
         <v>0</v>
       </c>
       <c r="F47" t="n">
-        <v>0</v>
-      </c>
-      <c r="G47" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1539,15 +1396,12 @@
         <v>0</v>
       </c>
       <c r="D48" t="n">
-        <v>1</v>
+        <v>0.9999999999996673</v>
       </c>
       <c r="E48" t="n">
         <v>0</v>
       </c>
       <c r="F48" t="n">
-        <v>0</v>
-      </c>
-      <c r="G48" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1562,15 +1416,12 @@
         <v>0</v>
       </c>
       <c r="D49" t="n">
-        <v>1</v>
+        <v>0.9999999999998078</v>
       </c>
       <c r="E49" t="n">
         <v>0</v>
       </c>
       <c r="F49" t="n">
-        <v>0</v>
-      </c>
-      <c r="G49" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1585,15 +1436,12 @@
         <v>0</v>
       </c>
       <c r="D50" t="n">
-        <v>1</v>
+        <v>0.9999999999999488</v>
       </c>
       <c r="E50" t="n">
         <v>0</v>
       </c>
       <c r="F50" t="n">
-        <v>0</v>
-      </c>
-      <c r="G50" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1608,15 +1456,12 @@
         <v>0</v>
       </c>
       <c r="D51" t="n">
-        <v>1</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="E51" t="n">
         <v>0</v>
       </c>
       <c r="F51" t="n">
-        <v>0</v>
-      </c>
-      <c r="G51" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1639,9 +1484,6 @@
       <c r="F52" t="n">
         <v>0</v>
       </c>
-      <c r="G52" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -1662,9 +1504,6 @@
       <c r="F53" t="n">
         <v>0</v>
       </c>
-      <c r="G53" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -1685,9 +1524,6 @@
       <c r="F54" t="n">
         <v>0</v>
       </c>
-      <c r="G54" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -1700,15 +1536,12 @@
         <v>0</v>
       </c>
       <c r="D55" t="n">
-        <v>1</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="E55" t="n">
         <v>0</v>
       </c>
       <c r="F55" t="n">
-        <v>0</v>
-      </c>
-      <c r="G55" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1723,15 +1556,12 @@
         <v>0</v>
       </c>
       <c r="D56" t="n">
-        <v>1</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="E56" t="n">
         <v>0</v>
       </c>
       <c r="F56" t="n">
-        <v>0</v>
-      </c>
-      <c r="G56" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1754,9 +1584,6 @@
       <c r="F57" t="n">
         <v>0</v>
       </c>
-      <c r="G57" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -1769,15 +1596,12 @@
         <v>0</v>
       </c>
       <c r="D58" t="n">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="E58" t="n">
         <v>0</v>
       </c>
       <c r="F58" t="n">
-        <v>0</v>
-      </c>
-      <c r="G58" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1792,15 +1616,12 @@
         <v>0</v>
       </c>
       <c r="D59" t="n">
-        <v>1</v>
+        <v>0.9999999999999993</v>
       </c>
       <c r="E59" t="n">
         <v>0</v>
       </c>
       <c r="F59" t="n">
-        <v>0</v>
-      </c>
-      <c r="G59" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1823,9 +1644,6 @@
       <c r="F60" t="n">
         <v>0</v>
       </c>
-      <c r="G60" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -1846,9 +1664,6 @@
       <c r="F61" t="n">
         <v>0</v>
       </c>
-      <c r="G61" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -1869,9 +1684,6 @@
       <c r="F62" t="n">
         <v>0</v>
       </c>
-      <c r="G62" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -1884,15 +1696,12 @@
         <v>0</v>
       </c>
       <c r="D63" t="n">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="E63" t="n">
         <v>0</v>
       </c>
       <c r="F63" t="n">
-        <v>0</v>
-      </c>
-      <c r="G63" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1907,15 +1716,12 @@
         <v>0</v>
       </c>
       <c r="D64" t="n">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="E64" t="n">
         <v>0</v>
       </c>
       <c r="F64" t="n">
-        <v>0</v>
-      </c>
-      <c r="G64" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1938,9 +1744,6 @@
       <c r="F65" t="n">
         <v>0</v>
       </c>
-      <c r="G65" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -1961,9 +1764,6 @@
       <c r="F66" t="n">
         <v>0</v>
       </c>
-      <c r="G66" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -1984,9 +1784,6 @@
       <c r="F67" t="n">
         <v>0</v>
       </c>
-      <c r="G67" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
@@ -1999,15 +1796,12 @@
         <v>0</v>
       </c>
       <c r="D68" t="n">
-        <v>1</v>
+        <v>0.9999999999999993</v>
       </c>
       <c r="E68" t="n">
         <v>0</v>
       </c>
       <c r="F68" t="n">
-        <v>0</v>
-      </c>
-      <c r="G68" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2030,9 +1824,6 @@
       <c r="F69" t="n">
         <v>0</v>
       </c>
-      <c r="G69" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
@@ -2045,15 +1836,12 @@
         <v>0</v>
       </c>
       <c r="D70" t="n">
-        <v>1</v>
+        <v>1.000000000000125</v>
       </c>
       <c r="E70" t="n">
         <v>0</v>
       </c>
       <c r="F70" t="n">
-        <v>0</v>
-      </c>
-      <c r="G70" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2068,15 +1856,12 @@
         <v>0</v>
       </c>
       <c r="D71" t="n">
-        <v>1</v>
+        <v>1.000000000000265</v>
       </c>
       <c r="E71" t="n">
         <v>0</v>
       </c>
       <c r="F71" t="n">
-        <v>0</v>
-      </c>
-      <c r="G71" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2091,15 +1876,12 @@
         <v>0</v>
       </c>
       <c r="D72" t="n">
-        <v>1</v>
+        <v>1.000000000000406</v>
       </c>
       <c r="E72" t="n">
         <v>0</v>
       </c>
       <c r="F72" t="n">
-        <v>0</v>
-      </c>
-      <c r="G72" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2114,15 +1896,12 @@
         <v>0</v>
       </c>
       <c r="D73" t="n">
-        <v>1</v>
+        <v>1.000000000000546</v>
       </c>
       <c r="E73" t="n">
         <v>0</v>
       </c>
       <c r="F73" t="n">
-        <v>0</v>
-      </c>
-      <c r="G73" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2137,15 +1916,12 @@
         <v>0</v>
       </c>
       <c r="D74" t="n">
-        <v>1</v>
+        <v>1.000000000000687</v>
       </c>
       <c r="E74" t="n">
         <v>0</v>
       </c>
       <c r="F74" t="n">
-        <v>0</v>
-      </c>
-      <c r="G74" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2157,18 +1933,15 @@
         <v>573.15</v>
       </c>
       <c r="C75" t="n">
-        <v>0</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="D75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E75" t="n">
         <v>0</v>
       </c>
       <c r="F75" t="n">
-        <v>0</v>
-      </c>
-      <c r="G75" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2180,18 +1953,15 @@
         <v>573.15</v>
       </c>
       <c r="C76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E76" t="n">
         <v>0</v>
       </c>
       <c r="F76" t="n">
-        <v>0</v>
-      </c>
-      <c r="G76" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2203,18 +1973,15 @@
         <v>573.15</v>
       </c>
       <c r="C77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E77" t="n">
         <v>0</v>
       </c>
       <c r="F77" t="n">
-        <v>0</v>
-      </c>
-      <c r="G77" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2237,9 +2004,6 @@
       <c r="F78" t="n">
         <v>0</v>
       </c>
-      <c r="G78" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
@@ -2260,9 +2024,6 @@
       <c r="F79" t="n">
         <v>0</v>
       </c>
-      <c r="G79" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
@@ -2283,9 +2044,6 @@
       <c r="F80" t="n">
         <v>0</v>
       </c>
-      <c r="G80" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
@@ -2306,9 +2064,6 @@
       <c r="F81" t="n">
         <v>0</v>
       </c>
-      <c r="G81" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
@@ -2318,7 +2073,7 @@
         <v>573.15</v>
       </c>
       <c r="C82" t="n">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="D82" t="n">
         <v>0</v>
@@ -2327,9 +2082,6 @@
         <v>0</v>
       </c>
       <c r="F82" t="n">
-        <v>0</v>
-      </c>
-      <c r="G82" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2352,9 +2104,6 @@
       <c r="F83" t="n">
         <v>0</v>
       </c>
-      <c r="G83" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
@@ -2375,9 +2124,6 @@
       <c r="F84" t="n">
         <v>0</v>
       </c>
-      <c r="G84" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
@@ -2387,7 +2133,7 @@
         <v>573.15</v>
       </c>
       <c r="C85" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="D85" t="n">
         <v>0</v>
@@ -2396,9 +2142,6 @@
         <v>0</v>
       </c>
       <c r="F85" t="n">
-        <v>0</v>
-      </c>
-      <c r="G85" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2421,9 +2164,6 @@
       <c r="F86" t="n">
         <v>0</v>
       </c>
-      <c r="G86" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
@@ -2444,9 +2184,6 @@
       <c r="F87" t="n">
         <v>0</v>
       </c>
-      <c r="G87" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
@@ -2467,9 +2204,6 @@
       <c r="F88" t="n">
         <v>0</v>
       </c>
-      <c r="G88" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
@@ -2479,7 +2213,7 @@
         <v>573.15</v>
       </c>
       <c r="C89" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="D89" t="n">
         <v>0</v>
@@ -2488,9 +2222,6 @@
         <v>0</v>
       </c>
       <c r="F89" t="n">
-        <v>0</v>
-      </c>
-      <c r="G89" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2502,7 +2233,7 @@
         <v>573.15</v>
       </c>
       <c r="C90" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="D90" t="n">
         <v>0</v>
@@ -2511,9 +2242,6 @@
         <v>0</v>
       </c>
       <c r="F90" t="n">
-        <v>0</v>
-      </c>
-      <c r="G90" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2536,9 +2264,6 @@
       <c r="F91" t="n">
         <v>0</v>
       </c>
-      <c r="G91" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
@@ -2559,9 +2284,6 @@
       <c r="F92" t="n">
         <v>0</v>
       </c>
-      <c r="G92" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
@@ -2582,9 +2304,6 @@
       <c r="F93" t="n">
         <v>0</v>
       </c>
-      <c r="G93" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
@@ -2605,9 +2324,6 @@
       <c r="F94" t="n">
         <v>0</v>
       </c>
-      <c r="G94" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
@@ -2628,9 +2344,6 @@
       <c r="F95" t="n">
         <v>0</v>
       </c>
-      <c r="G95" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
@@ -2651,9 +2364,6 @@
       <c r="F96" t="n">
         <v>0</v>
       </c>
-      <c r="G96" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
@@ -2674,9 +2384,6 @@
       <c r="F97" t="n">
         <v>0</v>
       </c>
-      <c r="G97" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
@@ -2697,9 +2404,6 @@
       <c r="F98" t="n">
         <v>0</v>
       </c>
-      <c r="G98" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
@@ -2720,9 +2424,6 @@
       <c r="F99" t="n">
         <v>0</v>
       </c>
-      <c r="G99" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
@@ -2743,9 +2444,6 @@
       <c r="F100" t="n">
         <v>0</v>
       </c>
-      <c r="G100" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
@@ -2766,9 +2464,6 @@
       <c r="F101" t="n">
         <v>0</v>
       </c>
-      <c r="G101" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
@@ -2789,9 +2484,6 @@
       <c r="F102" t="n">
         <v>0</v>
       </c>
-      <c r="G102" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
@@ -2812,9 +2504,6 @@
       <c r="F103" t="n">
         <v>0</v>
       </c>
-      <c r="G103" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
@@ -2835,9 +2524,6 @@
       <c r="F104" t="n">
         <v>0</v>
       </c>
-      <c r="G104" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
@@ -2858,9 +2544,6 @@
       <c r="F105" t="n">
         <v>0</v>
       </c>
-      <c r="G105" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
@@ -2881,9 +2564,6 @@
       <c r="F106" t="n">
         <v>0</v>
       </c>
-      <c r="G106" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
@@ -2904,9 +2584,6 @@
       <c r="F107" t="n">
         <v>0</v>
       </c>
-      <c r="G107" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
@@ -2927,9 +2604,6 @@
       <c r="F108" t="n">
         <v>0</v>
       </c>
-      <c r="G108" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
@@ -2950,9 +2624,6 @@
       <c r="F109" t="n">
         <v>0</v>
       </c>
-      <c r="G109" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
@@ -2973,9 +2644,6 @@
       <c r="F110" t="n">
         <v>0</v>
       </c>
-      <c r="G110" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
@@ -2985,7 +2653,7 @@
         <v>573.15</v>
       </c>
       <c r="C111" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="D111" t="n">
         <v>0</v>
@@ -2994,9 +2662,6 @@
         <v>0</v>
       </c>
       <c r="F111" t="n">
-        <v>0</v>
-      </c>
-      <c r="G111" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3019,9 +2684,6 @@
       <c r="F112" t="n">
         <v>0</v>
       </c>
-      <c r="G112" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
@@ -3042,9 +2704,6 @@
       <c r="F113" t="n">
         <v>0</v>
       </c>
-      <c r="G113" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
@@ -3065,9 +2724,6 @@
       <c r="F114" t="n">
         <v>0</v>
       </c>
-      <c r="G114" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
@@ -3088,9 +2744,6 @@
       <c r="F115" t="n">
         <v>0</v>
       </c>
-      <c r="G115" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
@@ -3111,9 +2764,6 @@
       <c r="F116" t="n">
         <v>0</v>
       </c>
-      <c r="G116" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
@@ -3134,9 +2784,6 @@
       <c r="F117" t="n">
         <v>0</v>
       </c>
-      <c r="G117" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
@@ -3157,9 +2804,6 @@
       <c r="F118" t="n">
         <v>0</v>
       </c>
-      <c r="G118" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
@@ -3169,7 +2813,7 @@
         <v>573.15</v>
       </c>
       <c r="C119" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="D119" t="n">
         <v>0</v>
@@ -3178,9 +2822,6 @@
         <v>0</v>
       </c>
       <c r="F119" t="n">
-        <v>0</v>
-      </c>
-      <c r="G119" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3203,9 +2844,6 @@
       <c r="F120" t="n">
         <v>0</v>
       </c>
-      <c r="G120" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
@@ -3226,9 +2864,6 @@
       <c r="F121" t="n">
         <v>0</v>
       </c>
-      <c r="G121" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
@@ -3249,9 +2884,6 @@
       <c r="F122" t="n">
         <v>0</v>
       </c>
-      <c r="G122" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
@@ -3272,9 +2904,6 @@
       <c r="F123" t="n">
         <v>0</v>
       </c>
-      <c r="G123" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
@@ -3295,9 +2924,6 @@
       <c r="F124" t="n">
         <v>0</v>
       </c>
-      <c r="G124" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
@@ -3307,7 +2933,7 @@
         <v>573.15</v>
       </c>
       <c r="C125" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="D125" t="n">
         <v>0</v>
@@ -3316,9 +2942,6 @@
         <v>0</v>
       </c>
       <c r="F125" t="n">
-        <v>0</v>
-      </c>
-      <c r="G125" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3341,9 +2964,6 @@
       <c r="F126" t="n">
         <v>0</v>
       </c>
-      <c r="G126" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
@@ -3364,9 +2984,6 @@
       <c r="F127" t="n">
         <v>0</v>
       </c>
-      <c r="G127" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
@@ -3387,9 +3004,6 @@
       <c r="F128" t="n">
         <v>0</v>
       </c>
-      <c r="G128" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
@@ -3410,9 +3024,6 @@
       <c r="F129" t="n">
         <v>0</v>
       </c>
-      <c r="G129" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
@@ -3422,7 +3033,7 @@
         <v>573.15</v>
       </c>
       <c r="C130" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="D130" t="n">
         <v>0</v>
@@ -3431,9 +3042,6 @@
         <v>0</v>
       </c>
       <c r="F130" t="n">
-        <v>0</v>
-      </c>
-      <c r="G130" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3456,9 +3064,6 @@
       <c r="F131" t="n">
         <v>0</v>
       </c>
-      <c r="G131" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
@@ -3479,9 +3084,6 @@
       <c r="F132" t="n">
         <v>0</v>
       </c>
-      <c r="G132" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
@@ -3502,9 +3104,6 @@
       <c r="F133" t="n">
         <v>0</v>
       </c>
-      <c r="G133" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
@@ -3525,9 +3124,6 @@
       <c r="F134" t="n">
         <v>0</v>
       </c>
-      <c r="G134" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
@@ -3548,9 +3144,6 @@
       <c r="F135" t="n">
         <v>0</v>
       </c>
-      <c r="G135" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
@@ -3571,9 +3164,6 @@
       <c r="F136" t="n">
         <v>0</v>
       </c>
-      <c r="G136" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
@@ -3583,7 +3173,7 @@
         <v>573.15</v>
       </c>
       <c r="C137" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="D137" t="n">
         <v>0</v>
@@ -3592,9 +3182,6 @@
         <v>0</v>
       </c>
       <c r="F137" t="n">
-        <v>0</v>
-      </c>
-      <c r="G137" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3606,7 +3193,7 @@
         <v>573.15</v>
       </c>
       <c r="C138" t="n">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="D138" t="n">
         <v>0</v>
@@ -3615,9 +3202,6 @@
         <v>0</v>
       </c>
       <c r="F138" t="n">
-        <v>0</v>
-      </c>
-      <c r="G138" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3640,9 +3224,6 @@
       <c r="F139" t="n">
         <v>0</v>
       </c>
-      <c r="G139" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
@@ -3663,9 +3244,6 @@
       <c r="F140" t="n">
         <v>0</v>
       </c>
-      <c r="G140" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
@@ -3686,9 +3264,6 @@
       <c r="F141" t="n">
         <v>0</v>
       </c>
-      <c r="G141" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="142">
       <c r="A142" t="n">
@@ -3709,9 +3284,6 @@
       <c r="F142" t="n">
         <v>0</v>
       </c>
-      <c r="G142" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="143">
       <c r="A143" t="n">
@@ -3732,9 +3304,6 @@
       <c r="F143" t="n">
         <v>0</v>
       </c>
-      <c r="G143" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="144">
       <c r="A144" t="n">
@@ -3755,9 +3324,6 @@
       <c r="F144" t="n">
         <v>0</v>
       </c>
-      <c r="G144" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="145">
       <c r="A145" t="n">
@@ -3778,9 +3344,6 @@
       <c r="F145" t="n">
         <v>0</v>
       </c>
-      <c r="G145" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="146">
       <c r="A146" t="n">
@@ -3801,9 +3364,6 @@
       <c r="F146" t="n">
         <v>0</v>
       </c>
-      <c r="G146" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="147">
       <c r="A147" t="n">
@@ -3824,9 +3384,6 @@
       <c r="F147" t="n">
         <v>0</v>
       </c>
-      <c r="G147" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="148">
       <c r="A148" t="n">
@@ -3847,9 +3404,6 @@
       <c r="F148" t="n">
         <v>0</v>
       </c>
-      <c r="G148" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="149">
       <c r="A149" t="n">
@@ -3859,7 +3413,7 @@
         <v>573.15</v>
       </c>
       <c r="C149" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="D149" t="n">
         <v>0</v>
@@ -3868,9 +3422,6 @@
         <v>0</v>
       </c>
       <c r="F149" t="n">
-        <v>0</v>
-      </c>
-      <c r="G149" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3893,9 +3444,6 @@
       <c r="F150" t="n">
         <v>0</v>
       </c>
-      <c r="G150" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="151">
       <c r="A151" t="n">
@@ -3914,9 +3462,6 @@
         <v>0</v>
       </c>
       <c r="F151" t="n">
-        <v>0</v>
-      </c>
-      <c r="G151" t="n">
         <v>0</v>
       </c>
     </row>

--- a/tc_df_FullEquil_check_filter.xlsx
+++ b/tc_df_FullEquil_check_filter.xlsx
@@ -446,17 +446,17 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>np(CORUNDUM)</t>
+          <t>np(HEMATITE)</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>np(SPINEL)</t>
+          <t>np(MAGNETITE)</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>np(HALITE)</t>
+          <t>np(WUSTITE)</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
@@ -502,7 +502,7 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>1.000000000025242</v>
+        <v>1.000000000025243</v>
       </c>
     </row>
     <row r="4">
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>1.000000000024135</v>
+        <v>1.000000000024136</v>
       </c>
     </row>
     <row r="5">
@@ -542,7 +542,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>1.000000000023027</v>
+        <v>1.000000000023028</v>
       </c>
     </row>
     <row r="6">
@@ -562,7 +562,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>1.00000000002192</v>
+        <v>1.000000000021921</v>
       </c>
     </row>
     <row r="7">
@@ -602,7 +602,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>1.000000000019705</v>
+        <v>1.000000000019706</v>
       </c>
     </row>
     <row r="9">
@@ -622,7 +622,7 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>1.000000000018598</v>
+        <v>1.000000000018599</v>
       </c>
     </row>
     <row r="10">
@@ -642,7 +642,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>1.00000000001749</v>
+        <v>1.000000000017491</v>
       </c>
     </row>
     <row r="11">
@@ -662,7 +662,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>1.000000000016383</v>
+        <v>1.000000000016384</v>
       </c>
     </row>
     <row r="12">
@@ -702,7 +702,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>1.000000000014168</v>
+        <v>1.000000000014169</v>
       </c>
     </row>
     <row r="14">
@@ -722,7 +722,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>1.000000000013061</v>
+        <v>1.000000000013062</v>
       </c>
     </row>
     <row r="15">
@@ -762,7 +762,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>1.000000000010846</v>
+        <v>1.000000000010847</v>
       </c>
     </row>
     <row r="17">
@@ -782,7 +782,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>1.000000000009739</v>
+        <v>1.00000000000974</v>
       </c>
     </row>
     <row r="18">
@@ -802,7 +802,7 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>1.000000000008631</v>
+        <v>1.000000000008632</v>
       </c>
     </row>
     <row r="19">
@@ -822,7 +822,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>1.000000000007524</v>
+        <v>1.000000000007525</v>
       </c>
     </row>
     <row r="20">
@@ -842,7 +842,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>1.000000000006417</v>
+        <v>1.000000000006418</v>
       </c>
     </row>
     <row r="21">
@@ -862,7 +862,7 @@
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>1.000000000005309</v>
+        <v>1.00000000000531</v>
       </c>
     </row>
     <row r="22">
@@ -882,7 +882,7 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>1.000000000004202</v>
+        <v>1.000000000004203</v>
       </c>
     </row>
     <row r="23">
@@ -902,7 +902,7 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>1.000000000003094</v>
+        <v>1.000000000003095</v>
       </c>
     </row>
     <row r="24">
@@ -922,7 +922,7 @@
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>1.000000000001987</v>
+        <v>1.000000000001988</v>
       </c>
     </row>
     <row r="25">
@@ -1176,7 +1176,7 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0.9999999999981205</v>
+        <v>1</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -1196,7 +1196,7 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0.9999999999982608</v>
+        <v>1</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -1216,7 +1216,7 @@
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>0.9999999999984015</v>
+        <v>1</v>
       </c>
       <c r="E39" t="n">
         <v>0</v>
@@ -1236,7 +1236,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0.9999999999985418</v>
+        <v>1</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -1256,7 +1256,7 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0.9999999999986831</v>
+        <v>1</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -1276,7 +1276,7 @@
         <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>0.9999999999988229</v>
+        <v>1</v>
       </c>
       <c r="E42" t="n">
         <v>0</v>
@@ -1296,7 +1296,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0.9999999999989638</v>
+        <v>1</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0.9999999999991048</v>
+        <v>1</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -1336,7 +1336,7 @@
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>0.9999999999992452</v>
+        <v>1</v>
       </c>
       <c r="E45" t="n">
         <v>0</v>
@@ -1356,7 +1356,7 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0.9999999999993862</v>
+        <v>1</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -1376,7 +1376,7 @@
         <v>0</v>
       </c>
       <c r="D47" t="n">
-        <v>0.9999999999995266</v>
+        <v>1</v>
       </c>
       <c r="E47" t="n">
         <v>0</v>
@@ -1396,7 +1396,7 @@
         <v>0</v>
       </c>
       <c r="D48" t="n">
-        <v>0.9999999999996673</v>
+        <v>1</v>
       </c>
       <c r="E48" t="n">
         <v>0</v>
@@ -1416,7 +1416,7 @@
         <v>0</v>
       </c>
       <c r="D49" t="n">
-        <v>0.9999999999998078</v>
+        <v>1</v>
       </c>
       <c r="E49" t="n">
         <v>0</v>
@@ -1436,7 +1436,7 @@
         <v>0</v>
       </c>
       <c r="D50" t="n">
-        <v>0.9999999999999488</v>
+        <v>1</v>
       </c>
       <c r="E50" t="n">
         <v>0</v>
@@ -1456,7 +1456,7 @@
         <v>0</v>
       </c>
       <c r="D51" t="n">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="E51" t="n">
         <v>0</v>
@@ -1536,7 +1536,7 @@
         <v>0</v>
       </c>
       <c r="D55" t="n">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="E55" t="n">
         <v>0</v>
@@ -1556,7 +1556,7 @@
         <v>0</v>
       </c>
       <c r="D56" t="n">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="E56" t="n">
         <v>0</v>
@@ -1596,7 +1596,7 @@
         <v>0</v>
       </c>
       <c r="D58" t="n">
-        <v>1.000000000000001</v>
+        <v>1</v>
       </c>
       <c r="E58" t="n">
         <v>0</v>
@@ -1616,7 +1616,7 @@
         <v>0</v>
       </c>
       <c r="D59" t="n">
-        <v>0.9999999999999993</v>
+        <v>1</v>
       </c>
       <c r="E59" t="n">
         <v>0</v>
@@ -1696,7 +1696,7 @@
         <v>0</v>
       </c>
       <c r="D63" t="n">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="E63" t="n">
         <v>0</v>
@@ -1716,7 +1716,7 @@
         <v>0</v>
       </c>
       <c r="D64" t="n">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="E64" t="n">
         <v>0</v>
@@ -1796,7 +1796,7 @@
         <v>0</v>
       </c>
       <c r="D68" t="n">
-        <v>0.9999999999999993</v>
+        <v>1</v>
       </c>
       <c r="E68" t="n">
         <v>0</v>
@@ -1836,7 +1836,7 @@
         <v>0</v>
       </c>
       <c r="D70" t="n">
-        <v>1.000000000000125</v>
+        <v>1</v>
       </c>
       <c r="E70" t="n">
         <v>0</v>
@@ -1856,7 +1856,7 @@
         <v>0</v>
       </c>
       <c r="D71" t="n">
-        <v>1.000000000000265</v>
+        <v>1</v>
       </c>
       <c r="E71" t="n">
         <v>0</v>
@@ -1876,7 +1876,7 @@
         <v>0</v>
       </c>
       <c r="D72" t="n">
-        <v>1.000000000000406</v>
+        <v>1</v>
       </c>
       <c r="E72" t="n">
         <v>0</v>
@@ -1896,7 +1896,7 @@
         <v>0</v>
       </c>
       <c r="D73" t="n">
-        <v>1.000000000000546</v>
+        <v>1</v>
       </c>
       <c r="E73" t="n">
         <v>0</v>
@@ -1916,7 +1916,7 @@
         <v>0</v>
       </c>
       <c r="D74" t="n">
-        <v>1.000000000000687</v>
+        <v>1</v>
       </c>
       <c r="E74" t="n">
         <v>0</v>
@@ -1933,10 +1933,10 @@
         <v>573.15</v>
       </c>
       <c r="C75" t="n">
-        <v>0.9999999999999999</v>
+        <v>0</v>
       </c>
       <c r="D75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E75" t="n">
         <v>0</v>
@@ -1953,10 +1953,10 @@
         <v>573.15</v>
       </c>
       <c r="C76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E76" t="n">
         <v>0</v>
@@ -1973,10 +1973,10 @@
         <v>573.15</v>
       </c>
       <c r="C77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E77" t="n">
         <v>0</v>
@@ -2073,7 +2073,7 @@
         <v>573.15</v>
       </c>
       <c r="C82" t="n">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="D82" t="n">
         <v>0</v>
@@ -2133,7 +2133,7 @@
         <v>573.15</v>
       </c>
       <c r="C85" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="D85" t="n">
         <v>0</v>
@@ -2213,7 +2213,7 @@
         <v>573.15</v>
       </c>
       <c r="C89" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="D89" t="n">
         <v>0</v>
@@ -2233,7 +2233,7 @@
         <v>573.15</v>
       </c>
       <c r="C90" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="D90" t="n">
         <v>0</v>
@@ -2653,7 +2653,7 @@
         <v>573.15</v>
       </c>
       <c r="C111" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="D111" t="n">
         <v>0</v>
@@ -2813,7 +2813,7 @@
         <v>573.15</v>
       </c>
       <c r="C119" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="D119" t="n">
         <v>0</v>
@@ -2933,7 +2933,7 @@
         <v>573.15</v>
       </c>
       <c r="C125" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="D125" t="n">
         <v>0</v>
@@ -3033,7 +3033,7 @@
         <v>573.15</v>
       </c>
       <c r="C130" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="D130" t="n">
         <v>0</v>
@@ -3173,7 +3173,7 @@
         <v>573.15</v>
       </c>
       <c r="C137" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="D137" t="n">
         <v>0</v>
@@ -3193,7 +3193,7 @@
         <v>573.15</v>
       </c>
       <c r="C138" t="n">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="D138" t="n">
         <v>0</v>
@@ -3413,7 +3413,7 @@
         <v>573.15</v>
       </c>
       <c r="C149" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="D149" t="n">
         <v>0</v>

--- a/tc_df_FullEquil_check_filter.xlsx
+++ b/tc_df_FullEquil_check_filter.xlsx
@@ -446,17 +446,17 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>np(HEMATITE)</t>
+          <t>np(CORUNDUM)</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>np(MAGNETITE)</t>
+          <t>np(SPINEL)</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>np(WUSTITE)</t>
+          <t>np(HALITE)</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
@@ -502,7 +502,7 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>1.000000000025243</v>
+        <v>1.000000000025242</v>
       </c>
     </row>
     <row r="4">
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>1.000000000024136</v>
+        <v>1.000000000024135</v>
       </c>
     </row>
     <row r="5">
@@ -542,7 +542,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>1.000000000023028</v>
+        <v>1.000000000023027</v>
       </c>
     </row>
     <row r="6">
@@ -562,7 +562,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>1.000000000021921</v>
+        <v>1.00000000002192</v>
       </c>
     </row>
     <row r="7">
@@ -602,7 +602,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>1.000000000019706</v>
+        <v>1.000000000019705</v>
       </c>
     </row>
     <row r="9">
@@ -622,7 +622,7 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>1.000000000018599</v>
+        <v>1.000000000018598</v>
       </c>
     </row>
     <row r="10">
@@ -642,7 +642,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>1.000000000017491</v>
+        <v>1.00000000001749</v>
       </c>
     </row>
     <row r="11">
@@ -662,7 +662,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>1.000000000016384</v>
+        <v>1.000000000016383</v>
       </c>
     </row>
     <row r="12">
@@ -702,7 +702,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>1.000000000014169</v>
+        <v>1.000000000014168</v>
       </c>
     </row>
     <row r="14">
@@ -722,7 +722,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>1.000000000013062</v>
+        <v>1.000000000013061</v>
       </c>
     </row>
     <row r="15">
@@ -762,7 +762,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>1.000000000010847</v>
+        <v>1.000000000010846</v>
       </c>
     </row>
     <row r="17">
@@ -782,7 +782,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>1.00000000000974</v>
+        <v>1.000000000009739</v>
       </c>
     </row>
     <row r="18">
@@ -802,7 +802,7 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>1.000000000008632</v>
+        <v>1.000000000008631</v>
       </c>
     </row>
     <row r="19">
@@ -822,7 +822,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>1.000000000007525</v>
+        <v>1.000000000007524</v>
       </c>
     </row>
     <row r="20">
@@ -842,7 +842,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>1.000000000006418</v>
+        <v>1.000000000006417</v>
       </c>
     </row>
     <row r="21">
@@ -862,7 +862,7 @@
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>1.00000000000531</v>
+        <v>1.000000000005309</v>
       </c>
     </row>
     <row r="22">
@@ -882,7 +882,7 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>1.000000000004203</v>
+        <v>1.000000000004202</v>
       </c>
     </row>
     <row r="23">
@@ -902,7 +902,7 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>1.000000000003095</v>
+        <v>1.000000000003094</v>
       </c>
     </row>
     <row r="24">
@@ -922,7 +922,7 @@
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>1.000000000001988</v>
+        <v>1.000000000001987</v>
       </c>
     </row>
     <row r="25">
@@ -1176,7 +1176,7 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>1</v>
+        <v>0.9999999999981205</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -1196,7 +1196,7 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>1</v>
+        <v>0.9999999999982608</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -1216,7 +1216,7 @@
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>1</v>
+        <v>0.9999999999984015</v>
       </c>
       <c r="E39" t="n">
         <v>0</v>
@@ -1236,7 +1236,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>1</v>
+        <v>0.9999999999985418</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -1256,7 +1256,7 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>1</v>
+        <v>0.9999999999986831</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -1276,7 +1276,7 @@
         <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>1</v>
+        <v>0.9999999999988229</v>
       </c>
       <c r="E42" t="n">
         <v>0</v>
@@ -1296,7 +1296,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>1</v>
+        <v>0.9999999999989638</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>1</v>
+        <v>0.9999999999991048</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -1336,7 +1336,7 @@
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>1</v>
+        <v>0.9999999999992452</v>
       </c>
       <c r="E45" t="n">
         <v>0</v>
@@ -1356,7 +1356,7 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>1</v>
+        <v>0.9999999999993862</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -1376,7 +1376,7 @@
         <v>0</v>
       </c>
       <c r="D47" t="n">
-        <v>1</v>
+        <v>0.9999999999995266</v>
       </c>
       <c r="E47" t="n">
         <v>0</v>
@@ -1396,7 +1396,7 @@
         <v>0</v>
       </c>
       <c r="D48" t="n">
-        <v>1</v>
+        <v>0.9999999999996673</v>
       </c>
       <c r="E48" t="n">
         <v>0</v>
@@ -1416,7 +1416,7 @@
         <v>0</v>
       </c>
       <c r="D49" t="n">
-        <v>1</v>
+        <v>0.9999999999998078</v>
       </c>
       <c r="E49" t="n">
         <v>0</v>
@@ -1436,7 +1436,7 @@
         <v>0</v>
       </c>
       <c r="D50" t="n">
-        <v>1</v>
+        <v>0.9999999999999488</v>
       </c>
       <c r="E50" t="n">
         <v>0</v>
@@ -1456,7 +1456,7 @@
         <v>0</v>
       </c>
       <c r="D51" t="n">
-        <v>1</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="E51" t="n">
         <v>0</v>
@@ -1536,7 +1536,7 @@
         <v>0</v>
       </c>
       <c r="D55" t="n">
-        <v>1</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="E55" t="n">
         <v>0</v>
@@ -1556,7 +1556,7 @@
         <v>0</v>
       </c>
       <c r="D56" t="n">
-        <v>1</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="E56" t="n">
         <v>0</v>
@@ -1596,7 +1596,7 @@
         <v>0</v>
       </c>
       <c r="D58" t="n">
-        <v>1</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="E58" t="n">
         <v>0</v>
@@ -1616,7 +1616,7 @@
         <v>0</v>
       </c>
       <c r="D59" t="n">
-        <v>1</v>
+        <v>0.9999999999999993</v>
       </c>
       <c r="E59" t="n">
         <v>0</v>
@@ -1696,7 +1696,7 @@
         <v>0</v>
       </c>
       <c r="D63" t="n">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="E63" t="n">
         <v>0</v>
@@ -1716,7 +1716,7 @@
         <v>0</v>
       </c>
       <c r="D64" t="n">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="E64" t="n">
         <v>0</v>
@@ -1796,7 +1796,7 @@
         <v>0</v>
       </c>
       <c r="D68" t="n">
-        <v>1</v>
+        <v>0.9999999999999993</v>
       </c>
       <c r="E68" t="n">
         <v>0</v>
@@ -1836,7 +1836,7 @@
         <v>0</v>
       </c>
       <c r="D70" t="n">
-        <v>1</v>
+        <v>1.000000000000125</v>
       </c>
       <c r="E70" t="n">
         <v>0</v>
@@ -1856,7 +1856,7 @@
         <v>0</v>
       </c>
       <c r="D71" t="n">
-        <v>1</v>
+        <v>1.000000000000265</v>
       </c>
       <c r="E71" t="n">
         <v>0</v>
@@ -1876,7 +1876,7 @@
         <v>0</v>
       </c>
       <c r="D72" t="n">
-        <v>1</v>
+        <v>1.000000000000406</v>
       </c>
       <c r="E72" t="n">
         <v>0</v>
@@ -1896,7 +1896,7 @@
         <v>0</v>
       </c>
       <c r="D73" t="n">
-        <v>1</v>
+        <v>1.000000000000546</v>
       </c>
       <c r="E73" t="n">
         <v>0</v>
@@ -1916,7 +1916,7 @@
         <v>0</v>
       </c>
       <c r="D74" t="n">
-        <v>1</v>
+        <v>1.000000000000687</v>
       </c>
       <c r="E74" t="n">
         <v>0</v>
@@ -1933,10 +1933,10 @@
         <v>573.15</v>
       </c>
       <c r="C75" t="n">
-        <v>0</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="D75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E75" t="n">
         <v>0</v>
@@ -1953,10 +1953,10 @@
         <v>573.15</v>
       </c>
       <c r="C76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E76" t="n">
         <v>0</v>
@@ -1973,10 +1973,10 @@
         <v>573.15</v>
       </c>
       <c r="C77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E77" t="n">
         <v>0</v>
@@ -2073,7 +2073,7 @@
         <v>573.15</v>
       </c>
       <c r="C82" t="n">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="D82" t="n">
         <v>0</v>
@@ -2133,7 +2133,7 @@
         <v>573.15</v>
       </c>
       <c r="C85" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="D85" t="n">
         <v>0</v>
@@ -2213,7 +2213,7 @@
         <v>573.15</v>
       </c>
       <c r="C89" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="D89" t="n">
         <v>0</v>
@@ -2233,7 +2233,7 @@
         <v>573.15</v>
       </c>
       <c r="C90" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="D90" t="n">
         <v>0</v>
@@ -2653,7 +2653,7 @@
         <v>573.15</v>
       </c>
       <c r="C111" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="D111" t="n">
         <v>0</v>
@@ -2813,7 +2813,7 @@
         <v>573.15</v>
       </c>
       <c r="C119" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="D119" t="n">
         <v>0</v>
@@ -2933,7 +2933,7 @@
         <v>573.15</v>
       </c>
       <c r="C125" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="D125" t="n">
         <v>0</v>
@@ -3033,7 +3033,7 @@
         <v>573.15</v>
       </c>
       <c r="C130" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="D130" t="n">
         <v>0</v>
@@ -3173,7 +3173,7 @@
         <v>573.15</v>
       </c>
       <c r="C137" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="D137" t="n">
         <v>0</v>
@@ -3193,7 +3193,7 @@
         <v>573.15</v>
       </c>
       <c r="C138" t="n">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="D138" t="n">
         <v>0</v>
@@ -3413,7 +3413,7 @@
         <v>573.15</v>
       </c>
       <c r="C149" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="D149" t="n">
         <v>0</v>

--- a/tc_df_FullEquil_check_filter.xlsx
+++ b/tc_df_FullEquil_check_filter.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F151"/>
+  <dimension ref="A1:G131"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -464,6 +464,11 @@
           <t>np(BCC_A2)</t>
         </is>
       </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>mur_o</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -484,10 +489,13 @@
       <c r="F2" t="n">
         <v>1.00000000002635</v>
       </c>
+      <c r="G2" t="n">
+        <v>-2.963172753144</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-59.63087248322147</v>
+        <v>-59.57364341085271</v>
       </c>
       <c r="B3" t="n">
         <v>573.15</v>
@@ -502,12 +510,15 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>1.000000000025243</v>
+        <v>1.000000000025071</v>
+      </c>
+      <c r="G3" t="n">
+        <v>-2.942116616009255</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>-59.26174496644295</v>
+        <v>-59.14728682170543</v>
       </c>
       <c r="B4" t="n">
         <v>573.15</v>
@@ -522,12 +533,15 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>1.000000000024136</v>
+        <v>1.000000000023792</v>
+      </c>
+      <c r="G4" t="n">
+        <v>-2.921060478874511</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>-58.89261744966443</v>
+        <v>-58.72093023255814</v>
       </c>
       <c r="B5" t="n">
         <v>573.15</v>
@@ -542,12 +556,15 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>1.000000000023028</v>
+        <v>1.000000000022513</v>
+      </c>
+      <c r="G5" t="n">
+        <v>-2.900004341739767</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>-58.52348993288591</v>
+        <v>-58.29457364341085</v>
       </c>
       <c r="B6" t="n">
         <v>573.15</v>
@@ -562,12 +579,15 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>1.000000000021921</v>
+        <v>1.000000000021234</v>
+      </c>
+      <c r="G6" t="n">
+        <v>-2.878948204605023</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>-58.15436241610738</v>
+        <v>-57.86821705426357</v>
       </c>
       <c r="B7" t="n">
         <v>573.15</v>
@@ -582,12 +602,15 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>1.000000000020813</v>
+        <v>1.000000000019955</v>
+      </c>
+      <c r="G7" t="n">
+        <v>-2.857892067470279</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>-57.78523489932886</v>
+        <v>-57.44186046511628</v>
       </c>
       <c r="B8" t="n">
         <v>573.15</v>
@@ -602,12 +625,15 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>1.000000000019706</v>
+        <v>1.000000000018676</v>
+      </c>
+      <c r="G8" t="n">
+        <v>-2.836835930335535</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-57.41610738255034</v>
+        <v>-57.01550387596899</v>
       </c>
       <c r="B9" t="n">
         <v>573.15</v>
@@ -622,12 +648,15 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>1.000000000018599</v>
+        <v>1.000000000017397</v>
+      </c>
+      <c r="G9" t="n">
+        <v>-2.81577979320079</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>-57.04697986577181</v>
+        <v>-56.58914728682171</v>
       </c>
       <c r="B10" t="n">
         <v>573.15</v>
@@ -642,12 +671,15 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>1.000000000017491</v>
+        <v>1.000000000016118</v>
+      </c>
+      <c r="G10" t="n">
+        <v>-2.794723656066046</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>-56.67785234899329</v>
+        <v>-56.16279069767442</v>
       </c>
       <c r="B11" t="n">
         <v>573.15</v>
@@ -662,12 +694,15 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>1.000000000016384</v>
+        <v>1.000000000014839</v>
+      </c>
+      <c r="G11" t="n">
+        <v>-2.773667518931302</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>-56.30872483221476</v>
+        <v>-55.73643410852713</v>
       </c>
       <c r="B12" t="n">
         <v>573.15</v>
@@ -682,12 +717,15 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>1.000000000015276</v>
+        <v>1.00000000001356</v>
+      </c>
+      <c r="G12" t="n">
+        <v>-2.752611381796558</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>-55.93959731543625</v>
+        <v>-55.31007751937985</v>
       </c>
       <c r="B13" t="n">
         <v>573.15</v>
@@ -702,12 +740,15 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>1.000000000014169</v>
+        <v>1.000000000012281</v>
+      </c>
+      <c r="G13" t="n">
+        <v>-2.731555244661814</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>-55.57046979865772</v>
+        <v>-54.88372093023256</v>
       </c>
       <c r="B14" t="n">
         <v>573.15</v>
@@ -722,12 +763,15 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>1.000000000013062</v>
+        <v>1.000000000011001</v>
+      </c>
+      <c r="G14" t="n">
+        <v>-2.71049910752707</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>-55.20134228187919</v>
+        <v>-54.45736434108527</v>
       </c>
       <c r="B15" t="n">
         <v>573.15</v>
@@ -742,12 +786,15 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>1.000000000011954</v>
+        <v>1.000000000009722</v>
+      </c>
+      <c r="G15" t="n">
+        <v>-2.689442970392325</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>-54.83221476510067</v>
+        <v>-54.03100775193798</v>
       </c>
       <c r="B16" t="n">
         <v>573.15</v>
@@ -762,12 +809,15 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>1.000000000010847</v>
+        <v>1.000000000008443</v>
+      </c>
+      <c r="G16" t="n">
+        <v>-2.668386833257581</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>-54.46308724832215</v>
+        <v>-53.6046511627907</v>
       </c>
       <c r="B17" t="n">
         <v>573.15</v>
@@ -782,12 +832,15 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>1.00000000000974</v>
+        <v>1.000000000007164</v>
+      </c>
+      <c r="G17" t="n">
+        <v>-2.647330696122837</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>-54.09395973154362</v>
+        <v>-53.17829457364341</v>
       </c>
       <c r="B18" t="n">
         <v>573.15</v>
@@ -802,12 +855,15 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>1.000000000008632</v>
+        <v>1.000000000005885</v>
+      </c>
+      <c r="G18" t="n">
+        <v>-2.626274558988093</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>-53.7248322147651</v>
+        <v>-52.75193798449612</v>
       </c>
       <c r="B19" t="n">
         <v>573.15</v>
@@ -822,12 +878,15 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>1.000000000007525</v>
+        <v>1.000000000004606</v>
+      </c>
+      <c r="G19" t="n">
+        <v>-2.605218421853349</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>-53.35570469798657</v>
+        <v>-52.32558139534883</v>
       </c>
       <c r="B20" t="n">
         <v>573.15</v>
@@ -842,12 +901,15 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>1.000000000006418</v>
+        <v>1.000000000003327</v>
+      </c>
+      <c r="G20" t="n">
+        <v>-2.584162284718604</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>-52.98657718120806</v>
+        <v>-51.89922480620155</v>
       </c>
       <c r="B21" t="n">
         <v>573.15</v>
@@ -862,12 +924,15 @@
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>1.00000000000531</v>
+        <v>1.000000000002048</v>
+      </c>
+      <c r="G21" t="n">
+        <v>-2.563106147583861</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>-52.61744966442953</v>
+        <v>-51.47286821705426</v>
       </c>
       <c r="B22" t="n">
         <v>573.15</v>
@@ -882,12 +947,15 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>1.000000000004203</v>
+        <v>1.000000000000769</v>
+      </c>
+      <c r="G22" t="n">
+        <v>-2.542050010449116</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>-52.24832214765101</v>
+        <v>-51.04651162790698</v>
       </c>
       <c r="B23" t="n">
         <v>573.15</v>
@@ -902,12 +970,15 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>1.000000000003095</v>
+        <v>1</v>
+      </c>
+      <c r="G23" t="n">
+        <v>-2.520993873314372</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>-51.87919463087248</v>
+        <v>-50.62015503875969</v>
       </c>
       <c r="B24" t="n">
         <v>573.15</v>
@@ -922,12 +993,15 @@
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>1.000000000001988</v>
+        <v>1</v>
+      </c>
+      <c r="G24" t="n">
+        <v>-2.499937736179628</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>-51.51006711409396</v>
+        <v>-50.1937984496124</v>
       </c>
       <c r="B25" t="n">
         <v>573.15</v>
@@ -942,12 +1016,15 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>1.00000000000088</v>
+        <v>1</v>
+      </c>
+      <c r="G25" t="n">
+        <v>-2.478881599044883</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>-51.14093959731544</v>
+        <v>-49.76744186046511</v>
       </c>
       <c r="B26" t="n">
         <v>573.15</v>
@@ -963,11 +1040,14 @@
       </c>
       <c r="F26" t="n">
         <v>1</v>
+      </c>
+      <c r="G26" t="n">
+        <v>-2.457825461910139</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>-50.77181208053691</v>
+        <v>-49.34108527131783</v>
       </c>
       <c r="B27" t="n">
         <v>573.15</v>
@@ -983,11 +1063,14 @@
       </c>
       <c r="F27" t="n">
         <v>1</v>
+      </c>
+      <c r="G27" t="n">
+        <v>-2.436769324775395</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>-50.40268456375838</v>
+        <v>-48.91472868217054</v>
       </c>
       <c r="B28" t="n">
         <v>573.15</v>
@@ -1003,11 +1086,14 @@
       </c>
       <c r="F28" t="n">
         <v>1</v>
+      </c>
+      <c r="G28" t="n">
+        <v>-2.415713187640651</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>-50.03355704697987</v>
+        <v>-48.48837209302326</v>
       </c>
       <c r="B29" t="n">
         <v>573.15</v>
@@ -1023,11 +1109,14 @@
       </c>
       <c r="F29" t="n">
         <v>1</v>
+      </c>
+      <c r="G29" t="n">
+        <v>-2.394657050505907</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>-49.66442953020135</v>
+        <v>-48.06201550387597</v>
       </c>
       <c r="B30" t="n">
         <v>573.15</v>
@@ -1043,11 +1132,14 @@
       </c>
       <c r="F30" t="n">
         <v>1</v>
+      </c>
+      <c r="G30" t="n">
+        <v>-2.373600913371163</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>-49.29530201342282</v>
+        <v>-47.63565891472868</v>
       </c>
       <c r="B31" t="n">
         <v>573.15</v>
@@ -1063,11 +1155,14 @@
       </c>
       <c r="F31" t="n">
         <v>1</v>
+      </c>
+      <c r="G31" t="n">
+        <v>-2.352544776236418</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>-48.92617449664429</v>
+        <v>-47.2093023255814</v>
       </c>
       <c r="B32" t="n">
         <v>573.15</v>
@@ -1076,18 +1171,21 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="G32" t="n">
+        <v>-2.331488639101674</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>-48.55704697986577</v>
+        <v>-46.78294573643411</v>
       </c>
       <c r="B33" t="n">
         <v>573.15</v>
@@ -1096,18 +1194,21 @@
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="G33" t="n">
+        <v>-2.31043250196693</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>-48.18791946308725</v>
+        <v>-46.35658914728683</v>
       </c>
       <c r="B34" t="n">
         <v>573.15</v>
@@ -1116,18 +1217,21 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="G34" t="n">
+        <v>-2.289376364832186</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>-47.81879194630872</v>
+        <v>-45.93023255813954</v>
       </c>
       <c r="B35" t="n">
         <v>573.15</v>
@@ -1136,18 +1240,21 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="G35" t="n">
+        <v>-2.268320227697442</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>-47.4496644295302</v>
+        <v>-45.50387596899225</v>
       </c>
       <c r="B36" t="n">
         <v>573.15</v>
@@ -1156,18 +1263,21 @@
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E36" t="n">
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="G36" t="n">
+        <v>-2.247264090562697</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>-47.08053691275168</v>
+        <v>-45.07751937984496</v>
       </c>
       <c r="B37" t="n">
         <v>573.15</v>
@@ -1183,11 +1293,14 @@
       </c>
       <c r="F37" t="n">
         <v>0</v>
+      </c>
+      <c r="G37" t="n">
+        <v>-2.226207953427953</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>-46.71140939597315</v>
+        <v>-44.65116279069768</v>
       </c>
       <c r="B38" t="n">
         <v>573.15</v>
@@ -1203,11 +1316,14 @@
       </c>
       <c r="F38" t="n">
         <v>0</v>
+      </c>
+      <c r="G38" t="n">
+        <v>-2.205151816293209</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>-46.34228187919463</v>
+        <v>-44.22480620155039</v>
       </c>
       <c r="B39" t="n">
         <v>573.15</v>
@@ -1223,11 +1339,14 @@
       </c>
       <c r="F39" t="n">
         <v>0</v>
+      </c>
+      <c r="G39" t="n">
+        <v>-2.184095679158465</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>-45.97315436241611</v>
+        <v>-43.7984496124031</v>
       </c>
       <c r="B40" t="n">
         <v>573.15</v>
@@ -1243,11 +1362,14 @@
       </c>
       <c r="F40" t="n">
         <v>0</v>
+      </c>
+      <c r="G40" t="n">
+        <v>-2.163039542023721</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>-45.60402684563758</v>
+        <v>-43.37209302325581</v>
       </c>
       <c r="B41" t="n">
         <v>573.15</v>
@@ -1263,11 +1385,14 @@
       </c>
       <c r="F41" t="n">
         <v>0</v>
+      </c>
+      <c r="G41" t="n">
+        <v>-2.141983404888977</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>-45.23489932885906</v>
+        <v>-42.94573643410853</v>
       </c>
       <c r="B42" t="n">
         <v>573.15</v>
@@ -1283,11 +1408,14 @@
       </c>
       <c r="F42" t="n">
         <v>0</v>
+      </c>
+      <c r="G42" t="n">
+        <v>-2.120927267754233</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>-44.86577181208054</v>
+        <v>-42.51937984496124</v>
       </c>
       <c r="B43" t="n">
         <v>573.15</v>
@@ -1303,11 +1431,14 @@
       </c>
       <c r="F43" t="n">
         <v>0</v>
+      </c>
+      <c r="G43" t="n">
+        <v>-2.099871130619488</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>-44.49664429530201</v>
+        <v>-42.09302325581395</v>
       </c>
       <c r="B44" t="n">
         <v>573.15</v>
@@ -1323,11 +1454,14 @@
       </c>
       <c r="F44" t="n">
         <v>0</v>
+      </c>
+      <c r="G44" t="n">
+        <v>-2.078814993484744</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>-44.12751677852349</v>
+        <v>-41.66666666666667</v>
       </c>
       <c r="B45" t="n">
         <v>573.15</v>
@@ -1343,11 +1477,14 @@
       </c>
       <c r="F45" t="n">
         <v>0</v>
+      </c>
+      <c r="G45" t="n">
+        <v>-2.05775885635</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>-43.75838926174497</v>
+        <v>-41.24031007751938</v>
       </c>
       <c r="B46" t="n">
         <v>573.15</v>
@@ -1363,11 +1500,14 @@
       </c>
       <c r="F46" t="n">
         <v>0</v>
+      </c>
+      <c r="G46" t="n">
+        <v>-2.036702719215256</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>-43.38926174496645</v>
+        <v>-40.81395348837209</v>
       </c>
       <c r="B47" t="n">
         <v>573.15</v>
@@ -1383,11 +1523,14 @@
       </c>
       <c r="F47" t="n">
         <v>0</v>
+      </c>
+      <c r="G47" t="n">
+        <v>-2.015646582080512</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>-43.02013422818791</v>
+        <v>-40.3875968992248</v>
       </c>
       <c r="B48" t="n">
         <v>573.15</v>
@@ -1403,11 +1546,14 @@
       </c>
       <c r="F48" t="n">
         <v>0</v>
+      </c>
+      <c r="G48" t="n">
+        <v>-1.994590444945767</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>-42.65100671140939</v>
+        <v>-39.96124031007752</v>
       </c>
       <c r="B49" t="n">
         <v>573.15</v>
@@ -1423,11 +1569,14 @@
       </c>
       <c r="F49" t="n">
         <v>0</v>
+      </c>
+      <c r="G49" t="n">
+        <v>-1.973534307811023</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>-42.28187919463087</v>
+        <v>-39.53488372093023</v>
       </c>
       <c r="B50" t="n">
         <v>573.15</v>
@@ -1443,11 +1592,14 @@
       </c>
       <c r="F50" t="n">
         <v>0</v>
+      </c>
+      <c r="G50" t="n">
+        <v>-1.952478170676279</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>-41.91275167785235</v>
+        <v>-39.10852713178295</v>
       </c>
       <c r="B51" t="n">
         <v>573.15</v>
@@ -1463,11 +1615,14 @@
       </c>
       <c r="F51" t="n">
         <v>0</v>
+      </c>
+      <c r="G51" t="n">
+        <v>-1.931422033541535</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>-41.54362416107382</v>
+        <v>-38.68217054263566</v>
       </c>
       <c r="B52" t="n">
         <v>573.15</v>
@@ -1483,11 +1638,14 @@
       </c>
       <c r="F52" t="n">
         <v>0</v>
+      </c>
+      <c r="G52" t="n">
+        <v>-1.91036589640679</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>-41.1744966442953</v>
+        <v>-38.25581395348837</v>
       </c>
       <c r="B53" t="n">
         <v>573.15</v>
@@ -1503,11 +1661,14 @@
       </c>
       <c r="F53" t="n">
         <v>0</v>
+      </c>
+      <c r="G53" t="n">
+        <v>-1.889309759272046</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>-40.80536912751678</v>
+        <v>-37.82945736434108</v>
       </c>
       <c r="B54" t="n">
         <v>573.15</v>
@@ -1523,11 +1684,14 @@
       </c>
       <c r="F54" t="n">
         <v>0</v>
+      </c>
+      <c r="G54" t="n">
+        <v>-1.868253622137302</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>-40.43624161073825</v>
+        <v>-37.4031007751938</v>
       </c>
       <c r="B55" t="n">
         <v>573.15</v>
@@ -1543,11 +1707,14 @@
       </c>
       <c r="F55" t="n">
         <v>0</v>
+      </c>
+      <c r="G55" t="n">
+        <v>-1.847197485002558</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>-40.06711409395973</v>
+        <v>-36.97674418604652</v>
       </c>
       <c r="B56" t="n">
         <v>573.15</v>
@@ -1563,11 +1730,14 @@
       </c>
       <c r="F56" t="n">
         <v>0</v>
+      </c>
+      <c r="G56" t="n">
+        <v>-1.826141347867814</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>-39.69798657718121</v>
+        <v>-36.55038759689923</v>
       </c>
       <c r="B57" t="n">
         <v>573.15</v>
@@ -1583,11 +1753,14 @@
       </c>
       <c r="F57" t="n">
         <v>0</v>
+      </c>
+      <c r="G57" t="n">
+        <v>-1.80508521073307</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>-39.32885906040269</v>
+        <v>-36.12403100775194</v>
       </c>
       <c r="B58" t="n">
         <v>573.15</v>
@@ -1603,11 +1776,14 @@
       </c>
       <c r="F58" t="n">
         <v>0</v>
+      </c>
+      <c r="G58" t="n">
+        <v>-1.784029073598325</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>-38.95973154362416</v>
+        <v>-35.69767441860465</v>
       </c>
       <c r="B59" t="n">
         <v>573.15</v>
@@ -1623,11 +1799,14 @@
       </c>
       <c r="F59" t="n">
         <v>0</v>
+      </c>
+      <c r="G59" t="n">
+        <v>-1.762972936463581</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>-38.59060402684564</v>
+        <v>-35.27131782945737</v>
       </c>
       <c r="B60" t="n">
         <v>573.15</v>
@@ -1643,11 +1822,14 @@
       </c>
       <c r="F60" t="n">
         <v>0</v>
+      </c>
+      <c r="G60" t="n">
+        <v>-1.741916799328837</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>-38.22147651006711</v>
+        <v>-34.84496124031008</v>
       </c>
       <c r="B61" t="n">
         <v>573.15</v>
@@ -1663,11 +1845,14 @@
       </c>
       <c r="F61" t="n">
         <v>0</v>
+      </c>
+      <c r="G61" t="n">
+        <v>-1.720860662194093</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>-37.85234899328859</v>
+        <v>-34.41860465116279</v>
       </c>
       <c r="B62" t="n">
         <v>573.15</v>
@@ -1683,11 +1868,14 @@
       </c>
       <c r="F62" t="n">
         <v>0</v>
+      </c>
+      <c r="G62" t="n">
+        <v>-1.699804525059349</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>-37.48322147651007</v>
+        <v>-33.99224806201551</v>
       </c>
       <c r="B63" t="n">
         <v>573.15</v>
@@ -1703,11 +1891,14 @@
       </c>
       <c r="F63" t="n">
         <v>0</v>
+      </c>
+      <c r="G63" t="n">
+        <v>-1.678748387924605</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>-37.11409395973154</v>
+        <v>-33.56589147286822</v>
       </c>
       <c r="B64" t="n">
         <v>573.15</v>
@@ -1723,11 +1914,14 @@
       </c>
       <c r="F64" t="n">
         <v>0</v>
+      </c>
+      <c r="G64" t="n">
+        <v>-1.65769225078986</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>-36.74496644295301</v>
+        <v>-33.13953488372093</v>
       </c>
       <c r="B65" t="n">
         <v>573.15</v>
@@ -1743,11 +1937,14 @@
       </c>
       <c r="F65" t="n">
         <v>0</v>
+      </c>
+      <c r="G65" t="n">
+        <v>-1.636636113655116</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>-36.3758389261745</v>
+        <v>-32.71317829457364</v>
       </c>
       <c r="B66" t="n">
         <v>573.15</v>
@@ -1763,11 +1960,14 @@
       </c>
       <c r="F66" t="n">
         <v>0</v>
+      </c>
+      <c r="G66" t="n">
+        <v>-1.615579976520372</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>-36.00671140939598</v>
+        <v>-32.28682170542636</v>
       </c>
       <c r="B67" t="n">
         <v>573.15</v>
@@ -1783,211 +1983,244 @@
       </c>
       <c r="F67" t="n">
         <v>0</v>
+      </c>
+      <c r="G67" t="n">
+        <v>-1.594523839385628</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>-35.63758389261745</v>
+        <v>-31.86046511627907</v>
       </c>
       <c r="B68" t="n">
         <v>573.15</v>
       </c>
       <c r="C68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E68" t="n">
         <v>0</v>
       </c>
       <c r="F68" t="n">
         <v>0</v>
+      </c>
+      <c r="G68" t="n">
+        <v>-1.573467702250884</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>-35.26845637583892</v>
+        <v>-31.43410852713178</v>
       </c>
       <c r="B69" t="n">
         <v>573.15</v>
       </c>
       <c r="C69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E69" t="n">
         <v>0</v>
       </c>
       <c r="F69" t="n">
         <v>0</v>
+      </c>
+      <c r="G69" t="n">
+        <v>-1.552411565116139</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>-34.8993288590604</v>
+        <v>-31.0077519379845</v>
       </c>
       <c r="B70" t="n">
         <v>573.15</v>
       </c>
       <c r="C70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E70" t="n">
         <v>0</v>
       </c>
       <c r="F70" t="n">
         <v>0</v>
+      </c>
+      <c r="G70" t="n">
+        <v>-1.531355427981395</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>-34.53020134228188</v>
+        <v>-30.58139534883721</v>
       </c>
       <c r="B71" t="n">
         <v>573.15</v>
       </c>
       <c r="C71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E71" t="n">
         <v>0</v>
       </c>
       <c r="F71" t="n">
         <v>0</v>
+      </c>
+      <c r="G71" t="n">
+        <v>-1.510299290846651</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>-34.16107382550335</v>
+        <v>-30.15503875968992</v>
       </c>
       <c r="B72" t="n">
         <v>573.15</v>
       </c>
       <c r="C72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E72" t="n">
         <v>0</v>
       </c>
       <c r="F72" t="n">
         <v>0</v>
+      </c>
+      <c r="G72" t="n">
+        <v>-1.489243153711907</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>-33.79194630872483</v>
+        <v>-29.72868217054264</v>
       </c>
       <c r="B73" t="n">
         <v>573.15</v>
       </c>
       <c r="C73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E73" t="n">
         <v>0</v>
       </c>
       <c r="F73" t="n">
         <v>0</v>
+      </c>
+      <c r="G73" t="n">
+        <v>-1.468187016577163</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>-33.42281879194631</v>
+        <v>-29.30232558139535</v>
       </c>
       <c r="B74" t="n">
         <v>573.15</v>
       </c>
       <c r="C74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E74" t="n">
         <v>0</v>
       </c>
       <c r="F74" t="n">
         <v>0</v>
+      </c>
+      <c r="G74" t="n">
+        <v>-1.447130879442419</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>-33.05369127516778</v>
+        <v>-28.87596899224806</v>
       </c>
       <c r="B75" t="n">
         <v>573.15</v>
       </c>
       <c r="C75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E75" t="n">
         <v>0</v>
       </c>
       <c r="F75" t="n">
         <v>0</v>
+      </c>
+      <c r="G75" t="n">
+        <v>-1.426074742307675</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>-32.68456375838926</v>
+        <v>-28.44961240310078</v>
       </c>
       <c r="B76" t="n">
         <v>573.15</v>
       </c>
       <c r="C76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E76" t="n">
         <v>0</v>
       </c>
       <c r="F76" t="n">
         <v>0</v>
+      </c>
+      <c r="G76" t="n">
+        <v>-1.40501860517293</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>-32.31543624161074</v>
+        <v>-28.02325581395349</v>
       </c>
       <c r="B77" t="n">
         <v>573.15</v>
       </c>
       <c r="C77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E77" t="n">
         <v>0</v>
       </c>
       <c r="F77" t="n">
         <v>0</v>
+      </c>
+      <c r="G77" t="n">
+        <v>-1.383962468038186</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>-31.94630872483221</v>
+        <v>-27.5968992248062</v>
       </c>
       <c r="B78" t="n">
         <v>573.15</v>
@@ -2003,11 +2236,14 @@
       </c>
       <c r="F78" t="n">
         <v>0</v>
+      </c>
+      <c r="G78" t="n">
+        <v>-1.362906330903442</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>-31.57718120805369</v>
+        <v>-27.17054263565892</v>
       </c>
       <c r="B79" t="n">
         <v>573.15</v>
@@ -2023,11 +2259,14 @@
       </c>
       <c r="F79" t="n">
         <v>0</v>
+      </c>
+      <c r="G79" t="n">
+        <v>-1.341850193768698</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>-31.20805369127516</v>
+        <v>-26.74418604651163</v>
       </c>
       <c r="B80" t="n">
         <v>573.15</v>
@@ -2043,11 +2282,14 @@
       </c>
       <c r="F80" t="n">
         <v>0</v>
+      </c>
+      <c r="G80" t="n">
+        <v>-1.320794056633953</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>-30.83892617449664</v>
+        <v>-26.31782945736434</v>
       </c>
       <c r="B81" t="n">
         <v>573.15</v>
@@ -2063,11 +2305,14 @@
       </c>
       <c r="F81" t="n">
         <v>0</v>
+      </c>
+      <c r="G81" t="n">
+        <v>-1.299737919499209</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>-30.46979865771812</v>
+        <v>-25.89147286821706</v>
       </c>
       <c r="B82" t="n">
         <v>573.15</v>
@@ -2083,11 +2328,14 @@
       </c>
       <c r="F82" t="n">
         <v>0</v>
+      </c>
+      <c r="G82" t="n">
+        <v>-1.278681782364465</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>-30.1006711409396</v>
+        <v>-25.46511627906977</v>
       </c>
       <c r="B83" t="n">
         <v>573.15</v>
@@ -2103,11 +2351,14 @@
       </c>
       <c r="F83" t="n">
         <v>0</v>
+      </c>
+      <c r="G83" t="n">
+        <v>-1.257625645229721</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>-29.73154362416107</v>
+        <v>-25.03875968992248</v>
       </c>
       <c r="B84" t="n">
         <v>573.15</v>
@@ -2123,11 +2374,14 @@
       </c>
       <c r="F84" t="n">
         <v>0</v>
+      </c>
+      <c r="G84" t="n">
+        <v>-1.236569508094977</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>-29.36241610738255</v>
+        <v>-24.6124031007752</v>
       </c>
       <c r="B85" t="n">
         <v>573.15</v>
@@ -2143,11 +2397,14 @@
       </c>
       <c r="F85" t="n">
         <v>0</v>
+      </c>
+      <c r="G85" t="n">
+        <v>-1.215513370960233</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>-28.99328859060402</v>
+        <v>-24.18604651162791</v>
       </c>
       <c r="B86" t="n">
         <v>573.15</v>
@@ -2163,11 +2420,14 @@
       </c>
       <c r="F86" t="n">
         <v>0</v>
+      </c>
+      <c r="G86" t="n">
+        <v>-1.194457233825488</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>-28.6241610738255</v>
+        <v>-23.75968992248063</v>
       </c>
       <c r="B87" t="n">
         <v>573.15</v>
@@ -2183,11 +2443,14 @@
       </c>
       <c r="F87" t="n">
         <v>0</v>
+      </c>
+      <c r="G87" t="n">
+        <v>-1.173401096690744</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>-28.25503355704698</v>
+        <v>-23.33333333333334</v>
       </c>
       <c r="B88" t="n">
         <v>573.15</v>
@@ -2203,11 +2466,14 @@
       </c>
       <c r="F88" t="n">
         <v>0</v>
+      </c>
+      <c r="G88" t="n">
+        <v>-1.152344959556</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>-27.88590604026845</v>
+        <v>-22.90697674418605</v>
       </c>
       <c r="B89" t="n">
         <v>573.15</v>
@@ -2223,11 +2489,14 @@
       </c>
       <c r="F89" t="n">
         <v>0</v>
+      </c>
+      <c r="G89" t="n">
+        <v>-1.131288822421256</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>-27.51677852348993</v>
+        <v>-22.48062015503876</v>
       </c>
       <c r="B90" t="n">
         <v>573.15</v>
@@ -2243,11 +2512,14 @@
       </c>
       <c r="F90" t="n">
         <v>0</v>
+      </c>
+      <c r="G90" t="n">
+        <v>-1.110232685286512</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>-27.14765100671141</v>
+        <v>-22.05426356589147</v>
       </c>
       <c r="B91" t="n">
         <v>573.15</v>
@@ -2263,11 +2535,14 @@
       </c>
       <c r="F91" t="n">
         <v>0</v>
+      </c>
+      <c r="G91" t="n">
+        <v>-1.089176548151767</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>-26.77852348993289</v>
+        <v>-21.62790697674419</v>
       </c>
       <c r="B92" t="n">
         <v>573.15</v>
@@ -2283,11 +2558,14 @@
       </c>
       <c r="F92" t="n">
         <v>0</v>
+      </c>
+      <c r="G92" t="n">
+        <v>-1.068120411017023</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>-26.40939597315436</v>
+        <v>-21.2015503875969</v>
       </c>
       <c r="B93" t="n">
         <v>573.15</v>
@@ -2303,11 +2581,14 @@
       </c>
       <c r="F93" t="n">
         <v>0</v>
+      </c>
+      <c r="G93" t="n">
+        <v>-1.047064273882279</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>-26.04026845637583</v>
+        <v>-20.77519379844961</v>
       </c>
       <c r="B94" t="n">
         <v>573.15</v>
@@ -2323,11 +2604,14 @@
       </c>
       <c r="F94" t="n">
         <v>0</v>
+      </c>
+      <c r="G94" t="n">
+        <v>-1.026008136747535</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>-25.67114093959731</v>
+        <v>-20.34883720930232</v>
       </c>
       <c r="B95" t="n">
         <v>573.15</v>
@@ -2343,11 +2627,14 @@
       </c>
       <c r="F95" t="n">
         <v>0</v>
+      </c>
+      <c r="G95" t="n">
+        <v>-1.00495199961279</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>-25.30201342281879</v>
+        <v>-19.92248062015504</v>
       </c>
       <c r="B96" t="n">
         <v>573.15</v>
@@ -2363,11 +2650,14 @@
       </c>
       <c r="F96" t="n">
         <v>0</v>
+      </c>
+      <c r="G96" t="n">
+        <v>-0.9838958624780466</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>-24.93288590604027</v>
+        <v>-19.49612403100775</v>
       </c>
       <c r="B97" t="n">
         <v>573.15</v>
@@ -2383,11 +2673,14 @@
       </c>
       <c r="F97" t="n">
         <v>0</v>
+      </c>
+      <c r="G97" t="n">
+        <v>-0.9628397253433023</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>-24.56375838926174</v>
+        <v>-19.06976744186046</v>
       </c>
       <c r="B98" t="n">
         <v>573.15</v>
@@ -2403,11 +2696,14 @@
       </c>
       <c r="F98" t="n">
         <v>0</v>
+      </c>
+      <c r="G98" t="n">
+        <v>-0.9417835882085579</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>-24.19463087248322</v>
+        <v>-18.64341085271318</v>
       </c>
       <c r="B99" t="n">
         <v>573.15</v>
@@ -2423,11 +2719,14 @@
       </c>
       <c r="F99" t="n">
         <v>0</v>
+      </c>
+      <c r="G99" t="n">
+        <v>-0.920727451073814</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>-23.8255033557047</v>
+        <v>-18.21705426356589</v>
       </c>
       <c r="B100" t="n">
         <v>573.15</v>
@@ -2443,11 +2742,14 @@
       </c>
       <c r="F100" t="n">
         <v>0</v>
+      </c>
+      <c r="G100" t="n">
+        <v>-0.8996713139390696</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>-23.45637583892617</v>
+        <v>-17.79069767441861</v>
       </c>
       <c r="B101" t="n">
         <v>573.15</v>
@@ -2463,11 +2765,14 @@
       </c>
       <c r="F101" t="n">
         <v>0</v>
+      </c>
+      <c r="G101" t="n">
+        <v>-0.8786151768043258</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>-23.08724832214765</v>
+        <v>-17.36434108527132</v>
       </c>
       <c r="B102" t="n">
         <v>573.15</v>
@@ -2483,11 +2788,14 @@
       </c>
       <c r="F102" t="n">
         <v>0</v>
+      </c>
+      <c r="G102" t="n">
+        <v>-0.8575590396695816</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>-22.71812080536913</v>
+        <v>-16.93798449612403</v>
       </c>
       <c r="B103" t="n">
         <v>573.15</v>
@@ -2503,11 +2811,14 @@
       </c>
       <c r="F103" t="n">
         <v>0</v>
+      </c>
+      <c r="G103" t="n">
+        <v>-0.8365029025348372</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>-22.3489932885906</v>
+        <v>-16.51162790697675</v>
       </c>
       <c r="B104" t="n">
         <v>573.15</v>
@@ -2523,11 +2834,14 @@
       </c>
       <c r="F104" t="n">
         <v>0</v>
+      </c>
+      <c r="G104" t="n">
+        <v>-0.8154467654000931</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>-21.97986577181208</v>
+        <v>-16.08527131782946</v>
       </c>
       <c r="B105" t="n">
         <v>573.15</v>
@@ -2543,11 +2857,14 @@
       </c>
       <c r="F105" t="n">
         <v>0</v>
+      </c>
+      <c r="G105" t="n">
+        <v>-0.7943906282653489</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>-21.61073825503355</v>
+        <v>-15.65891472868217</v>
       </c>
       <c r="B106" t="n">
         <v>573.15</v>
@@ -2563,11 +2880,14 @@
       </c>
       <c r="F106" t="n">
         <v>0</v>
+      </c>
+      <c r="G106" t="n">
+        <v>-0.7733344911306046</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>-21.24161073825503</v>
+        <v>-15.23255813953489</v>
       </c>
       <c r="B107" t="n">
         <v>573.15</v>
@@ -2583,11 +2903,14 @@
       </c>
       <c r="F107" t="n">
         <v>0</v>
+      </c>
+      <c r="G107" t="n">
+        <v>-0.7522783539958605</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>-20.87248322147651</v>
+        <v>-14.8062015503876</v>
       </c>
       <c r="B108" t="n">
         <v>573.15</v>
@@ -2603,11 +2926,14 @@
       </c>
       <c r="F108" t="n">
         <v>0</v>
+      </c>
+      <c r="G108" t="n">
+        <v>-0.7312222168611161</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>-20.50335570469798</v>
+        <v>-14.37984496124031</v>
       </c>
       <c r="B109" t="n">
         <v>573.15</v>
@@ -2623,11 +2949,14 @@
       </c>
       <c r="F109" t="n">
         <v>0</v>
+      </c>
+      <c r="G109" t="n">
+        <v>-0.7101660797263721</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>-20.13422818791946</v>
+        <v>-13.95348837209303</v>
       </c>
       <c r="B110" t="n">
         <v>573.15</v>
@@ -2643,11 +2972,14 @@
       </c>
       <c r="F110" t="n">
         <v>0</v>
+      </c>
+      <c r="G110" t="n">
+        <v>-0.6891099425916281</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>-19.76510067114094</v>
+        <v>-13.52713178294574</v>
       </c>
       <c r="B111" t="n">
         <v>573.15</v>
@@ -2663,11 +2995,14 @@
       </c>
       <c r="F111" t="n">
         <v>0</v>
+      </c>
+      <c r="G111" t="n">
+        <v>-0.6680538054568838</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>-19.39597315436242</v>
+        <v>-13.10077519379846</v>
       </c>
       <c r="B112" t="n">
         <v>573.15</v>
@@ -2683,11 +3018,14 @@
       </c>
       <c r="F112" t="n">
         <v>0</v>
+      </c>
+      <c r="G112" t="n">
+        <v>-0.6469976683221397</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>-19.02684563758389</v>
+        <v>-12.67441860465117</v>
       </c>
       <c r="B113" t="n">
         <v>573.15</v>
@@ -2703,11 +3041,14 @@
       </c>
       <c r="F113" t="n">
         <v>0</v>
+      </c>
+      <c r="G113" t="n">
+        <v>-0.6259415311873955</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>-18.65771812080537</v>
+        <v>-12.24806201550388</v>
       </c>
       <c r="B114" t="n">
         <v>573.15</v>
@@ -2723,11 +3064,14 @@
       </c>
       <c r="F114" t="n">
         <v>0</v>
+      </c>
+      <c r="G114" t="n">
+        <v>-0.6048853940526511</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>-18.28859060402684</v>
+        <v>-11.82170542635659</v>
       </c>
       <c r="B115" t="n">
         <v>573.15</v>
@@ -2743,11 +3087,14 @@
       </c>
       <c r="F115" t="n">
         <v>0</v>
+      </c>
+      <c r="G115" t="n">
+        <v>-0.5838292569179071</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>-17.91946308724832</v>
+        <v>-11.3953488372093</v>
       </c>
       <c r="B116" t="n">
         <v>573.15</v>
@@ -2763,11 +3110,14 @@
       </c>
       <c r="F116" t="n">
         <v>0</v>
+      </c>
+      <c r="G116" t="n">
+        <v>-0.5627731197831628</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>-17.5503355704698</v>
+        <v>-10.96899224806202</v>
       </c>
       <c r="B117" t="n">
         <v>573.15</v>
@@ -2783,11 +3133,14 @@
       </c>
       <c r="F117" t="n">
         <v>0</v>
+      </c>
+      <c r="G117" t="n">
+        <v>-0.5417169826484186</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>-17.18120805369127</v>
+        <v>-10.54263565891473</v>
       </c>
       <c r="B118" t="n">
         <v>573.15</v>
@@ -2803,11 +3156,14 @@
       </c>
       <c r="F118" t="n">
         <v>0</v>
+      </c>
+      <c r="G118" t="n">
+        <v>-0.5206608455136745</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>-16.81208053691275</v>
+        <v>-10.11627906976744</v>
       </c>
       <c r="B119" t="n">
         <v>573.15</v>
@@ -2823,11 +3179,14 @@
       </c>
       <c r="F119" t="n">
         <v>0</v>
+      </c>
+      <c r="G119" t="n">
+        <v>-0.4996047083789302</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>-16.44295302013423</v>
+        <v>-9.689922480620154</v>
       </c>
       <c r="B120" t="n">
         <v>573.15</v>
@@ -2843,11 +3202,14 @@
       </c>
       <c r="F120" t="n">
         <v>0</v>
+      </c>
+      <c r="G120" t="n">
+        <v>-0.4785485712441859</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>-16.0738255033557</v>
+        <v>-9.263565891472872</v>
       </c>
       <c r="B121" t="n">
         <v>573.15</v>
@@ -2863,11 +3225,14 @@
       </c>
       <c r="F121" t="n">
         <v>0</v>
+      </c>
+      <c r="G121" t="n">
+        <v>-0.457492434109442</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>-15.70469798657718</v>
+        <v>-8.837209302325583</v>
       </c>
       <c r="B122" t="n">
         <v>573.15</v>
@@ -2883,11 +3248,14 @@
       </c>
       <c r="F122" t="n">
         <v>0</v>
+      </c>
+      <c r="G122" t="n">
+        <v>-0.4364362969746977</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>-15.33557046979865</v>
+        <v>-8.410852713178294</v>
       </c>
       <c r="B123" t="n">
         <v>573.15</v>
@@ -2903,11 +3271,14 @@
       </c>
       <c r="F123" t="n">
         <v>0</v>
+      </c>
+      <c r="G123" t="n">
+        <v>-0.4153801598399534</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>-14.96644295302013</v>
+        <v>-7.984496124031011</v>
       </c>
       <c r="B124" t="n">
         <v>573.15</v>
@@ -2923,11 +3294,14 @@
       </c>
       <c r="F124" t="n">
         <v>0</v>
+      </c>
+      <c r="G124" t="n">
+        <v>-0.3943240227052094</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>-14.59731543624161</v>
+        <v>-7.558139534883722</v>
       </c>
       <c r="B125" t="n">
         <v>573.15</v>
@@ -2943,11 +3317,14 @@
       </c>
       <c r="F125" t="n">
         <v>0</v>
+      </c>
+      <c r="G125" t="n">
+        <v>-0.3732678855704651</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>-14.22818791946308</v>
+        <v>-7.13178294573644</v>
       </c>
       <c r="B126" t="n">
         <v>573.15</v>
@@ -2963,11 +3340,14 @@
       </c>
       <c r="F126" t="n">
         <v>0</v>
+      </c>
+      <c r="G126" t="n">
+        <v>-0.3522117484357211</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>-13.85906040268456</v>
+        <v>-6.70542635658915</v>
       </c>
       <c r="B127" t="n">
         <v>573.15</v>
@@ -2983,11 +3363,14 @@
       </c>
       <c r="F127" t="n">
         <v>0</v>
+      </c>
+      <c r="G127" t="n">
+        <v>-0.3311556113009769</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>-13.48993288590604</v>
+        <v>-6.279069767441861</v>
       </c>
       <c r="B128" t="n">
         <v>573.15</v>
@@ -3003,11 +3386,14 @@
       </c>
       <c r="F128" t="n">
         <v>0</v>
+      </c>
+      <c r="G128" t="n">
+        <v>-0.3100994741662326</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>-13.12080536912752</v>
+        <v>-5.852713178294579</v>
       </c>
       <c r="B129" t="n">
         <v>573.15</v>
@@ -3023,11 +3409,14 @@
       </c>
       <c r="F129" t="n">
         <v>0</v>
+      </c>
+      <c r="G129" t="n">
+        <v>-0.2890433370314886</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>-12.75167785234899</v>
+        <v>-5.426356589147289</v>
       </c>
       <c r="B130" t="n">
         <v>573.15</v>
@@ -3043,11 +3432,14 @@
       </c>
       <c r="F130" t="n">
         <v>0</v>
+      </c>
+      <c r="G130" t="n">
+        <v>-0.2679871998967442</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>-12.38255033557046</v>
+        <v>-5</v>
       </c>
       <c r="B131" t="n">
         <v>573.15</v>
@@ -3064,405 +3456,8 @@
       <c r="F131" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="132">
-      <c r="A132" t="n">
-        <v>-12.01342281879194</v>
-      </c>
-      <c r="B132" t="n">
-        <v>573.15</v>
-      </c>
-      <c r="C132" t="n">
-        <v>1</v>
-      </c>
-      <c r="D132" t="n">
-        <v>0</v>
-      </c>
-      <c r="E132" t="n">
-        <v>0</v>
-      </c>
-      <c r="F132" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" t="n">
-        <v>-11.64429530201342</v>
-      </c>
-      <c r="B133" t="n">
-        <v>573.15</v>
-      </c>
-      <c r="C133" t="n">
-        <v>1</v>
-      </c>
-      <c r="D133" t="n">
-        <v>0</v>
-      </c>
-      <c r="E133" t="n">
-        <v>0</v>
-      </c>
-      <c r="F133" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" t="n">
-        <v>-11.2751677852349</v>
-      </c>
-      <c r="B134" t="n">
-        <v>573.15</v>
-      </c>
-      <c r="C134" t="n">
-        <v>1</v>
-      </c>
-      <c r="D134" t="n">
-        <v>0</v>
-      </c>
-      <c r="E134" t="n">
-        <v>0</v>
-      </c>
-      <c r="F134" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" t="n">
-        <v>-10.90604026845637</v>
-      </c>
-      <c r="B135" t="n">
-        <v>573.15</v>
-      </c>
-      <c r="C135" t="n">
-        <v>1</v>
-      </c>
-      <c r="D135" t="n">
-        <v>0</v>
-      </c>
-      <c r="E135" t="n">
-        <v>0</v>
-      </c>
-      <c r="F135" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" t="n">
-        <v>-10.53691275167785</v>
-      </c>
-      <c r="B136" t="n">
-        <v>573.15</v>
-      </c>
-      <c r="C136" t="n">
-        <v>1</v>
-      </c>
-      <c r="D136" t="n">
-        <v>0</v>
-      </c>
-      <c r="E136" t="n">
-        <v>0</v>
-      </c>
-      <c r="F136" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" t="n">
-        <v>-10.16778523489933</v>
-      </c>
-      <c r="B137" t="n">
-        <v>573.15</v>
-      </c>
-      <c r="C137" t="n">
-        <v>1</v>
-      </c>
-      <c r="D137" t="n">
-        <v>0</v>
-      </c>
-      <c r="E137" t="n">
-        <v>0</v>
-      </c>
-      <c r="F137" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" t="n">
-        <v>-9.798657718120801</v>
-      </c>
-      <c r="B138" t="n">
-        <v>573.15</v>
-      </c>
-      <c r="C138" t="n">
-        <v>1</v>
-      </c>
-      <c r="D138" t="n">
-        <v>0</v>
-      </c>
-      <c r="E138" t="n">
-        <v>0</v>
-      </c>
-      <c r="F138" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" t="n">
-        <v>-9.429530201342281</v>
-      </c>
-      <c r="B139" t="n">
-        <v>573.15</v>
-      </c>
-      <c r="C139" t="n">
-        <v>1</v>
-      </c>
-      <c r="D139" t="n">
-        <v>0</v>
-      </c>
-      <c r="E139" t="n">
-        <v>0</v>
-      </c>
-      <c r="F139" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" t="n">
-        <v>-9.060402684563755</v>
-      </c>
-      <c r="B140" t="n">
-        <v>573.15</v>
-      </c>
-      <c r="C140" t="n">
-        <v>1</v>
-      </c>
-      <c r="D140" t="n">
-        <v>0</v>
-      </c>
-      <c r="E140" t="n">
-        <v>0</v>
-      </c>
-      <c r="F140" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" t="n">
-        <v>-8.691275167785228</v>
-      </c>
-      <c r="B141" t="n">
-        <v>573.15</v>
-      </c>
-      <c r="C141" t="n">
-        <v>1</v>
-      </c>
-      <c r="D141" t="n">
-        <v>0</v>
-      </c>
-      <c r="E141" t="n">
-        <v>0</v>
-      </c>
-      <c r="F141" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" t="n">
-        <v>-8.322147651006709</v>
-      </c>
-      <c r="B142" t="n">
-        <v>573.15</v>
-      </c>
-      <c r="C142" t="n">
-        <v>1</v>
-      </c>
-      <c r="D142" t="n">
-        <v>0</v>
-      </c>
-      <c r="E142" t="n">
-        <v>0</v>
-      </c>
-      <c r="F142" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" t="n">
-        <v>-7.953020134228183</v>
-      </c>
-      <c r="B143" t="n">
-        <v>573.15</v>
-      </c>
-      <c r="C143" t="n">
-        <v>1</v>
-      </c>
-      <c r="D143" t="n">
-        <v>0</v>
-      </c>
-      <c r="E143" t="n">
-        <v>0</v>
-      </c>
-      <c r="F143" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" t="n">
-        <v>-7.583892617449663</v>
-      </c>
-      <c r="B144" t="n">
-        <v>573.15</v>
-      </c>
-      <c r="C144" t="n">
-        <v>1</v>
-      </c>
-      <c r="D144" t="n">
-        <v>0</v>
-      </c>
-      <c r="E144" t="n">
-        <v>0</v>
-      </c>
-      <c r="F144" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" t="n">
-        <v>-7.214765100671137</v>
-      </c>
-      <c r="B145" t="n">
-        <v>573.15</v>
-      </c>
-      <c r="C145" t="n">
-        <v>1</v>
-      </c>
-      <c r="D145" t="n">
-        <v>0</v>
-      </c>
-      <c r="E145" t="n">
-        <v>0</v>
-      </c>
-      <c r="F145" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" t="n">
-        <v>-6.845637583892611</v>
-      </c>
-      <c r="B146" t="n">
-        <v>573.15</v>
-      </c>
-      <c r="C146" t="n">
-        <v>1</v>
-      </c>
-      <c r="D146" t="n">
-        <v>0</v>
-      </c>
-      <c r="E146" t="n">
-        <v>0</v>
-      </c>
-      <c r="F146" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" t="n">
-        <v>-6.476510067114091</v>
-      </c>
-      <c r="B147" t="n">
-        <v>573.15</v>
-      </c>
-      <c r="C147" t="n">
-        <v>1</v>
-      </c>
-      <c r="D147" t="n">
-        <v>0</v>
-      </c>
-      <c r="E147" t="n">
-        <v>0</v>
-      </c>
-      <c r="F147" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" t="n">
-        <v>-6.107382550335565</v>
-      </c>
-      <c r="B148" t="n">
-        <v>573.15</v>
-      </c>
-      <c r="C148" t="n">
-        <v>1</v>
-      </c>
-      <c r="D148" t="n">
-        <v>0</v>
-      </c>
-      <c r="E148" t="n">
-        <v>0</v>
-      </c>
-      <c r="F148" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" t="n">
-        <v>-5.738255033557046</v>
-      </c>
-      <c r="B149" t="n">
-        <v>573.15</v>
-      </c>
-      <c r="C149" t="n">
-        <v>1</v>
-      </c>
-      <c r="D149" t="n">
-        <v>0</v>
-      </c>
-      <c r="E149" t="n">
-        <v>0</v>
-      </c>
-      <c r="F149" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" t="n">
-        <v>-5.369127516778519</v>
-      </c>
-      <c r="B150" t="n">
-        <v>573.15</v>
-      </c>
-      <c r="C150" t="n">
-        <v>1</v>
-      </c>
-      <c r="D150" t="n">
-        <v>0</v>
-      </c>
-      <c r="E150" t="n">
-        <v>0</v>
-      </c>
-      <c r="F150" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" t="n">
-        <v>-5</v>
-      </c>
-      <c r="B151" t="n">
-        <v>573.15</v>
-      </c>
-      <c r="C151" t="n">
-        <v>1</v>
-      </c>
-      <c r="D151" t="n">
-        <v>0</v>
-      </c>
-      <c r="E151" t="n">
-        <v>0</v>
-      </c>
-      <c r="F151" t="n">
-        <v>0</v>
+      <c r="G131" t="n">
+        <v>-0.246931062762</v>
       </c>
     </row>
   </sheetData>
